--- a/inst/planilha_esus.xlsx
+++ b/inst/planilha_esus.xlsx
@@ -395,14 +395,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -416,14 +416,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -437,14 +437,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -458,14 +458,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -479,14 +479,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D6">
         <v>11</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -500,14 +500,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -521,14 +521,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -542,7 +542,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D9">
@@ -563,14 +563,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -584,14 +584,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -605,14 +605,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D13">
@@ -647,7 +647,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D14">
@@ -668,7 +668,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D15">
@@ -689,7 +689,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D16">
@@ -710,14 +710,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -731,14 +731,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -752,14 +752,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -773,14 +773,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -794,11 +794,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -815,14 +815,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -836,7 +836,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D23">
@@ -857,14 +857,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -878,14 +878,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -899,7 +899,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D26">
@@ -920,7 +920,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D27">
@@ -941,7 +941,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D28">
@@ -962,7 +962,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D29">
@@ -983,14 +983,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1004,14 +1004,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1025,14 +1025,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D33">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D34">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D35">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D36">
@@ -1130,14 +1130,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1151,14 +1151,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1193,14 +1193,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1214,14 +1214,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D42">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D43">
@@ -1277,14 +1277,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1298,14 +1298,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1319,14 +1319,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D50">
@@ -1424,14 +1424,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1487,14 +1487,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -1508,14 +1508,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1529,14 +1529,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -1571,14 +1571,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -1592,14 +1592,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
@@ -1613,14 +1613,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
@@ -1634,14 +1634,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -1655,14 +1655,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -1676,14 +1676,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -1697,14 +1697,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D65">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1760,14 +1760,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -1781,14 +1781,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D69">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D70">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D71">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D72">
@@ -1886,14 +1886,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -1907,14 +1907,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D76">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D77">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D78">
@@ -2012,14 +2012,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2033,14 +2033,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2054,14 +2054,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D82">
@@ -2096,14 +2096,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2138,14 +2138,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2159,14 +2159,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2180,14 +2180,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2201,14 +2201,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2222,14 +2222,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -2243,14 +2243,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D91">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D92">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D93">
@@ -2327,14 +2327,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2348,14 +2348,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2369,14 +2369,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D97">
@@ -2411,14 +2411,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2432,14 +2432,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2474,14 +2474,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D103">
@@ -2537,14 +2537,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -2558,14 +2558,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D106">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D107">
@@ -2621,11 +2621,11 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -2642,14 +2642,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -2663,14 +2663,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -2705,14 +2705,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2726,14 +2726,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D114">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D115">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -2810,14 +2810,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D118">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D119">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D120">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D121">
@@ -2915,14 +2915,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -2936,11 +2936,11 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E123">
         <v>7</v>
@@ -2957,14 +2957,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
@@ -2978,14 +2978,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D126">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D127">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D128">
@@ -3062,14 +3062,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3083,14 +3083,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D131">
@@ -3125,14 +3125,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3146,14 +3146,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D134">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D135">
@@ -3209,14 +3209,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3230,14 +3230,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D138">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D139">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D140">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D141">
@@ -3335,14 +3335,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D143">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D144">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D145">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D146">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D147">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D148">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D149">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D150">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D151">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D152">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D153">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D154">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D155">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
       <c r="E156">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -3650,14 +3650,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E157">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158">
@@ -3671,14 +3671,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D158">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E158">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159">
@@ -3692,14 +3692,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D159">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E159">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160">
@@ -3713,14 +3713,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161">
@@ -3734,14 +3734,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E161">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162">
@@ -3755,14 +3755,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -3776,14 +3776,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -3797,14 +3797,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D166">
@@ -3860,14 +3860,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -3881,14 +3881,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D169">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D170">
@@ -3944,14 +3944,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -3965,11 +3965,11 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -3986,14 +3986,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4007,14 +4007,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4028,14 +4028,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D176">
@@ -4070,14 +4070,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178">
@@ -4091,14 +4091,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179">
@@ -4112,14 +4112,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E179">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180">
@@ -4133,14 +4133,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181">
@@ -4154,14 +4154,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D181">
         <v>1</v>
       </c>
       <c r="E181">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
@@ -4175,14 +4175,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -4196,14 +4196,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4217,14 +4217,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -4238,14 +4238,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186">
@@ -4259,14 +4259,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D186">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E186">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187">
@@ -4280,14 +4280,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E187">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188">
@@ -4301,14 +4301,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D188">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E188">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189">
@@ -4322,14 +4322,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E189">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190">
@@ -4343,14 +4343,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D190">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E190">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -4364,14 +4364,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D192">
@@ -4406,14 +4406,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -4427,14 +4427,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -4448,14 +4448,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D196">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D197">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D198">
@@ -4532,14 +4532,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -4553,14 +4553,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D201">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D202">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D203">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D204">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D205">
@@ -4679,14 +4679,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207">
@@ -4700,14 +4700,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D207">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E207">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D208">
         <v>5</v>
       </c>
       <c r="E208">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209">
@@ -4742,14 +4742,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E209">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210">
@@ -4763,14 +4763,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D210">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E210">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -4784,14 +4784,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -4805,14 +4805,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -4826,14 +4826,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214">
@@ -4847,14 +4847,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -4868,14 +4868,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216">
@@ -4889,14 +4889,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E216">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -4910,14 +4910,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -4931,14 +4931,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D219">
@@ -4973,14 +4973,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -4994,14 +4994,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E221">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D222">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D223">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D224">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D225">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D226">
@@ -5120,14 +5120,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -5141,14 +5141,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5162,14 +5162,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D229">
         <v>0</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -5183,14 +5183,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D231">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D232">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D233">
@@ -5267,14 +5267,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235">
@@ -5288,14 +5288,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D235">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E235">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236">
@@ -5309,14 +5309,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D236">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -5330,14 +5330,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D238">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D239">
@@ -5393,14 +5393,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -5414,14 +5414,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -5435,14 +5435,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E242">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243">
@@ -5456,14 +5456,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E243">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
@@ -5477,14 +5477,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E244">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -5498,14 +5498,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D246">
@@ -5540,14 +5540,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E247">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -5561,14 +5561,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D248">
         <v>0</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249">
@@ -5582,14 +5582,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E249">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250">
@@ -5603,14 +5603,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E250">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251">
@@ -5624,14 +5624,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D251">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E251">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D252">
@@ -5666,14 +5666,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D254">
@@ -5708,14 +5708,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256">
@@ -5729,14 +5729,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E256">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -5750,14 +5750,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D257">
         <v>2</v>
       </c>
       <c r="E257">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -5771,14 +5771,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E258">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D259">
         <v>0</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D260">
@@ -5834,11 +5834,11 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D261">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E261">
         <v>22</v>
@@ -5855,14 +5855,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E262">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="263">
@@ -5876,14 +5876,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D263">
         <v>9</v>
       </c>
       <c r="E263">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="264">
@@ -5897,14 +5897,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D264">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E264">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="265">
@@ -5918,14 +5918,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D265">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E265">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="266">
@@ -5939,14 +5939,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D266">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="267">
@@ -5960,14 +5960,14 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D267">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E267">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="268">
@@ -5981,14 +5981,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
         <v>2</v>
-      </c>
-      <c r="E268">
-        <v>8</v>
       </c>
     </row>
     <row r="269">
@@ -6002,14 +6002,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270">
@@ -6023,14 +6023,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E270">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D271">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D272">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D273">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D274">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D275">
@@ -6149,14 +6149,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277">
@@ -6170,14 +6170,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D277">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E277">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278">
@@ -6191,14 +6191,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D278">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E278">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279">
@@ -6212,14 +6212,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D279">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E279">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280">
@@ -6233,14 +6233,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D280">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E280">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281">
@@ -6254,14 +6254,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E281">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D282">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D283">
@@ -6317,14 +6317,14 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -6338,14 +6338,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -6359,14 +6359,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -6380,14 +6380,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D288">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D289">
@@ -6443,14 +6443,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D290">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291">
@@ -6464,14 +6464,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D291">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -6485,14 +6485,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -6506,14 +6506,14 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D294">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D295">
@@ -6569,14 +6569,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E296">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E297">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298">
@@ -6611,14 +6611,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D298">
         <v>0</v>
       </c>
       <c r="E298">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -6632,14 +6632,14 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E299">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E300">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301">
@@ -6674,14 +6674,14 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E301">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -6695,14 +6695,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D302">
         <v>1</v>
       </c>
       <c r="E302">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303">
@@ -6716,14 +6716,14 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D303">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E303">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304">
@@ -6737,14 +6737,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D304">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E304">
-        <v>14</v>
+        <v>203</v>
       </c>
     </row>
     <row r="305">
@@ -6758,14 +6758,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D305">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E305">
-        <v>203</v>
+        <v>120</v>
       </c>
     </row>
     <row r="306">
@@ -6779,14 +6779,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D306">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E306">
-        <v>120</v>
+        <v>87</v>
       </c>
     </row>
     <row r="307">
@@ -6800,14 +6800,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D307">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E307">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="308">
@@ -6821,14 +6821,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D308">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E308">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="309">
@@ -6842,14 +6842,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D309">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E309">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310">
@@ -6863,14 +6863,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
         <v>4</v>
-      </c>
-      <c r="E310">
-        <v>18</v>
       </c>
     </row>
     <row r="311">
@@ -6884,14 +6884,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E311">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="312">
@@ -6905,14 +6905,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D312">
         <v>11</v>
       </c>
       <c r="E312">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313">
@@ -6926,14 +6926,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D313">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E313">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314">
@@ -6947,14 +6947,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D314">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E314">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -6968,14 +6968,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E315">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -6989,14 +6989,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -7010,14 +7010,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D317">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E317">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -7031,14 +7031,14 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D318">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E318">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="319">
@@ -7052,14 +7052,14 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D319">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E319">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="320">
@@ -7073,14 +7073,14 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D320">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E320">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="321">
@@ -7094,14 +7094,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D321">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E321">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="322">
@@ -7115,14 +7115,14 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D322">
+        <v>3</v>
+      </c>
+      <c r="E322">
         <v>7</v>
-      </c>
-      <c r="E322">
-        <v>21</v>
       </c>
     </row>
     <row r="323">
@@ -7136,14 +7136,14 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D323">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E323">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -7157,14 +7157,14 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D324">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E324">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325">
@@ -7178,14 +7178,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D325">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E325">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D326">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E326">
         <v>11</v>
@@ -7220,14 +7220,14 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D327">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E327">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -7241,14 +7241,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D329">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D330">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D331">
@@ -7325,14 +7325,14 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D332">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -7346,14 +7346,14 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D333">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D334">
@@ -7388,14 +7388,14 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D335">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E335">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -7409,14 +7409,14 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D336">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E336">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D337">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D338">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D339">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D340">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D341">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D342">
@@ -7556,14 +7556,14 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D343">
         <v>0</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -7577,14 +7577,14 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D344">
         <v>0</v>
       </c>
       <c r="E344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -7598,7 +7598,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D345">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D346">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D347">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D348">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D349">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D350">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D351">
@@ -7745,14 +7745,14 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D352">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E352">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="353">
@@ -7766,14 +7766,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D353">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E353">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="354">
@@ -7787,14 +7787,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D354">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E354">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="355">
@@ -7808,14 +7808,14 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D355">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E355">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="356">
@@ -7829,14 +7829,14 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D356">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E356">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="357">
@@ -7850,14 +7850,14 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D357">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E357">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="358">
@@ -7871,14 +7871,14 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D358">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E358">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D359">
@@ -7913,14 +7913,14 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D360">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E360">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="361">
@@ -7934,14 +7934,14 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D361">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E361">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="362">
@@ -7955,14 +7955,14 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D362">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E362">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="363">
@@ -7976,14 +7976,14 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D363">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E363">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364">
@@ -7997,14 +7997,14 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D364">
         <v>0</v>
       </c>
       <c r="E364">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D365">
@@ -8039,14 +8039,14 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D366">
         <v>0</v>
       </c>
       <c r="E366">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -8060,14 +8060,14 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D367">
         <v>0</v>
       </c>
       <c r="E367">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="368">
@@ -8081,14 +8081,14 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E368">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -8102,14 +8102,14 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D369">
         <v>2</v>
       </c>
       <c r="E369">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370">
@@ -8123,14 +8123,14 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D370">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E370">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -8144,14 +8144,14 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D371">
         <v>0</v>
       </c>
       <c r="E371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -8165,14 +8165,14 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E372">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -8186,14 +8186,14 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D373">
         <v>0</v>
       </c>
       <c r="E373">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -8207,14 +8207,14 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D374">
         <v>0</v>
       </c>
       <c r="E374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -8228,14 +8228,14 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D375">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E375">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376">
@@ -8249,14 +8249,14 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D376">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E376">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377">
@@ -8270,14 +8270,14 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D377">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E377">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -8291,14 +8291,14 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D379">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D380">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D381">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D382">
@@ -8396,14 +8396,14 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -8417,14 +8417,14 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E384">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385">
@@ -8438,14 +8438,14 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D385">
         <v>0</v>
       </c>
       <c r="E385">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D386">
@@ -8480,14 +8480,14 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D388">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D389">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D390">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D391">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D392">
@@ -8606,14 +8606,14 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D393">
         <v>0</v>
       </c>
       <c r="E393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -8627,14 +8627,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -8648,14 +8648,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D395">
         <v>0</v>
       </c>
       <c r="E395">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -8669,14 +8669,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D396">
         <v>0</v>
       </c>
       <c r="E396">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="397">
@@ -8690,14 +8690,14 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D397">
         <v>0</v>
       </c>
       <c r="E397">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -8711,14 +8711,14 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D398">
         <v>0</v>
       </c>
       <c r="E398">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -8732,14 +8732,14 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E399">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -8753,11 +8753,11 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E400">
         <v>1</v>
@@ -8774,14 +8774,14 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D401">
         <v>0</v>
       </c>
       <c r="E401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -8795,14 +8795,14 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D402">
         <v>0</v>
       </c>
       <c r="E402">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403">
@@ -8816,14 +8816,14 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D403">
         <v>0</v>
       </c>
       <c r="E403">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -8837,14 +8837,14 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D404">
         <v>0</v>
       </c>
       <c r="E404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -8858,14 +8858,14 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E405">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406">
@@ -8879,14 +8879,14 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E406">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D407">
@@ -8921,14 +8921,14 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D408">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -8942,14 +8942,14 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D409">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E409">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="410">
@@ -8963,14 +8963,14 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D410">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E410">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411">
@@ -8984,14 +8984,14 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D411">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E411">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -9005,14 +9005,14 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D412">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E412">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D413">
@@ -9047,14 +9047,14 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -9068,14 +9068,14 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -9089,14 +9089,14 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E416">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417">
@@ -9110,7 +9110,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D417">
@@ -9131,14 +9131,14 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D418">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E418">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419">
@@ -9152,14 +9152,14 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
         <v>2</v>
-      </c>
-      <c r="E419">
-        <v>3</v>
       </c>
     </row>
     <row r="420">
@@ -9173,14 +9173,14 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D420">
         <v>0</v>
       </c>
       <c r="E420">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D421">
@@ -9215,7 +9215,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D422">
@@ -9236,14 +9236,14 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D423">
         <v>0</v>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -9257,14 +9257,14 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D424">
         <v>0</v>
       </c>
       <c r="E424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -9278,7 +9278,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D425">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D426">
@@ -9320,14 +9320,14 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -9341,14 +9341,14 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -9362,7 +9362,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D429">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D430">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D431">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D432">
@@ -9446,14 +9446,14 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D433">
         <v>0</v>
       </c>
       <c r="E433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -9467,14 +9467,14 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D434">
         <v>0</v>
       </c>
       <c r="E434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D435">
@@ -9509,14 +9509,14 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D436">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E436">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -9530,14 +9530,14 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D437">
         <v>1</v>
       </c>
       <c r="E437">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="438">
@@ -9551,14 +9551,14 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E438">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -9572,14 +9572,14 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -9593,14 +9593,14 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D440">
         <v>1</v>
       </c>
       <c r="E440">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441">
@@ -9614,14 +9614,14 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D441">
         <v>1</v>
       </c>
       <c r="E441">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -9635,14 +9635,14 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -9656,14 +9656,14 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D443">
-        <v>319</v>
+        <v>36</v>
       </c>
       <c r="E443">
-        <v>1298</v>
+        <v>108</v>
       </c>
     </row>
     <row r="444">
@@ -9677,14 +9677,14 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D444">
-        <v>36</v>
+        <v>994</v>
       </c>
       <c r="E444">
-        <v>106</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="445">
@@ -9698,14 +9698,14 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D445">
-        <v>980</v>
+        <v>650</v>
       </c>
       <c r="E445">
-        <v>4545</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="446">
@@ -9719,14 +9719,14 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D446">
-        <v>647</v>
+        <v>736</v>
       </c>
       <c r="E446">
-        <v>3310</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="447">
@@ -9740,14 +9740,14 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D447">
-        <v>726</v>
+        <v>444</v>
       </c>
       <c r="E447">
-        <v>3328</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="448">
@@ -9761,14 +9761,14 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D448">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E448">
-        <v>2504</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="449">
@@ -9782,14 +9782,14 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D449">
-        <v>417</v>
+        <v>150</v>
       </c>
       <c r="E449">
-        <v>2009</v>
+        <v>646</v>
       </c>
     </row>
     <row r="450">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D450">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D451">
@@ -9845,14 +9845,14 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D452">
         <v>0</v>
       </c>
       <c r="E452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -9866,14 +9866,14 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D453">
         <v>0</v>
       </c>
       <c r="E453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D454">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D455">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D456">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D457">
@@ -9971,14 +9971,14 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D458">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E458">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459">
@@ -9992,14 +9992,14 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D459">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E459">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="460">
@@ -10013,14 +10013,14 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D460">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E460">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="461">
@@ -10034,14 +10034,14 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D461">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E461">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="462">
@@ -10055,14 +10055,14 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D462">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E462">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="463">
@@ -10076,14 +10076,14 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D463">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E463">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D464">
@@ -10118,14 +10118,14 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -10139,14 +10139,14 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D467">
@@ -10181,7 +10181,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D468">
@@ -10202,7 +10202,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D469">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D470">
@@ -10244,14 +10244,14 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D471">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E471">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="472">
@@ -10265,14 +10265,14 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D472">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E472">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="473">
@@ -10286,14 +10286,14 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D473">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E473">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="474">
@@ -10307,14 +10307,14 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D474">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E474">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="475">
@@ -10328,14 +10328,14 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D475">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E475">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="476">
@@ -10349,14 +10349,14 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D476">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E476">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="477">
@@ -10370,14 +10370,14 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D477">
         <v>0</v>
       </c>
       <c r="E477">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478">
@@ -10391,7 +10391,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D478">
@@ -10412,14 +10412,14 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D479">
         <v>0</v>
       </c>
       <c r="E479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -10433,14 +10433,14 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D480">
         <v>0</v>
       </c>
       <c r="E480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D481">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D482">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D483">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D484">
@@ -10538,14 +10538,14 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D485">
         <v>0</v>
       </c>
       <c r="E485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486">
@@ -10559,14 +10559,14 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D486">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E486">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="487">
@@ -10580,14 +10580,14 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D487">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E487">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="488">
@@ -10601,14 +10601,14 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D488">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E488">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="489">
@@ -10622,11 +10622,11 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D489">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E489">
         <v>21</v>
@@ -10643,14 +10643,14 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D490">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E490">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="491">
@@ -10664,14 +10664,14 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E491">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D492">
@@ -10706,14 +10706,14 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D493">
         <v>0</v>
       </c>
       <c r="E493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -10727,14 +10727,14 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D494">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E494">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -10748,14 +10748,14 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E495">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -10769,14 +10769,14 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D496">
         <v>0</v>
       </c>
       <c r="E496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D497">
@@ -10811,14 +10811,14 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D498">
         <v>0</v>
       </c>
       <c r="E498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -10832,7 +10832,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D499">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D500">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D501">
@@ -10895,14 +10895,14 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D502">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E502">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D503">
@@ -10937,14 +10937,14 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D504">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E504">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D505">
@@ -10979,14 +10979,14 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D506">
         <v>0</v>
       </c>
       <c r="E506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -11000,7 +11000,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D507">
@@ -11021,14 +11021,14 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D508">
         <v>0</v>
       </c>
       <c r="E508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -11042,7 +11042,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D509">
@@ -11063,14 +11063,14 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D510">
         <v>0</v>
       </c>
       <c r="E510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D511">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D512">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D513">
@@ -11147,7 +11147,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D514">
@@ -11168,7 +11168,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D515">
@@ -11189,14 +11189,14 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D516">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -11210,14 +11210,14 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D517">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D518">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D519">
@@ -11273,14 +11273,14 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D520">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -11294,7 +11294,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D521">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D522">
@@ -11336,14 +11336,14 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D523">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -11357,14 +11357,14 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D524">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -11378,7 +11378,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D525">
@@ -11399,7 +11399,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D526">
@@ -11420,14 +11420,14 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D527">
         <v>0</v>
       </c>
       <c r="E527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -11441,14 +11441,14 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D528">
         <v>0</v>
       </c>
       <c r="E528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -11462,7 +11462,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D529">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D530">
@@ -11504,14 +11504,14 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D531">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E531">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532">
@@ -11525,14 +11525,14 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E532">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -11546,14 +11546,14 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D533">
         <v>0</v>
       </c>
       <c r="E533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -11567,14 +11567,14 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D534">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E534">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535">
@@ -11588,14 +11588,14 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D535">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E535">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="536">
@@ -11609,14 +11609,14 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D536">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E536">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -11630,14 +11630,14 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E537">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -11651,14 +11651,14 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D538">
         <v>0</v>
       </c>
       <c r="E538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -11672,14 +11672,14 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D539">
         <v>0</v>
       </c>
       <c r="E539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D540">
@@ -11714,7 +11714,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D541">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D542">
@@ -11756,7 +11756,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D543">
@@ -11777,14 +11777,14 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D544">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -11798,14 +11798,14 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D545">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -11819,7 +11819,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D546">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D547">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D548">
@@ -11882,14 +11882,14 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D549">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E549">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -11903,11 +11903,11 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D550">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E550">
         <v>3</v>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D551">
@@ -11945,14 +11945,14 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D552">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E552">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -11966,7 +11966,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D553">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D554">
@@ -12008,14 +12008,14 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D555">
         <v>0</v>
       </c>
       <c r="E555">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556">
@@ -12029,14 +12029,14 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D556">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E556">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -12050,11 +12050,11 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E557">
         <v>1</v>
@@ -12071,14 +12071,14 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D558">
         <v>0</v>
       </c>
       <c r="E558">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559">
@@ -12092,14 +12092,14 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D559">
         <v>0</v>
       </c>
       <c r="E559">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -12113,14 +12113,14 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D560">
         <v>0</v>
       </c>
       <c r="E560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -12134,7 +12134,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D561">
@@ -12155,14 +12155,14 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D562">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E562">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="563">
@@ -12176,14 +12176,14 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D563">
         <v>4</v>
       </c>
       <c r="E563">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="564">
@@ -12197,14 +12197,14 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D564">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E564">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="565">
@@ -12218,14 +12218,14 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D565">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E565">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -12239,14 +12239,14 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D566">
         <v>0</v>
       </c>
       <c r="E566">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -12260,14 +12260,14 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D567">
         <v>0</v>
       </c>
       <c r="E567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D568">
@@ -12302,14 +12302,14 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D569">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E569">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="570">
@@ -12323,11 +12323,11 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D570">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E570">
         <v>4</v>
@@ -12344,14 +12344,14 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D571">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E571">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -12365,14 +12365,14 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D572">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E572">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573">
@@ -12386,14 +12386,14 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D573">
         <v>0</v>
       </c>
       <c r="E573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D574">
@@ -12428,7 +12428,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D575">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D576">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -12470,14 +12470,14 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D577">
         <v>0</v>
       </c>
       <c r="E577">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578">
@@ -12491,14 +12491,14 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D578">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E578">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="579">
@@ -12512,14 +12512,14 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D579">
+        <v>0</v>
+      </c>
+      <c r="E579">
         <v>2</v>
-      </c>
-      <c r="E579">
-        <v>9</v>
       </c>
     </row>
     <row r="580">
@@ -12533,14 +12533,14 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D580">
         <v>0</v>
       </c>
       <c r="E580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -12554,14 +12554,14 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D581">
         <v>0</v>
       </c>
       <c r="E581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582">
@@ -12575,14 +12575,14 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D582">
         <v>0</v>
       </c>
       <c r="E582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -12596,7 +12596,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D583">
@@ -12617,7 +12617,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D584">
@@ -12638,14 +12638,14 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D585">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -12659,11 +12659,11 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D586">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E586">
         <v>1</v>
@@ -12680,14 +12680,14 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D587">
         <v>0</v>
       </c>
       <c r="E587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -12701,7 +12701,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D588">
@@ -12722,7 +12722,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D589">
@@ -12743,7 +12743,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D590">
@@ -12764,14 +12764,14 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D591">
         <v>0</v>
       </c>
       <c r="E591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592">
@@ -12785,14 +12785,14 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D592">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E592">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -12806,11 +12806,11 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D593">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E593">
         <v>1</v>
@@ -12827,14 +12827,14 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D594">
         <v>0</v>
       </c>
       <c r="E594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -12848,7 +12848,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D595">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D596">
@@ -12890,14 +12890,14 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="D597">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E597">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="598">
@@ -12911,14 +12911,14 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>24/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="D598">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E598">
-        <v>78</v>
+        <v>183</v>
       </c>
     </row>
     <row r="599">
@@ -12932,14 +12932,14 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="D599">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E599">
-        <v>183</v>
+        <v>144</v>
       </c>
     </row>
     <row r="600">
@@ -12953,14 +12953,14 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>26/09/2023</t>
+          <t>27/09/2023</t>
         </is>
       </c>
       <c r="D600">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E600">
-        <v>144</v>
+        <v>111</v>
       </c>
     </row>
     <row r="601">
@@ -12974,14 +12974,14 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="D601">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E601">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="602">
@@ -12995,14 +12995,14 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>28/09/2023</t>
+          <t>29/09/2023</t>
         </is>
       </c>
       <c r="D602">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E602">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="603">
@@ -13016,14 +13016,14 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="D603">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E603">
-        <v>93</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/inst/planilha_esus.xlsx
+++ b/inst/planilha_esus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E601"/>
+  <dimension ref="A1:E609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,14 +395,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -416,14 +416,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -437,14 +437,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -458,14 +458,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -479,14 +479,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -500,14 +500,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -521,14 +521,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -542,7 +542,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D9">
@@ -563,7 +563,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D10">
@@ -584,7 +584,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D11">
@@ -605,7 +605,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D12">
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D13">
@@ -647,7 +647,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D14">
@@ -668,7 +668,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D15">
@@ -689,7 +689,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D16">
@@ -710,7 +710,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D17">
@@ -731,14 +731,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -752,14 +752,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -773,14 +773,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -794,14 +794,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -815,7 +815,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D22">
@@ -836,14 +836,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -857,14 +857,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D25">
@@ -899,7 +899,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D26">
@@ -920,7 +920,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D27">
@@ -941,7 +941,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D28">
@@ -962,7 +962,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D29">
@@ -983,7 +983,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D30">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D31">
@@ -1025,14 +1025,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D33">
@@ -1067,14 +1067,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1088,14 +1088,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D36">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D37">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D38">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D39">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D40">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D41">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D42">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D43">
@@ -1277,14 +1277,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1298,14 +1298,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D46">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D47">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D48">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D49">
@@ -1403,14 +1403,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -1424,14 +1424,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D53">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D54">
@@ -1508,14 +1508,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1529,14 +1529,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D57">
@@ -1571,14 +1571,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -1613,14 +1613,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D61">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D62">
@@ -1676,14 +1676,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -1697,14 +1697,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D65">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -1760,11 +1760,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>8</v>
@@ -1781,14 +1781,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -1802,14 +1802,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D70">
@@ -1844,14 +1844,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D72">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D73">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D74">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1949,14 +1949,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D77">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D78">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D79">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D80">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D81">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D82">
@@ -2096,14 +2096,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D85">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D86">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D87">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D88">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D89">
@@ -2243,14 +2243,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -2264,14 +2264,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2285,14 +2285,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D94">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D95">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D96">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D97">
@@ -2411,14 +2411,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
@@ -2432,14 +2432,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D101">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D102">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D103">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D104">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D105">
@@ -2579,14 +2579,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -2600,14 +2600,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -2621,14 +2621,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -2642,14 +2642,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D110">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D111">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D112">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D113">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D114">
@@ -2768,11 +2768,11 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -2789,14 +2789,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -2810,14 +2810,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2831,14 +2831,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2852,14 +2852,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D120">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D121">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D122">
@@ -2936,14 +2936,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D124">
@@ -2978,14 +2978,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D126">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D127">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D128">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D129">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D130">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D131">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D132">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D133">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D134">
@@ -3188,14 +3188,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3209,14 +3209,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D137">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
@@ -3272,14 +3272,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D139">
         <v>3</v>
       </c>
       <c r="E139">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -3293,14 +3293,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D141">
@@ -3335,14 +3335,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -3356,14 +3356,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D144">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D145">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D146">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D147">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D148">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D149">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D150">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D151">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D152">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D153">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D154">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D155">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D156">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D157">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D158">
@@ -3692,14 +3692,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -3713,14 +3713,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D161">
@@ -3755,14 +3755,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163">
@@ -3776,14 +3776,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E163">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164">
@@ -3797,14 +3797,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
         <v>5</v>
-      </c>
-      <c r="E164">
-        <v>15</v>
       </c>
     </row>
     <row r="165">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
         <v>1</v>
-      </c>
-      <c r="E165">
-        <v>5</v>
       </c>
     </row>
     <row r="166">
@@ -3839,14 +3839,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3860,14 +3860,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -3881,14 +3881,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D169">
@@ -3923,14 +3923,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
@@ -3944,14 +3944,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D171">
         <v>1</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -3965,14 +3965,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -3986,14 +3986,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -4007,14 +4007,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4028,14 +4028,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D176">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D177">
@@ -4091,14 +4091,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
@@ -4112,14 +4112,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180">
@@ -4133,14 +4133,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E180">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181">
@@ -4154,14 +4154,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D182">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D183">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D184">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D185">
@@ -4259,14 +4259,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="E186">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -4280,14 +4280,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -4301,14 +4301,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189">
@@ -4322,14 +4322,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D190">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D191">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D192">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D193">
@@ -4427,14 +4427,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195">
@@ -4448,14 +4448,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E195">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D196">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D197">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D198">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D199">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D200">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D201">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D202">
@@ -4616,14 +4616,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -4637,14 +4637,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D205">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D206">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D207">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D208">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D209">
@@ -4763,14 +4763,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211">
@@ -4784,14 +4784,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D211">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E211">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212">
@@ -4805,14 +4805,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D212">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E212">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213">
@@ -4826,14 +4826,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D213">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E213">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D214">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D215">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D216">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D217">
@@ -4931,14 +4931,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D219">
@@ -4973,11 +4973,11 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -4994,14 +4994,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -5015,14 +5015,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -5036,14 +5036,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D223">
         <v>0</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D224">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D225">
@@ -5099,14 +5099,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -5120,14 +5120,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D228">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D229">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D230">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D231">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D232">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D233">
@@ -5267,14 +5267,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D234">
         <v>0</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -5288,14 +5288,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
@@ -5309,14 +5309,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E236">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
@@ -5330,14 +5330,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D238">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D239">
@@ -5393,14 +5393,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D241">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D242">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D243">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D244">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D245">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D246">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D247">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D248">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D249">
@@ -5603,14 +5603,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251">
@@ -5624,14 +5624,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D251">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -5645,14 +5645,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D253">
@@ -5687,14 +5687,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D254">
         <v>0</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -5708,11 +5708,11 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D256">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D257">
@@ -5771,14 +5771,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E258">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D259">
         <v>1</v>
       </c>
       <c r="E259">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -5813,14 +5813,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E260">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -5834,14 +5834,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D261">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E261">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -5855,14 +5855,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -5876,14 +5876,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -5897,14 +5897,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D264">
         <v>0</v>
       </c>
       <c r="E264">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265">
@@ -5918,14 +5918,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -5939,14 +5939,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D266">
         <v>1</v>
       </c>
       <c r="E266">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -5960,14 +5960,14 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -5981,14 +5981,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D268">
         <v>0</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -6002,7 +6002,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D269">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D270">
@@ -6044,14 +6044,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -6065,14 +6065,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D273">
@@ -6107,14 +6107,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D274">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E274">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="275">
@@ -6128,14 +6128,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D275">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E275">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="276">
@@ -6149,14 +6149,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E276">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="277">
@@ -6170,14 +6170,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D277">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E277">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -6191,14 +6191,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D278">
         <v>0</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279">
@@ -6212,11 +6212,11 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E279">
         <v>18</v>
@@ -6233,11 +6233,11 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E280">
         <v>18</v>
@@ -6254,7 +6254,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D281">
@@ -6275,14 +6275,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -6296,14 +6296,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D283">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E283">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -6317,14 +6317,14 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D284">
         <v>0</v>
       </c>
       <c r="E284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -6338,14 +6338,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D285">
         <v>0</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D286">
@@ -6380,14 +6380,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -6401,14 +6401,14 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D289">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D290">
@@ -6464,14 +6464,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D291">
         <v>0</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -6485,14 +6485,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D292">
         <v>0</v>
       </c>
       <c r="E292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D293">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D294">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D295">
@@ -6569,7 +6569,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D296">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D297">
@@ -6611,14 +6611,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D298">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D299">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D300">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D301">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D302">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D303">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D304">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D305">
@@ -6779,14 +6779,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D306">
         <v>0</v>
       </c>
       <c r="E306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -6800,14 +6800,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E307">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308">
@@ -6821,14 +6821,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D308">
         <v>1</v>
       </c>
       <c r="E308">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -6842,14 +6842,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D310">
@@ -6884,14 +6884,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -6905,14 +6905,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E312">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D313">
@@ -6947,14 +6947,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D314">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E314">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="315">
@@ -6968,14 +6968,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D315">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E315">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="316">
@@ -6989,14 +6989,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D316">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E316">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="317">
@@ -7010,14 +7010,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D317">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E317">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -7031,14 +7031,14 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D318">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E318">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="319">
@@ -7052,14 +7052,14 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D319">
+        <v>4</v>
+      </c>
+      <c r="E319">
         <v>6</v>
-      </c>
-      <c r="E319">
-        <v>16</v>
       </c>
     </row>
     <row r="320">
@@ -7073,14 +7073,14 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D320">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E320">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D321">
@@ -7115,14 +7115,14 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D322">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E322">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323">
@@ -7136,14 +7136,14 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D323">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E323">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="324">
@@ -7157,14 +7157,14 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D324">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E324">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325">
@@ -7178,14 +7178,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D325">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E325">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -7199,14 +7199,14 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D326">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -7220,14 +7220,14 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D327">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E327">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -7241,14 +7241,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D328">
         <v>0</v>
       </c>
       <c r="E328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D329">
@@ -7283,14 +7283,14 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D330">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E330">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="331">
@@ -7304,14 +7304,14 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D331">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E331">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332">
@@ -7325,14 +7325,14 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E332">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333">
@@ -7346,14 +7346,14 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D333">
         <v>0</v>
       </c>
       <c r="E333">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D334">
@@ -7388,14 +7388,14 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D335">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E335">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="336">
@@ -7409,14 +7409,14 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D336">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E336">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="337">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D337">
@@ -7451,14 +7451,14 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D338">
         <v>0</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -7472,14 +7472,14 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D339">
         <v>0</v>
       </c>
       <c r="E339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D340">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D341">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D342">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D343">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D344">
@@ -7598,7 +7598,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D345">
@@ -7619,14 +7619,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D346">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -7640,14 +7640,14 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D347">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E347">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348">
@@ -7661,14 +7661,14 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D348">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E348">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -7682,14 +7682,14 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D349">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D350">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D351">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D352">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D353">
@@ -7787,14 +7787,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -7808,14 +7808,14 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D356">
@@ -7850,14 +7850,14 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D357">
         <v>0</v>
       </c>
       <c r="E357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -7871,14 +7871,14 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D358">
         <v>0</v>
       </c>
       <c r="E358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D359">
@@ -7913,14 +7913,14 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D360">
         <v>0</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -7934,7 +7934,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D361">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D362">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D363">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D364">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D365">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D366">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D367">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D368">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D369">
@@ -8123,14 +8123,14 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D370">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E370">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="371">
@@ -8144,14 +8144,14 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D371">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E371">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="372">
@@ -8165,14 +8165,14 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D372">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E372">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="373">
@@ -8186,14 +8186,14 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D373">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E373">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="374">
@@ -8207,14 +8207,14 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D374">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E374">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="375">
@@ -8228,14 +8228,14 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D375">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E375">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="376">
@@ -8249,14 +8249,14 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D376">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E376">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="377">
@@ -8270,14 +8270,14 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D377">
         <v>0</v>
       </c>
       <c r="E377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -8291,14 +8291,14 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D378">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E378">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="379">
@@ -8312,14 +8312,14 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D379">
+        <v>3</v>
+      </c>
+      <c r="E379">
         <v>6</v>
-      </c>
-      <c r="E379">
-        <v>7</v>
       </c>
     </row>
     <row r="380">
@@ -8333,14 +8333,14 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D380">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E380">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -8354,14 +8354,14 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D382">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D383">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D384">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D385">
@@ -8459,14 +8459,14 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D386">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E386">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387">
@@ -8480,14 +8480,14 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387">
         <v>3</v>
-      </c>
-      <c r="E387">
-        <v>6</v>
       </c>
     </row>
     <row r="388">
@@ -8501,14 +8501,14 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D388">
         <v>1</v>
       </c>
       <c r="E388">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -8522,14 +8522,14 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -8543,14 +8543,14 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D390">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E390">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="391">
@@ -8564,14 +8564,14 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D391">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E391">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D392">
@@ -8606,7 +8606,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D393">
@@ -8627,14 +8627,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -8648,14 +8648,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D395">
         <v>0</v>
       </c>
       <c r="E395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -8669,14 +8669,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D396">
         <v>0</v>
       </c>
       <c r="E396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D397">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D398">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D399">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D400">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D401">
@@ -8795,14 +8795,14 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D402">
         <v>0</v>
       </c>
       <c r="E402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -8816,14 +8816,14 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D403">
         <v>0</v>
       </c>
       <c r="E403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D404">
@@ -8858,7 +8858,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D405">
@@ -8879,7 +8879,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D406">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D407">
@@ -8921,14 +8921,14 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D408">
         <v>0</v>
       </c>
       <c r="E408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D409">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D410">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D411">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D412">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D413">
@@ -9047,14 +9047,14 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -9068,14 +9068,14 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D416">
@@ -9110,7 +9110,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D417">
@@ -9131,14 +9131,14 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E418">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -9152,14 +9152,14 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D419">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E419">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="420">
@@ -9173,14 +9173,14 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D420">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E420">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D421">
@@ -9215,7 +9215,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D422">
@@ -9236,14 +9236,14 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D423">
         <v>0</v>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -9257,14 +9257,14 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D424">
         <v>0</v>
       </c>
       <c r="E424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -9278,7 +9278,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D425">
@@ -9299,14 +9299,14 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D426">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E426">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427">
@@ -9320,14 +9320,14 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D427">
         <v>2</v>
       </c>
       <c r="E427">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -9341,11 +9341,11 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D428">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E428">
         <v>2</v>
@@ -9362,14 +9362,14 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D430">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D431">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D432">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D433">
@@ -9467,14 +9467,14 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D434">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E434">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="435">
@@ -9488,14 +9488,14 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D435">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E435">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -9509,14 +9509,14 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D437">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D438">
@@ -9572,7 +9572,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D439">
@@ -9593,14 +9593,14 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D440">
         <v>0</v>
       </c>
       <c r="E440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441">
@@ -9614,7 +9614,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D441">
@@ -9635,14 +9635,14 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -9656,14 +9656,14 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D443">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E443">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="444">
@@ -9677,14 +9677,14 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D444">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E444">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -9698,14 +9698,14 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D445">
         <v>0</v>
       </c>
       <c r="E445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -9719,14 +9719,14 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E446">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447">
@@ -9740,14 +9740,14 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D447">
         <v>1</v>
       </c>
       <c r="E447">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -9761,14 +9761,14 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -9782,7 +9782,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D449">
@@ -9803,14 +9803,14 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D451">
@@ -9845,7 +9845,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D452">
@@ -9866,7 +9866,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D453">
@@ -9887,14 +9887,14 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D454">
         <v>0</v>
       </c>
       <c r="E454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455">
@@ -9908,14 +9908,14 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D455">
         <v>0</v>
       </c>
       <c r="E455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D456">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D457">
@@ -9971,14 +9971,14 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D458">
         <v>0</v>
       </c>
       <c r="E458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -9992,14 +9992,14 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D460">
@@ -10034,14 +10034,14 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -10055,7 +10055,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D462">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D463">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D464">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D465">
@@ -10139,14 +10139,14 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D466">
-        <v>16</v>
+        <v>408</v>
       </c>
       <c r="E466">
-        <v>99</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="467">
@@ -10160,14 +10160,14 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D467">
-        <v>407</v>
+        <v>337</v>
       </c>
       <c r="E467">
-        <v>2121</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="468">
@@ -10181,14 +10181,14 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D468">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="E468">
-        <v>1696</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="469">
@@ -10202,14 +10202,14 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D469">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="E469">
-        <v>1573</v>
+        <v>92</v>
       </c>
     </row>
     <row r="470">
@@ -10223,14 +10223,14 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D470">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E470">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="471">
@@ -10244,14 +10244,14 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D471">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="E471">
-        <v>102</v>
+        <v>547</v>
       </c>
     </row>
     <row r="472">
@@ -10265,14 +10265,14 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D472">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="E472">
-        <v>484</v>
+        <v>45</v>
       </c>
     </row>
     <row r="473">
@@ -10286,14 +10286,14 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D473">
         <v>0</v>
       </c>
       <c r="E473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -10307,14 +10307,14 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D474">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E474">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="475">
@@ -10328,14 +10328,14 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D475">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E475">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="476">
@@ -10349,14 +10349,14 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D476">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E476">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="477">
@@ -10370,14 +10370,14 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D477">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E477">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -10391,7 +10391,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D478">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D479">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D480">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D481">
@@ -10475,14 +10475,14 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D482">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E482">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="483">
@@ -10496,14 +10496,14 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D483">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E483">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="484">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D484">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E484">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="485">
@@ -10538,14 +10538,14 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D485">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E485">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -10559,14 +10559,14 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D486">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E486">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="487">
@@ -10580,14 +10580,14 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E487">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="488">
@@ -10601,14 +10601,14 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D488">
         <v>0</v>
       </c>
       <c r="E488">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -10622,7 +10622,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D489">
@@ -10643,14 +10643,14 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -10664,14 +10664,14 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D492">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D493">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D494">
@@ -10748,7 +10748,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D495">
@@ -10769,7 +10769,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D496">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D497">
@@ -10811,14 +10811,14 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D498">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E498">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="499">
@@ -10832,14 +10832,14 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D499">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E499">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="500">
@@ -10853,14 +10853,14 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D500">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E500">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -10874,14 +10874,14 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D501">
         <v>0</v>
       </c>
       <c r="E501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
@@ -10895,14 +10895,14 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D502">
         <v>0</v>
       </c>
       <c r="E502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -10916,14 +10916,14 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D503">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E503">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -10937,14 +10937,14 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D505">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D506">
@@ -11000,7 +11000,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D507">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D508">
@@ -11042,7 +11042,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D509">
@@ -11063,14 +11063,14 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D510">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E510">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -11084,14 +11084,14 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D511">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E511">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D512">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D513">
@@ -11147,14 +11147,14 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D514">
         <v>0</v>
       </c>
       <c r="E514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -11168,7 +11168,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D515">
@@ -11189,14 +11189,14 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D516">
         <v>0</v>
       </c>
       <c r="E516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -11210,7 +11210,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D517">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D518">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D519">
@@ -11273,7 +11273,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D520">
@@ -11294,7 +11294,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D521">
@@ -11307,78 +11307,78 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B522">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D522">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B523">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D523">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E523">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B524">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D524">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B525">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D525">
@@ -11391,15 +11391,15 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B526">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D526">
@@ -11412,15 +11412,15 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B527">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D527">
@@ -11433,15 +11433,15 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B528">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D528">
@@ -11454,15 +11454,15 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B529">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D529">
@@ -11475,36 +11475,36 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B530">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D530">
         <v>0</v>
       </c>
       <c r="E530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B531">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D531">
@@ -11517,36 +11517,36 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B532">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D532">
         <v>0</v>
       </c>
       <c r="E532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B533">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D533">
@@ -11559,15 +11559,15 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B534">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D534">
@@ -11580,15 +11580,15 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B535">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D535">
@@ -11601,15 +11601,15 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B536">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D536">
@@ -11622,15 +11622,15 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B537">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D537">
@@ -11643,57 +11643,57 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B538">
-        <v>330560</v>
+        <v>330555</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B539">
-        <v>330560</v>
+        <v>330555</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D539">
         <v>0</v>
       </c>
       <c r="E539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B540">
-        <v>330560</v>
+        <v>330555</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D540">
@@ -11706,15 +11706,15 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B541">
-        <v>330560</v>
+        <v>330555</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D541">
@@ -11727,15 +11727,15 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B542">
-        <v>330560</v>
+        <v>330555</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D542">
@@ -11748,15 +11748,15 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B543">
-        <v>330560</v>
+        <v>330555</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D543">
@@ -11769,15 +11769,15 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B544">
-        <v>330560</v>
+        <v>330555</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D544">
@@ -11790,15 +11790,15 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B545">
-        <v>330560</v>
+        <v>330555</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D545">
@@ -11811,78 +11811,78 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B546">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B547">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D547">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E547">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B548">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D548">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B549">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D549">
@@ -11895,15 +11895,15 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B550">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D550">
@@ -11916,15 +11916,15 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B551">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D551">
@@ -11937,15 +11937,15 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B552">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D552">
@@ -11958,15 +11958,15 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B553">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D553">
@@ -11979,78 +11979,78 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B554">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D554">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E554">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B555">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D555">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E555">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B556">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D556">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B557">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D557">
@@ -12063,15 +12063,15 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B558">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D558">
@@ -12084,15 +12084,15 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B559">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D559">
@@ -12105,15 +12105,15 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B560">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D560">
@@ -12126,15 +12126,15 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B561">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D561">
@@ -12147,15 +12147,15 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B562">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D562">
@@ -12168,78 +12168,78 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B563">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D563">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B564">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D564">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B565">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D565">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E565">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B566">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D566">
@@ -12252,15 +12252,15 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B567">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D567">
@@ -12273,15 +12273,15 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B568">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D568">
@@ -12294,15 +12294,15 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B569">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D569">
@@ -12315,78 +12315,78 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B570">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D570">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B571">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D571">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E571">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B572">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D572">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E572">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B573">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D573">
@@ -12399,15 +12399,15 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B574">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D574">
@@ -12420,15 +12420,15 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B575">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D575">
@@ -12441,15 +12441,15 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B576">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D576">
@@ -12462,15 +12462,15 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B577">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D577">
@@ -12483,57 +12483,57 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B578">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D578">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E578">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B579">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D579">
         <v>0</v>
       </c>
       <c r="E579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B580">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D580">
@@ -12546,15 +12546,15 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B581">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D581">
@@ -12567,15 +12567,15 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B582">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D582">
@@ -12588,15 +12588,15 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B583">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D583">
@@ -12609,15 +12609,15 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B584">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D584">
@@ -12630,15 +12630,15 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B585">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D585">
@@ -12651,78 +12651,78 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B586">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D586">
         <v>0</v>
       </c>
       <c r="E586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B587">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D587">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E587">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B588">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D588">
         <v>0</v>
       </c>
       <c r="E588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B589">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D589">
@@ -12735,15 +12735,15 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B590">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D590">
@@ -12756,15 +12756,15 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B591">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D591">
@@ -12777,15 +12777,15 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B592">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D592">
@@ -12798,15 +12798,15 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B593">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D593">
@@ -12819,168 +12819,336 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B594">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>08/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="D594">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E594">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B595">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="D595">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E595">
-        <v>161</v>
+        <v>5</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B596">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="D596">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E596">
-        <v>128</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B597">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D597">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E597">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B598">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D598">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E598">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B599">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D599">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E599">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B600">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D600">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E600">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
+          <t>Vassouras</t>
+        </is>
+      </c>
+      <c r="B601">
+        <v>330620</v>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="D601">
+        <v>0</v>
+      </c>
+      <c r="E601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
           <t>Volta Redonda</t>
         </is>
       </c>
-      <c r="B601">
+      <c r="B602">
         <v>330630</v>
       </c>
-      <c r="C601" t="inlineStr">
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="D602">
+        <v>36</v>
+      </c>
+      <c r="E602">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B603">
+        <v>330630</v>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="D603">
+        <v>31</v>
+      </c>
+      <c r="E603">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B604">
+        <v>330630</v>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="D604">
+        <v>7</v>
+      </c>
+      <c r="E604">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B605">
+        <v>330630</v>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="D605">
+        <v>6</v>
+      </c>
+      <c r="E605">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B606">
+        <v>330630</v>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="D606">
+        <v>15</v>
+      </c>
+      <c r="E606">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B607">
+        <v>330630</v>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>14/10/2023</t>
+        </is>
+      </c>
+      <c r="D607">
+        <v>3</v>
+      </c>
+      <c r="E607">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B608">
+        <v>330630</v>
+      </c>
+      <c r="C608" t="inlineStr">
         <is>
           <t>15/10/2023</t>
         </is>
       </c>
-      <c r="D601">
-        <v>0</v>
-      </c>
-      <c r="E601">
+      <c r="D608">
+        <v>5</v>
+      </c>
+      <c r="E608">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B609">
+        <v>330630</v>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="D609">
+        <v>0</v>
+      </c>
+      <c r="E609">
         <v>0</v>
       </c>
     </row>

--- a/inst/planilha_esus.xlsx
+++ b/inst/planilha_esus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E561"/>
+  <dimension ref="A1:E547"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,14 +395,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -416,14 +416,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -437,14 +437,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -458,14 +458,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -479,14 +479,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -500,14 +500,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -521,28 +521,28 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Aperibé</t>
+          <t>Araruama</t>
         </is>
       </c>
       <c r="B9">
-        <v>330015</v>
+        <v>330020</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D9">
@@ -555,57 +555,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aperibé</t>
+          <t>Araruama</t>
         </is>
       </c>
       <c r="B10">
-        <v>330015</v>
+        <v>330020</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aperibé</t>
+          <t>Araruama</t>
         </is>
       </c>
       <c r="B11">
-        <v>330015</v>
+        <v>330020</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aperibé</t>
+          <t>Araruama</t>
         </is>
       </c>
       <c r="B12">
-        <v>330015</v>
+        <v>330020</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D12">
@@ -618,99 +618,99 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aperibé</t>
+          <t>Araruama</t>
         </is>
       </c>
       <c r="B13">
-        <v>330015</v>
+        <v>330020</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aperibé</t>
+          <t>Araruama</t>
         </is>
       </c>
       <c r="B14">
-        <v>330015</v>
+        <v>330020</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aperibé</t>
+          <t>Araruama</t>
         </is>
       </c>
       <c r="B15">
-        <v>330015</v>
+        <v>330020</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Araruama</t>
+          <t>Areal</t>
         </is>
       </c>
       <c r="B16">
-        <v>330020</v>
+        <v>330022</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Araruama</t>
+          <t>Areal</t>
         </is>
       </c>
       <c r="B17">
-        <v>330020</v>
+        <v>330022</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D17">
@@ -723,36 +723,36 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Araruama</t>
+          <t>Areal</t>
         </is>
       </c>
       <c r="B18">
-        <v>330020</v>
+        <v>330022</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Araruama</t>
+          <t>Areal</t>
         </is>
       </c>
       <c r="B19">
-        <v>330020</v>
+        <v>330022</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D19">
@@ -765,15 +765,15 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Araruama</t>
+          <t>Areal</t>
         </is>
       </c>
       <c r="B20">
-        <v>330020</v>
+        <v>330022</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D20">
@@ -786,57 +786,57 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Araruama</t>
+          <t>Areal</t>
         </is>
       </c>
       <c r="B21">
-        <v>330020</v>
+        <v>330022</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Araruama</t>
+          <t>Areal</t>
         </is>
       </c>
       <c r="B22">
-        <v>330020</v>
+        <v>330022</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Areal</t>
+          <t>Armação de Búzios</t>
         </is>
       </c>
       <c r="B23">
-        <v>330022</v>
+        <v>330023</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D23">
@@ -849,15 +849,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Areal</t>
+          <t>Armação de Búzios</t>
         </is>
       </c>
       <c r="B24">
-        <v>330022</v>
+        <v>330023</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D24">
@@ -870,15 +870,15 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Areal</t>
+          <t>Armação de Búzios</t>
         </is>
       </c>
       <c r="B25">
-        <v>330022</v>
+        <v>330023</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D25">
@@ -891,15 +891,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Areal</t>
+          <t>Armação de Búzios</t>
         </is>
       </c>
       <c r="B26">
-        <v>330022</v>
+        <v>330023</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D26">
@@ -912,36 +912,36 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Areal</t>
+          <t>Armação de Búzios</t>
         </is>
       </c>
       <c r="B27">
-        <v>330022</v>
+        <v>330023</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Areal</t>
+          <t>Armação de Búzios</t>
         </is>
       </c>
       <c r="B28">
-        <v>330022</v>
+        <v>330023</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D28">
@@ -954,36 +954,36 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Areal</t>
+          <t>Armação de Búzios</t>
         </is>
       </c>
       <c r="B29">
-        <v>330022</v>
+        <v>330023</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Armação de Búzios</t>
+          <t>Arraial do Cabo</t>
         </is>
       </c>
       <c r="B30">
-        <v>330023</v>
+        <v>330025</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D30">
@@ -996,15 +996,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Armação de Búzios</t>
+          <t>Arraial do Cabo</t>
         </is>
       </c>
       <c r="B31">
-        <v>330023</v>
+        <v>330025</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D31">
@@ -1017,15 +1017,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Armação de Búzios</t>
+          <t>Arraial do Cabo</t>
         </is>
       </c>
       <c r="B32">
-        <v>330023</v>
+        <v>330025</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D32">
@@ -1038,15 +1038,15 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Armação de Búzios</t>
+          <t>Arraial do Cabo</t>
         </is>
       </c>
       <c r="B33">
-        <v>330023</v>
+        <v>330025</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D33">
@@ -1059,15 +1059,15 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Armação de Búzios</t>
+          <t>Arraial do Cabo</t>
         </is>
       </c>
       <c r="B34">
-        <v>330023</v>
+        <v>330025</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D34">
@@ -1080,36 +1080,36 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Armação de Búzios</t>
+          <t>Arraial do Cabo</t>
         </is>
       </c>
       <c r="B35">
-        <v>330023</v>
+        <v>330025</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Armação de Búzios</t>
+          <t>Arraial do Cabo</t>
         </is>
       </c>
       <c r="B36">
-        <v>330023</v>
+        <v>330025</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D36">
@@ -1122,502 +1122,502 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Arraial do Cabo</t>
+          <t>Barra do Piraí</t>
         </is>
       </c>
       <c r="B37">
-        <v>330025</v>
+        <v>330030</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Arraial do Cabo</t>
+          <t>Barra do Piraí</t>
         </is>
       </c>
       <c r="B38">
-        <v>330025</v>
+        <v>330030</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Arraial do Cabo</t>
+          <t>Barra do Piraí</t>
         </is>
       </c>
       <c r="B39">
-        <v>330025</v>
+        <v>330030</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Arraial do Cabo</t>
+          <t>Barra do Piraí</t>
         </is>
       </c>
       <c r="B40">
-        <v>330025</v>
+        <v>330030</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Arraial do Cabo</t>
+          <t>Barra do Piraí</t>
         </is>
       </c>
       <c r="B41">
-        <v>330025</v>
+        <v>330030</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Arraial do Cabo</t>
+          <t>Barra do Piraí</t>
         </is>
       </c>
       <c r="B42">
-        <v>330025</v>
+        <v>330030</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Arraial do Cabo</t>
+          <t>Barra do Piraí</t>
         </is>
       </c>
       <c r="B43">
-        <v>330025</v>
+        <v>330030</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Barra do Piraí</t>
+          <t>Barra Mansa</t>
         </is>
       </c>
       <c r="B44">
-        <v>330030</v>
+        <v>330040</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Barra do Piraí</t>
+          <t>Barra Mansa</t>
         </is>
       </c>
       <c r="B45">
-        <v>330030</v>
+        <v>330040</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Barra do Piraí</t>
+          <t>Barra Mansa</t>
         </is>
       </c>
       <c r="B46">
-        <v>330030</v>
+        <v>330040</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Barra do Piraí</t>
+          <t>Barra Mansa</t>
         </is>
       </c>
       <c r="B47">
-        <v>330030</v>
+        <v>330040</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Barra do Piraí</t>
+          <t>Barra Mansa</t>
         </is>
       </c>
       <c r="B48">
-        <v>330030</v>
+        <v>330040</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Barra do Piraí</t>
+          <t>Barra Mansa</t>
         </is>
       </c>
       <c r="B49">
-        <v>330030</v>
+        <v>330040</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Barra do Piraí</t>
+          <t>Barra Mansa</t>
         </is>
       </c>
       <c r="B50">
-        <v>330030</v>
+        <v>330040</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Barra Mansa</t>
+          <t>Belford Roxo</t>
         </is>
       </c>
       <c r="B51">
-        <v>330040</v>
+        <v>330045</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Barra Mansa</t>
+          <t>Belford Roxo</t>
         </is>
       </c>
       <c r="B52">
-        <v>330040</v>
+        <v>330045</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Barra Mansa</t>
+          <t>Belford Roxo</t>
         </is>
       </c>
       <c r="B53">
-        <v>330040</v>
+        <v>330045</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Barra Mansa</t>
+          <t>Belford Roxo</t>
         </is>
       </c>
       <c r="B54">
-        <v>330040</v>
+        <v>330045</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Barra Mansa</t>
+          <t>Belford Roxo</t>
         </is>
       </c>
       <c r="B55">
-        <v>330040</v>
+        <v>330045</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Barra Mansa</t>
+          <t>Belford Roxo</t>
         </is>
       </c>
       <c r="B56">
-        <v>330040</v>
+        <v>330045</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Barra Mansa</t>
+          <t>Belford Roxo</t>
         </is>
       </c>
       <c r="B57">
-        <v>330040</v>
+        <v>330045</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Belford Roxo</t>
+          <t>Bom Jardim</t>
         </is>
       </c>
       <c r="B58">
-        <v>330045</v>
+        <v>330050</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Belford Roxo</t>
+          <t>Bom Jardim</t>
         </is>
       </c>
       <c r="B59">
-        <v>330045</v>
+        <v>330050</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Belford Roxo</t>
+          <t>Bom Jardim</t>
         </is>
       </c>
       <c r="B60">
-        <v>330045</v>
+        <v>330050</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1626,120 +1626,120 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Belford Roxo</t>
+          <t>Bom Jardim</t>
         </is>
       </c>
       <c r="B61">
-        <v>330045</v>
+        <v>330050</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Belford Roxo</t>
+          <t>Bom Jardim</t>
         </is>
       </c>
       <c r="B62">
-        <v>330045</v>
+        <v>330050</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Belford Roxo</t>
+          <t>Bom Jardim</t>
         </is>
       </c>
       <c r="B63">
-        <v>330045</v>
+        <v>330050</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Belford Roxo</t>
+          <t>Bom Jardim</t>
         </is>
       </c>
       <c r="B64">
-        <v>330045</v>
+        <v>330050</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Bom Jesus do Itabapoana</t>
         </is>
       </c>
       <c r="B65">
-        <v>330050</v>
+        <v>330060</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Bom Jesus do Itabapoana</t>
         </is>
       </c>
       <c r="B66">
-        <v>330050</v>
+        <v>330060</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D66">
@@ -1752,15 +1752,15 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Bom Jesus do Itabapoana</t>
         </is>
       </c>
       <c r="B67">
-        <v>330050</v>
+        <v>330060</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D67">
@@ -1773,78 +1773,78 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Bom Jesus do Itabapoana</t>
         </is>
       </c>
       <c r="B68">
-        <v>330050</v>
+        <v>330060</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Bom Jesus do Itabapoana</t>
         </is>
       </c>
       <c r="B69">
-        <v>330050</v>
+        <v>330060</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Bom Jesus do Itabapoana</t>
         </is>
       </c>
       <c r="B70">
-        <v>330050</v>
+        <v>330060</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bom Jardim</t>
+          <t>Bom Jesus do Itabapoana</t>
         </is>
       </c>
       <c r="B71">
-        <v>330050</v>
+        <v>330060</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D71">
@@ -1857,36 +1857,36 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Bom Jesus do Itabapoana</t>
+          <t>Cabo Frio</t>
         </is>
       </c>
       <c r="B72">
-        <v>330060</v>
+        <v>330070</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Bom Jesus do Itabapoana</t>
+          <t>Cabo Frio</t>
         </is>
       </c>
       <c r="B73">
-        <v>330060</v>
+        <v>330070</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D73">
@@ -1899,15 +1899,15 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bom Jesus do Itabapoana</t>
+          <t>Cabo Frio</t>
         </is>
       </c>
       <c r="B74">
-        <v>330060</v>
+        <v>330070</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D74">
@@ -1920,15 +1920,15 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bom Jesus do Itabapoana</t>
+          <t>Cabo Frio</t>
         </is>
       </c>
       <c r="B75">
-        <v>330060</v>
+        <v>330070</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D75">
@@ -1941,141 +1941,141 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Bom Jesus do Itabapoana</t>
+          <t>Cabo Frio</t>
         </is>
       </c>
       <c r="B76">
-        <v>330060</v>
+        <v>330070</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Bom Jesus do Itabapoana</t>
+          <t>Cabo Frio</t>
         </is>
       </c>
       <c r="B77">
-        <v>330060</v>
+        <v>330070</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Bom Jesus do Itabapoana</t>
+          <t>Cabo Frio</t>
         </is>
       </c>
       <c r="B78">
-        <v>330060</v>
+        <v>330070</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cabo Frio</t>
+          <t>Cachoeiras de Macacu</t>
         </is>
       </c>
       <c r="B79">
-        <v>330070</v>
+        <v>330080</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cabo Frio</t>
+          <t>Cachoeiras de Macacu</t>
         </is>
       </c>
       <c r="B80">
-        <v>330070</v>
+        <v>330080</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Cabo Frio</t>
+          <t>Cachoeiras de Macacu</t>
         </is>
       </c>
       <c r="B81">
-        <v>330070</v>
+        <v>330080</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cabo Frio</t>
+          <t>Cachoeiras de Macacu</t>
         </is>
       </c>
       <c r="B82">
-        <v>330070</v>
+        <v>330080</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D82">
@@ -2088,78 +2088,78 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cabo Frio</t>
+          <t>Cachoeiras de Macacu</t>
         </is>
       </c>
       <c r="B83">
-        <v>330070</v>
+        <v>330080</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Cabo Frio</t>
+          <t>Cachoeiras de Macacu</t>
         </is>
       </c>
       <c r="B84">
-        <v>330070</v>
+        <v>330080</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cabo Frio</t>
+          <t>Cachoeiras de Macacu</t>
         </is>
       </c>
       <c r="B85">
-        <v>330070</v>
+        <v>330080</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Cachoeiras de Macacu</t>
+          <t>Cambuci</t>
         </is>
       </c>
       <c r="B86">
-        <v>330080</v>
+        <v>330090</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D86">
@@ -2172,15 +2172,15 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Cachoeiras de Macacu</t>
+          <t>Cambuci</t>
         </is>
       </c>
       <c r="B87">
-        <v>330080</v>
+        <v>330090</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D87">
@@ -2193,15 +2193,15 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Cachoeiras de Macacu</t>
+          <t>Cambuci</t>
         </is>
       </c>
       <c r="B88">
-        <v>330080</v>
+        <v>330090</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D88">
@@ -2214,15 +2214,15 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cachoeiras de Macacu</t>
+          <t>Cambuci</t>
         </is>
       </c>
       <c r="B89">
-        <v>330080</v>
+        <v>330090</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D89">
@@ -2235,141 +2235,141 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Cachoeiras de Macacu</t>
+          <t>Cambuci</t>
         </is>
       </c>
       <c r="B90">
-        <v>330080</v>
+        <v>330090</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Cachoeiras de Macacu</t>
+          <t>Cambuci</t>
         </is>
       </c>
       <c r="B91">
-        <v>330080</v>
+        <v>330090</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D91">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Cachoeiras de Macacu</t>
+          <t>Cambuci</t>
         </is>
       </c>
       <c r="B92">
-        <v>330080</v>
+        <v>330090</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Cambuci</t>
+          <t>Campos dos Goytacazes</t>
         </is>
       </c>
       <c r="B93">
-        <v>330090</v>
+        <v>330100</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Cambuci</t>
+          <t>Campos dos Goytacazes</t>
         </is>
       </c>
       <c r="B94">
-        <v>330090</v>
+        <v>330100</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Cambuci</t>
+          <t>Campos dos Goytacazes</t>
         </is>
       </c>
       <c r="B95">
-        <v>330090</v>
+        <v>330100</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cambuci</t>
+          <t>Campos dos Goytacazes</t>
         </is>
       </c>
       <c r="B96">
-        <v>330090</v>
+        <v>330100</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D96">
@@ -2382,36 +2382,36 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Cambuci</t>
+          <t>Campos dos Goytacazes</t>
         </is>
       </c>
       <c r="B97">
-        <v>330090</v>
+        <v>330100</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Cambuci</t>
+          <t>Campos dos Goytacazes</t>
         </is>
       </c>
       <c r="B98">
-        <v>330090</v>
+        <v>330100</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D98">
@@ -2424,36 +2424,36 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Cambuci</t>
+          <t>Campos dos Goytacazes</t>
         </is>
       </c>
       <c r="B99">
-        <v>330090</v>
+        <v>330100</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes</t>
+          <t>Cantagalo</t>
         </is>
       </c>
       <c r="B100">
-        <v>330100</v>
+        <v>330110</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D100">
@@ -2466,78 +2466,78 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes</t>
+          <t>Cantagalo</t>
         </is>
       </c>
       <c r="B101">
-        <v>330100</v>
+        <v>330110</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes</t>
+          <t>Cantagalo</t>
         </is>
       </c>
       <c r="B102">
-        <v>330100</v>
+        <v>330110</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes</t>
+          <t>Cantagalo</t>
         </is>
       </c>
       <c r="B103">
-        <v>330100</v>
+        <v>330110</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes</t>
+          <t>Cantagalo</t>
         </is>
       </c>
       <c r="B104">
-        <v>330100</v>
+        <v>330110</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D104">
@@ -2550,78 +2550,78 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes</t>
+          <t>Cantagalo</t>
         </is>
       </c>
       <c r="B105">
-        <v>330100</v>
+        <v>330110</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes</t>
+          <t>Cantagalo</t>
         </is>
       </c>
       <c r="B106">
-        <v>330100</v>
+        <v>330110</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Cantagalo</t>
+          <t>Carapebus</t>
         </is>
       </c>
       <c r="B107">
-        <v>330110</v>
+        <v>330093</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Cantagalo</t>
+          <t>Carapebus</t>
         </is>
       </c>
       <c r="B108">
-        <v>330110</v>
+        <v>330093</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D108">
@@ -2634,15 +2634,15 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Cantagalo</t>
+          <t>Carapebus</t>
         </is>
       </c>
       <c r="B109">
-        <v>330110</v>
+        <v>330093</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D109">
@@ -2655,15 +2655,15 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Cantagalo</t>
+          <t>Carapebus</t>
         </is>
       </c>
       <c r="B110">
-        <v>330110</v>
+        <v>330093</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D110">
@@ -2676,15 +2676,15 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Cantagalo</t>
+          <t>Carapebus</t>
         </is>
       </c>
       <c r="B111">
-        <v>330110</v>
+        <v>330093</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D111">
@@ -2697,15 +2697,15 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Cantagalo</t>
+          <t>Carapebus</t>
         </is>
       </c>
       <c r="B112">
-        <v>330110</v>
+        <v>330093</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D112">
@@ -2718,36 +2718,36 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Cantagalo</t>
+          <t>Carapebus</t>
         </is>
       </c>
       <c r="B113">
-        <v>330110</v>
+        <v>330093</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Carapebus</t>
+          <t>Cardoso Moreira</t>
         </is>
       </c>
       <c r="B114">
-        <v>330093</v>
+        <v>330115</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D114">
@@ -2760,15 +2760,15 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Carapebus</t>
+          <t>Cardoso Moreira</t>
         </is>
       </c>
       <c r="B115">
-        <v>330093</v>
+        <v>330115</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D115">
@@ -2781,36 +2781,36 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Carapebus</t>
+          <t>Cardoso Moreira</t>
         </is>
       </c>
       <c r="B116">
-        <v>330093</v>
+        <v>330115</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Carapebus</t>
+          <t>Cardoso Moreira</t>
         </is>
       </c>
       <c r="B117">
-        <v>330093</v>
+        <v>330115</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D117">
@@ -2823,15 +2823,15 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Carapebus</t>
+          <t>Cardoso Moreira</t>
         </is>
       </c>
       <c r="B118">
-        <v>330093</v>
+        <v>330115</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D118">
@@ -2844,15 +2844,15 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Carapebus</t>
+          <t>Cardoso Moreira</t>
         </is>
       </c>
       <c r="B119">
-        <v>330093</v>
+        <v>330115</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D119">
@@ -2865,15 +2865,15 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Carapebus</t>
+          <t>Cardoso Moreira</t>
         </is>
       </c>
       <c r="B120">
-        <v>330093</v>
+        <v>330115</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D120">
@@ -2886,15 +2886,15 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Cardoso Moreira</t>
+          <t>Carmo</t>
         </is>
       </c>
       <c r="B121">
-        <v>330115</v>
+        <v>330120</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D121">
@@ -2907,36 +2907,36 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Cardoso Moreira</t>
+          <t>Carmo</t>
         </is>
       </c>
       <c r="B122">
-        <v>330115</v>
+        <v>330120</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Cardoso Moreira</t>
+          <t>Carmo</t>
         </is>
       </c>
       <c r="B123">
-        <v>330115</v>
+        <v>330120</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D123">
@@ -2949,78 +2949,78 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Cardoso Moreira</t>
+          <t>Carmo</t>
         </is>
       </c>
       <c r="B124">
-        <v>330115</v>
+        <v>330120</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Cardoso Moreira</t>
+          <t>Carmo</t>
         </is>
       </c>
       <c r="B125">
-        <v>330115</v>
+        <v>330120</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Cardoso Moreira</t>
+          <t>Carmo</t>
         </is>
       </c>
       <c r="B126">
-        <v>330115</v>
+        <v>330120</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Cardoso Moreira</t>
+          <t>Carmo</t>
         </is>
       </c>
       <c r="B127">
-        <v>330115</v>
+        <v>330120</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D127">
@@ -3033,15 +3033,15 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Casimiro de Abreu</t>
         </is>
       </c>
       <c r="B128">
-        <v>330120</v>
+        <v>330130</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D128">
@@ -3054,15 +3054,15 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Casimiro de Abreu</t>
         </is>
       </c>
       <c r="B129">
-        <v>330120</v>
+        <v>330130</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D129">
@@ -3075,36 +3075,36 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Casimiro de Abreu</t>
         </is>
       </c>
       <c r="B130">
-        <v>330120</v>
+        <v>330130</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Casimiro de Abreu</t>
         </is>
       </c>
       <c r="B131">
-        <v>330120</v>
+        <v>330130</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D131">
@@ -3117,15 +3117,15 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Casimiro de Abreu</t>
         </is>
       </c>
       <c r="B132">
-        <v>330120</v>
+        <v>330130</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D132">
@@ -3138,57 +3138,57 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Casimiro de Abreu</t>
         </is>
       </c>
       <c r="B133">
-        <v>330120</v>
+        <v>330130</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Casimiro de Abreu</t>
         </is>
       </c>
       <c r="B134">
-        <v>330120</v>
+        <v>330130</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Casimiro de Abreu</t>
+          <t>Conceição de Macabu</t>
         </is>
       </c>
       <c r="B135">
-        <v>330130</v>
+        <v>330140</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D135">
@@ -3201,15 +3201,15 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Casimiro de Abreu</t>
+          <t>Conceição de Macabu</t>
         </is>
       </c>
       <c r="B136">
-        <v>330130</v>
+        <v>330140</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D136">
@@ -3222,15 +3222,15 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Casimiro de Abreu</t>
+          <t>Conceição de Macabu</t>
         </is>
       </c>
       <c r="B137">
-        <v>330130</v>
+        <v>330140</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D137">
@@ -3243,15 +3243,15 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Casimiro de Abreu</t>
+          <t>Conceição de Macabu</t>
         </is>
       </c>
       <c r="B138">
-        <v>330130</v>
+        <v>330140</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D138">
@@ -3264,36 +3264,36 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Casimiro de Abreu</t>
+          <t>Conceição de Macabu</t>
         </is>
       </c>
       <c r="B139">
-        <v>330130</v>
+        <v>330140</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Casimiro de Abreu</t>
+          <t>Conceição de Macabu</t>
         </is>
       </c>
       <c r="B140">
-        <v>330130</v>
+        <v>330140</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D140">
@@ -3306,15 +3306,15 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Casimiro de Abreu</t>
+          <t>Conceição de Macabu</t>
         </is>
       </c>
       <c r="B141">
-        <v>330130</v>
+        <v>330140</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D141">
@@ -3335,14 +3335,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -3356,14 +3356,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -3377,11 +3377,11 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -3398,14 +3398,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
@@ -3419,14 +3419,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -3461,14 +3461,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D149">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D150">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D151">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D152">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D153">
@@ -3587,14 +3587,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3608,14 +3608,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -3650,11 +3650,11 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -3671,14 +3671,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D158">
         <v>1</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
@@ -3692,11 +3692,11 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159">
         <v>4</v>
@@ -3713,14 +3713,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E160">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
@@ -3734,11 +3734,11 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E161">
         <v>10</v>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D162">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D163">
@@ -3797,14 +3797,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D164">
         <v>1</v>
       </c>
       <c r="E164">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">
@@ -3839,14 +3839,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -3860,14 +3860,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
@@ -3881,14 +3881,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -3902,14 +3902,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -3923,14 +3923,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D171">
@@ -3965,14 +3965,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -3986,14 +3986,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D174">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D175">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D176">
@@ -4070,14 +4070,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177">
         <v>3</v>
-      </c>
-      <c r="E177">
-        <v>8</v>
       </c>
     </row>
     <row r="178">
@@ -4091,14 +4091,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D178">
         <v>2</v>
       </c>
       <c r="E178">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
@@ -4112,14 +4112,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E179">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180">
@@ -4133,14 +4133,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D180">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
@@ -4154,14 +4154,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E181">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182">
@@ -4175,14 +4175,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D182">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183">
@@ -4196,14 +4196,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -4217,14 +4217,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D184">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -4238,14 +4238,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -4259,14 +4259,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4280,14 +4280,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -4301,14 +4301,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E188">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">
@@ -4322,14 +4322,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E189">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190">
@@ -4343,14 +4343,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D191">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D192">
@@ -4406,14 +4406,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D194">
@@ -4448,14 +4448,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D196">
@@ -4490,14 +4490,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D198">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D199">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D200">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D201">
@@ -4595,14 +4595,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -4616,14 +4616,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4637,14 +4637,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -4658,14 +4658,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D205">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E205">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -4679,14 +4679,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207">
@@ -4700,14 +4700,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D207">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D208">
         <v>1</v>
       </c>
       <c r="E208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -4742,14 +4742,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210">
@@ -4763,14 +4763,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D210">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E210">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="211">
@@ -4784,14 +4784,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D211">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -4805,14 +4805,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -4826,14 +4826,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -4847,14 +4847,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -4868,14 +4868,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -4889,14 +4889,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D217">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D218">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D219">
@@ -4973,14 +4973,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D221">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D222">
@@ -5036,14 +5036,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -5057,14 +5057,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D225">
@@ -5099,14 +5099,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="E226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -5120,14 +5120,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -5141,14 +5141,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5162,14 +5162,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D229">
         <v>0</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D230">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D231">
@@ -5225,14 +5225,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -5246,14 +5246,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
       <c r="E233">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -5267,14 +5267,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D234">
         <v>0</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -5288,11 +5288,11 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D236">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D237">
@@ -5351,14 +5351,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239">
@@ -5372,14 +5372,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -5393,14 +5393,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E240">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -5414,14 +5414,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -5435,14 +5435,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -5456,14 +5456,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D243">
         <v>0</v>
       </c>
       <c r="E243">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244">
@@ -5477,14 +5477,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D244">
         <v>0</v>
       </c>
       <c r="E244">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -5498,14 +5498,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D246">
@@ -5540,14 +5540,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D247">
         <v>0</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D248">
@@ -5582,14 +5582,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -5603,14 +5603,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D251">
@@ -5645,14 +5645,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -5666,14 +5666,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -5687,14 +5687,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D254">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E254">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -5708,14 +5708,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="256">
@@ -5729,11 +5729,11 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E256">
         <v>18</v>
@@ -5750,14 +5750,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E257">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258">
@@ -5771,14 +5771,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E258">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="259">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E259">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="260">
@@ -5813,14 +5813,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="261">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D261">
@@ -5855,14 +5855,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D263">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D264">
@@ -5918,14 +5918,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D266">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D267">
@@ -5981,14 +5981,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D268">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E268">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269">
@@ -6002,14 +6002,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D269">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E269">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -6023,14 +6023,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271">
@@ -6044,11 +6044,11 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E271">
         <v>2</v>
@@ -6065,14 +6065,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E272">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273">
@@ -6086,14 +6086,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D273">
         <v>1</v>
       </c>
       <c r="E273">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -6107,14 +6107,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D274">
         <v>1</v>
       </c>
       <c r="E274">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -6128,14 +6128,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D275">
         <v>0</v>
       </c>
       <c r="E275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D276">
@@ -6170,14 +6170,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D277">
         <v>0</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D278">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D279">
@@ -6233,14 +6233,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D280">
         <v>0</v>
       </c>
       <c r="E280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -6254,14 +6254,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D282">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D283">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D284">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D285">
@@ -6359,14 +6359,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -6380,14 +6380,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E287">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -6401,14 +6401,14 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -6422,14 +6422,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E289">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -6443,14 +6443,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D290">
         <v>0</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -6464,14 +6464,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D291">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292">
@@ -6485,14 +6485,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E292">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -6506,14 +6506,14 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E293">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294">
@@ -6527,14 +6527,14 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D294">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E294">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295">
@@ -6548,14 +6548,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D295">
         <v>0</v>
       </c>
       <c r="E295">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -6569,14 +6569,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D296">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E296">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297">
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D297">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E297">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="298">
@@ -6611,14 +6611,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D298">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E298">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299">
@@ -6632,14 +6632,14 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D299">
+        <v>2</v>
+      </c>
+      <c r="E299">
         <v>5</v>
-      </c>
-      <c r="E299">
-        <v>7</v>
       </c>
     </row>
     <row r="300">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D300">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E300">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="301">
@@ -6674,14 +6674,14 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D301">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E301">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="302">
@@ -6695,14 +6695,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D302">
         <v>8</v>
       </c>
       <c r="E302">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="303">
@@ -6716,14 +6716,14 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D303">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E303">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -6737,14 +6737,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D304">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E304">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305">
@@ -6758,14 +6758,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E305">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306">
@@ -6779,14 +6779,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D306">
         <v>1</v>
       </c>
       <c r="E306">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307">
@@ -6800,14 +6800,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D307">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E307">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308">
@@ -6821,14 +6821,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D308">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E308">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309">
@@ -6842,14 +6842,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D309">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E309">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310">
@@ -6863,14 +6863,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E310">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -6884,14 +6884,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D311">
         <v>1</v>
       </c>
       <c r="E311">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312">
@@ -6905,14 +6905,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D312">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E312">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313">
@@ -6926,14 +6926,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
         <v>4</v>
-      </c>
-      <c r="E313">
-        <v>9</v>
       </c>
     </row>
     <row r="314">
@@ -6947,14 +6947,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D314">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E314">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="315">
@@ -6968,14 +6968,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D315">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E315">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316">
@@ -6989,14 +6989,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E316">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -7010,14 +7010,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D317">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E317">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D318">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D319">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D320">
@@ -7094,14 +7094,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D321">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E321">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322">
@@ -7115,14 +7115,14 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D322">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E322">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D323">
@@ -7157,14 +7157,14 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D324">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D325">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D326">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D327">
@@ -7241,14 +7241,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D329">
@@ -7283,14 +7283,14 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D330">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331">
@@ -7304,14 +7304,14 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D331">
         <v>0</v>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -7325,14 +7325,14 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D332">
         <v>0</v>
       </c>
       <c r="E332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D333">
@@ -7367,14 +7367,14 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D334">
         <v>0</v>
       </c>
       <c r="E334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D335">
@@ -7409,14 +7409,14 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D336">
         <v>0</v>
       </c>
       <c r="E336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D337">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D338">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D339">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D340">
@@ -7514,14 +7514,14 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D341">
         <v>0</v>
       </c>
       <c r="E341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D342">
@@ -7556,14 +7556,14 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D343">
         <v>0</v>
       </c>
       <c r="E343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D344">
@@ -7598,14 +7598,14 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D345">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E345">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="346">
@@ -7619,14 +7619,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D346">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E346">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347">
@@ -7640,14 +7640,14 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D347">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E347">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="348">
@@ -7661,14 +7661,14 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D348">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E348">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="349">
@@ -7682,14 +7682,14 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D349">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E349">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="350">
@@ -7703,14 +7703,14 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D350">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E350">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="351">
@@ -7724,14 +7724,14 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D351">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E351">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="352">
@@ -7745,14 +7745,14 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D352">
         <v>2</v>
       </c>
       <c r="E352">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -7766,14 +7766,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D353">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E353">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354">
@@ -7787,14 +7787,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D354">
         <v>0</v>
       </c>
       <c r="E354">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -7808,14 +7808,14 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D355">
         <v>0</v>
       </c>
       <c r="E355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -7829,14 +7829,14 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D356">
         <v>0</v>
       </c>
       <c r="E356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D357">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D358">
@@ -7892,14 +7892,14 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -7913,14 +7913,14 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D360">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="361">
@@ -7934,14 +7934,14 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D361">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E361">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -7955,14 +7955,14 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D362">
         <v>0</v>
       </c>
       <c r="E362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -7976,14 +7976,14 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D363">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E363">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364">
@@ -7997,14 +7997,14 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D364">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E364">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365">
@@ -8018,14 +8018,14 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D365">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E365">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="366">
@@ -8039,14 +8039,14 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D366">
         <v>0</v>
       </c>
       <c r="E366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D367">
@@ -8081,14 +8081,14 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -8102,11 +8102,11 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E369">
         <v>1</v>
@@ -8123,14 +8123,14 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D370">
         <v>0</v>
       </c>
       <c r="E370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D371">
@@ -8165,7 +8165,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D372">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D373">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D374">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D375">
@@ -8249,14 +8249,14 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D376">
         <v>0</v>
       </c>
       <c r="E376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -8270,14 +8270,14 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D377">
         <v>0</v>
       </c>
       <c r="E377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D378">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D379">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D380">
@@ -8354,14 +8354,14 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -8375,14 +8375,14 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D383">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D384">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D385">
@@ -8459,14 +8459,14 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D386">
         <v>0</v>
       </c>
       <c r="E386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D387">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D388">
@@ -8522,14 +8522,14 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D389">
         <v>0</v>
       </c>
       <c r="E389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -8543,14 +8543,14 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D390">
         <v>0</v>
       </c>
       <c r="E390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -8564,14 +8564,14 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D391">
         <v>0</v>
       </c>
       <c r="E391">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D392">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E392">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="393">
@@ -8606,14 +8606,14 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -8627,11 +8627,11 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E394">
         <v>2</v>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D395">
@@ -8669,14 +8669,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D396">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="397">
@@ -8690,14 +8690,14 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D397">
         <v>0</v>
       </c>
       <c r="E397">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398">
@@ -8711,14 +8711,14 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E398">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="399">
@@ -8732,14 +8732,14 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E399">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D400">
@@ -8774,14 +8774,14 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D401">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E401">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -8795,14 +8795,14 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D402">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -8816,14 +8816,14 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -8837,14 +8837,14 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E404">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -8858,14 +8858,14 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D405">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E405">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="406">
@@ -8879,14 +8879,14 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D406">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E406">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -8900,14 +8900,14 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D407">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E407">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="408">
@@ -8921,14 +8921,14 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D408">
         <v>0</v>
       </c>
       <c r="E408">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -8942,14 +8942,14 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E409">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -8963,14 +8963,14 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D410">
         <v>1</v>
       </c>
       <c r="E410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -8984,14 +8984,14 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -9005,14 +9005,14 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D412">
         <v>0</v>
       </c>
       <c r="E412">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="413">
@@ -9026,14 +9026,14 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D413">
         <v>0</v>
       </c>
       <c r="E413">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -9047,14 +9047,14 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E414">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415">
@@ -9068,14 +9068,14 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -9089,14 +9089,14 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D416">
         <v>0</v>
       </c>
       <c r="E416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -9110,14 +9110,14 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D417">
         <v>0</v>
       </c>
       <c r="E417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D418">
@@ -9152,14 +9152,14 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -9173,14 +9173,14 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E420">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -9194,11 +9194,11 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E421">
         <v>1</v>
@@ -9215,14 +9215,14 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E422">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -9236,7 +9236,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D423">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D424">
@@ -9278,7 +9278,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D425">
@@ -9299,14 +9299,14 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D426">
         <v>0</v>
       </c>
       <c r="E426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -9320,11 +9320,11 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E427">
         <v>2</v>
@@ -9341,14 +9341,14 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E428">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -9362,14 +9362,14 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D429">
-        <v>382</v>
+        <v>28</v>
       </c>
       <c r="E429">
-        <v>1999</v>
+        <v>110</v>
       </c>
     </row>
     <row r="430">
@@ -9383,14 +9383,14 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D430">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E430">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="431">
@@ -9404,14 +9404,14 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D431">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="E431">
-        <v>133</v>
+        <v>817</v>
       </c>
     </row>
     <row r="432">
@@ -9425,14 +9425,14 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D432">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="E432">
-        <v>673</v>
+        <v>108</v>
       </c>
     </row>
     <row r="433">
@@ -9446,14 +9446,14 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D433">
-        <v>21</v>
+        <v>467</v>
       </c>
       <c r="E433">
-        <v>104</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="434">
@@ -9467,14 +9467,14 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D434">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="E434">
-        <v>2618</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="435">
@@ -9488,14 +9488,14 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D435">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="E435">
-        <v>1760</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="436">
@@ -9509,14 +9509,14 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D436">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E436">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -9530,14 +9530,14 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -9551,14 +9551,14 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -9572,7 +9572,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D439">
@@ -9593,14 +9593,14 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D440">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E440">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="441">
@@ -9614,14 +9614,14 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D441">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E441">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="442">
@@ -9635,14 +9635,14 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D442">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E442">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="443">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D443">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D444">
@@ -9698,14 +9698,14 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D445">
         <v>0</v>
       </c>
       <c r="E445">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -9719,14 +9719,14 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E446">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -9740,7 +9740,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D447">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D448">
@@ -9782,14 +9782,14 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D449">
         <v>0</v>
       </c>
       <c r="E449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -9803,14 +9803,14 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D450">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E450">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -9824,14 +9824,14 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D451">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E451">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="452">
@@ -9845,14 +9845,14 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D452">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E452">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="453">
@@ -9866,14 +9866,14 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D453">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E453">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="454">
@@ -9887,14 +9887,14 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D454">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E454">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="455">
@@ -9908,14 +9908,14 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D455">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E455">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="456">
@@ -9929,14 +9929,14 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D456">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E456">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="457">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D457">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D458">
@@ -9992,7 +9992,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D459">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D460">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D461">
@@ -10055,7 +10055,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D462">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D463">
@@ -10097,14 +10097,14 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D464">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E464">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -10118,14 +10118,14 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D465">
         <v>0</v>
       </c>
       <c r="E465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466">
@@ -10139,14 +10139,14 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D466">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E466">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467">
@@ -10160,14 +10160,14 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D467">
+        <v>0</v>
+      </c>
+      <c r="E467">
         <v>2</v>
-      </c>
-      <c r="E467">
-        <v>3</v>
       </c>
     </row>
     <row r="468">
@@ -10181,14 +10181,14 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D468">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E468">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="469">
@@ -10202,14 +10202,14 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D469">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E469">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="470">
@@ -10223,14 +10223,14 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D470">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E470">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471">
@@ -10244,14 +10244,14 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D471">
         <v>0</v>
       </c>
       <c r="E471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -10265,14 +10265,14 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D472">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E472">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -10286,14 +10286,14 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D473">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E473">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D474">
@@ -10328,7 +10328,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D475">
@@ -10349,7 +10349,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D476">
@@ -10370,14 +10370,14 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D477">
         <v>0</v>
       </c>
       <c r="E477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478">
@@ -10391,7 +10391,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D478">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D479">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D480">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D481">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D482">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D483">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D484">
@@ -10538,14 +10538,14 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D485">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E485">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D486">
@@ -10580,7 +10580,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D487">
@@ -10601,7 +10601,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D488">
@@ -10622,14 +10622,14 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D489">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E489">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="490">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D490">
@@ -10664,14 +10664,14 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D491">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E491">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="492">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D492">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D493">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D494">
@@ -10748,7 +10748,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D495">
@@ -10769,7 +10769,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D496">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D497">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D498">
@@ -10832,14 +10832,14 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D499">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D500">
@@ -10874,14 +10874,14 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D501">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502">
@@ -10895,14 +10895,14 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D502">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -10916,14 +10916,14 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504">
@@ -10937,11 +10937,11 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E504">
         <v>1</v>
@@ -10958,28 +10958,28 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D505">
         <v>0</v>
       </c>
       <c r="E505">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B506">
-        <v>330560</v>
+        <v>330570</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D506">
@@ -10992,15 +10992,15 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B507">
-        <v>330560</v>
+        <v>330570</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D507">
@@ -11013,15 +11013,15 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B508">
-        <v>330560</v>
+        <v>330570</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D508">
@@ -11034,15 +11034,15 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B509">
-        <v>330560</v>
+        <v>330570</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D509">
@@ -11055,99 +11055,99 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B510">
-        <v>330560</v>
+        <v>330570</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D510">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B511">
-        <v>330560</v>
+        <v>330570</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B512">
-        <v>330560</v>
+        <v>330570</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D512">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B513">
-        <v>330570</v>
+        <v>330575</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D513">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B514">
-        <v>330570</v>
+        <v>330575</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D514">
@@ -11160,36 +11160,36 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B515">
-        <v>330570</v>
+        <v>330575</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B516">
-        <v>330570</v>
+        <v>330575</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D516">
@@ -11202,141 +11202,141 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B517">
-        <v>330570</v>
+        <v>330575</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D517">
         <v>0</v>
       </c>
       <c r="E517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B518">
-        <v>330570</v>
+        <v>330575</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D518">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B519">
-        <v>330570</v>
+        <v>330575</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E519">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B520">
-        <v>330575</v>
+        <v>330580</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D520">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B521">
-        <v>330575</v>
+        <v>330580</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D521">
         <v>0</v>
       </c>
       <c r="E521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B522">
-        <v>330575</v>
+        <v>330580</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D522">
         <v>0</v>
       </c>
       <c r="E522">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B523">
-        <v>330575</v>
+        <v>330580</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D523">
@@ -11349,99 +11349,99 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B524">
-        <v>330575</v>
+        <v>330580</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D524">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E524">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B525">
-        <v>330575</v>
+        <v>330580</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D525">
         <v>0</v>
       </c>
       <c r="E525">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B526">
-        <v>330575</v>
+        <v>330580</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D526">
         <v>0</v>
       </c>
       <c r="E526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B527">
-        <v>330580</v>
+        <v>330610</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D527">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E527">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B528">
-        <v>330580</v>
+        <v>330610</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D528">
@@ -11454,36 +11454,36 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B529">
-        <v>330580</v>
+        <v>330610</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D529">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B530">
-        <v>330580</v>
+        <v>330610</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D530">
@@ -11496,120 +11496,120 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B531">
-        <v>330580</v>
+        <v>330610</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D531">
         <v>0</v>
       </c>
       <c r="E531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B532">
-        <v>330580</v>
+        <v>330610</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D532">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E532">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B533">
-        <v>330580</v>
+        <v>330610</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E533">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B534">
-        <v>330610</v>
+        <v>330620</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B535">
-        <v>330610</v>
+        <v>330620</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D535">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E535">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B536">
-        <v>330610</v>
+        <v>330620</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D536">
@@ -11622,526 +11622,232 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B537">
-        <v>330610</v>
+        <v>330620</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D537">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E537">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B538">
-        <v>330610</v>
+        <v>330620</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D538">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E538">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B539">
-        <v>330610</v>
+        <v>330620</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D539">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E539">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B540">
-        <v>330610</v>
+        <v>330620</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D540">
         <v>0</v>
       </c>
       <c r="E540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Varre-Sai</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B541">
-        <v>330615</v>
+        <v>330630</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="D541">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E541">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Varre-Sai</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B542">
-        <v>330615</v>
+        <v>330630</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D542">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E542">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Varre-Sai</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B543">
-        <v>330615</v>
+        <v>330630</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D543">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E543">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Varre-Sai</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B544">
-        <v>330615</v>
+        <v>330630</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D544">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E544">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Varre-Sai</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B545">
-        <v>330615</v>
+        <v>330630</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D545">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E545">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Varre-Sai</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B546">
-        <v>330615</v>
+        <v>330630</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D546">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E546">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Varre-Sai</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B547">
-        <v>330615</v>
+        <v>330630</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D547">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E547">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>Vassouras</t>
-        </is>
-      </c>
-      <c r="B548">
-        <v>330620</v>
-      </c>
-      <c r="C548" t="inlineStr">
-        <is>
-          <t>11/10/2023</t>
-        </is>
-      </c>
-      <c r="D548">
-        <v>2</v>
-      </c>
-      <c r="E548">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>Vassouras</t>
-        </is>
-      </c>
-      <c r="B549">
-        <v>330620</v>
-      </c>
-      <c r="C549" t="inlineStr">
-        <is>
-          <t>12/10/2023</t>
-        </is>
-      </c>
-      <c r="D549">
-        <v>0</v>
-      </c>
-      <c r="E549">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>Vassouras</t>
-        </is>
-      </c>
-      <c r="B550">
-        <v>330620</v>
-      </c>
-      <c r="C550" t="inlineStr">
-        <is>
-          <t>13/10/2023</t>
-        </is>
-      </c>
-      <c r="D550">
-        <v>3</v>
-      </c>
-      <c r="E550">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>Vassouras</t>
-        </is>
-      </c>
-      <c r="B551">
-        <v>330620</v>
-      </c>
-      <c r="C551" t="inlineStr">
-        <is>
-          <t>14/10/2023</t>
-        </is>
-      </c>
-      <c r="D551">
-        <v>0</v>
-      </c>
-      <c r="E551">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>Vassouras</t>
-        </is>
-      </c>
-      <c r="B552">
-        <v>330620</v>
-      </c>
-      <c r="C552" t="inlineStr">
-        <is>
-          <t>15/10/2023</t>
-        </is>
-      </c>
-      <c r="D552">
-        <v>2</v>
-      </c>
-      <c r="E552">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>Vassouras</t>
-        </is>
-      </c>
-      <c r="B553">
-        <v>330620</v>
-      </c>
-      <c r="C553" t="inlineStr">
-        <is>
-          <t>16/10/2023</t>
-        </is>
-      </c>
-      <c r="D553">
-        <v>3</v>
-      </c>
-      <c r="E553">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>Vassouras</t>
-        </is>
-      </c>
-      <c r="B554">
-        <v>330620</v>
-      </c>
-      <c r="C554" t="inlineStr">
-        <is>
-          <t>17/10/2023</t>
-        </is>
-      </c>
-      <c r="D554">
-        <v>3</v>
-      </c>
-      <c r="E554">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B555">
-        <v>330630</v>
-      </c>
-      <c r="C555" t="inlineStr">
-        <is>
-          <t>11/10/2023</t>
-        </is>
-      </c>
-      <c r="D555">
-        <v>7</v>
-      </c>
-      <c r="E555">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B556">
-        <v>330630</v>
-      </c>
-      <c r="C556" t="inlineStr">
-        <is>
-          <t>12/10/2023</t>
-        </is>
-      </c>
-      <c r="D556">
-        <v>6</v>
-      </c>
-      <c r="E556">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B557">
-        <v>330630</v>
-      </c>
-      <c r="C557" t="inlineStr">
-        <is>
-          <t>13/10/2023</t>
-        </is>
-      </c>
-      <c r="D557">
-        <v>16</v>
-      </c>
-      <c r="E557">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B558">
-        <v>330630</v>
-      </c>
-      <c r="C558" t="inlineStr">
-        <is>
-          <t>14/10/2023</t>
-        </is>
-      </c>
-      <c r="D558">
-        <v>3</v>
-      </c>
-      <c r="E558">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B559">
-        <v>330630</v>
-      </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>15/10/2023</t>
-        </is>
-      </c>
-      <c r="D559">
-        <v>7</v>
-      </c>
-      <c r="E559">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B560">
-        <v>330630</v>
-      </c>
-      <c r="C560" t="inlineStr">
-        <is>
-          <t>16/10/2023</t>
-        </is>
-      </c>
-      <c r="D560">
-        <v>25</v>
-      </c>
-      <c r="E560">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B561">
-        <v>330630</v>
-      </c>
-      <c r="C561" t="inlineStr">
-        <is>
-          <t>17/10/2023</t>
-        </is>
-      </c>
-      <c r="D561">
-        <v>12</v>
-      </c>
-      <c r="E561">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/inst/planilha_esus.xlsx
+++ b/inst/planilha_esus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E547"/>
+  <dimension ref="A1:E568"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,14 +395,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D2">
         <v>25</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -416,14 +416,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -437,14 +437,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -458,14 +458,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E5">
-        <v>39</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
@@ -479,14 +479,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>96</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -500,14 +500,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -521,14 +521,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -542,14 +542,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -563,14 +563,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -584,14 +584,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -605,14 +605,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -626,11 +626,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -647,14 +647,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -668,14 +668,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -689,7 +689,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D16">
@@ -710,7 +710,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D17">
@@ -731,14 +731,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -752,14 +752,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -773,14 +773,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -794,14 +794,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -815,14 +815,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -836,7 +836,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D23">
@@ -857,7 +857,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D24">
@@ -878,7 +878,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D25">
@@ -899,14 +899,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -920,14 +920,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -941,7 +941,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D28">
@@ -962,14 +962,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -983,7 +983,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D30">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D31">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D32">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D33">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D34">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D35">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D36">
@@ -1130,14 +1130,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1151,14 +1151,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1193,14 +1193,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -1214,14 +1214,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="E41">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -1235,14 +1235,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1277,14 +1277,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1298,14 +1298,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
         <v>7</v>
-      </c>
-      <c r="E45">
-        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1319,14 +1319,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
         <v>2</v>
-      </c>
-      <c r="E46">
-        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E48">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -1403,14 +1403,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -1424,14 +1424,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1487,14 +1487,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -1508,14 +1508,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -1529,14 +1529,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
         <v>2</v>
-      </c>
-      <c r="E57">
-        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D58">
@@ -1592,14 +1592,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1613,14 +1613,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1634,14 +1634,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -1655,14 +1655,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1676,14 +1676,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -1697,14 +1697,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D65">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D66">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D67">
@@ -1781,14 +1781,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -1802,14 +1802,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D70">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D71">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D72">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D73">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D74">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -1949,14 +1949,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -1970,14 +1970,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1991,14 +1991,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2012,14 +2012,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D80">
@@ -2054,14 +2054,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2075,14 +2075,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -2096,14 +2096,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D83">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
@@ -2138,14 +2138,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D86">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D87">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D88">
@@ -2222,14 +2222,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -2243,14 +2243,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D91">
@@ -2285,14 +2285,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D94">
@@ -2348,14 +2348,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2369,14 +2369,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -2390,14 +2390,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -2411,14 +2411,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -2432,14 +2432,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D101">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D102">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D103">
@@ -2537,14 +2537,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -2558,14 +2558,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -2579,14 +2579,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D107">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D108">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D109">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D110">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D111">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D112">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D113">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D114">
@@ -2768,14 +2768,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D117">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D118">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D119">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D120">
@@ -2894,14 +2894,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -2915,14 +2915,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D123">
@@ -2957,14 +2957,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D125">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D126">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D127">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D128">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D129">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D130">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D131">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D132">
@@ -3146,14 +3146,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3167,14 +3167,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D135">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D136">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D137">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -3272,14 +3272,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D140">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D141">
@@ -3335,14 +3335,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -3356,14 +3356,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -3377,14 +3377,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145">
@@ -3398,14 +3398,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D145">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E145">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -3419,14 +3419,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D147">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D148">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D149">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D150">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D151">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D152">
@@ -3566,14 +3566,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -3587,14 +3587,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D155">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -3650,14 +3650,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D157">
         <v>1</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158">
@@ -3671,14 +3671,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159">
@@ -3692,14 +3692,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E159">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160">
@@ -3713,14 +3713,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E160">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161">
@@ -3734,14 +3734,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162">
@@ -3755,14 +3755,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E162">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163">
@@ -3776,14 +3776,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164">
@@ -3797,14 +3797,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E164">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -3839,14 +3839,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E166">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
@@ -3860,14 +3860,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -3881,14 +3881,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D169">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D170">
@@ -3944,14 +3944,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -3965,14 +3965,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D173">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D174">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D175">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D176">
@@ -4070,14 +4070,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D177">
         <v>2</v>
       </c>
       <c r="E177">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
@@ -4091,14 +4091,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E178">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179">
@@ -4112,14 +4112,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D179">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
@@ -4133,14 +4133,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E180">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181">
@@ -4154,14 +4154,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D181">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182">
@@ -4175,14 +4175,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -4196,14 +4196,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -4217,11 +4217,11 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184">
         <v>2</v>
@@ -4238,14 +4238,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -4259,14 +4259,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -4280,14 +4280,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188">
@@ -4301,14 +4301,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D188">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189">
@@ -4322,14 +4322,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -4343,14 +4343,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D190">
         <v>1</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D191">
@@ -4385,14 +4385,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -4406,14 +4406,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -4427,14 +4427,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D195">
@@ -4469,14 +4469,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -4490,14 +4490,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D198">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D199">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D200">
@@ -4574,14 +4574,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -4595,14 +4595,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -4616,14 +4616,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -4637,14 +4637,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -4658,14 +4658,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206">
@@ -4679,14 +4679,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D206">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -4700,14 +4700,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D207">
         <v>1</v>
       </c>
       <c r="E207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209">
@@ -4742,14 +4742,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D209">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E209">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="210">
@@ -4763,14 +4763,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D210">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E210">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211">
@@ -4784,14 +4784,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E211">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
@@ -4805,14 +4805,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -4826,14 +4826,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -4847,14 +4847,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -4868,14 +4868,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -4889,14 +4889,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217">
@@ -4910,14 +4910,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -4931,14 +4931,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -4952,14 +4952,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D220">
@@ -4994,14 +4994,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -5015,14 +5015,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -5036,14 +5036,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D224">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D225">
@@ -5099,14 +5099,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -5120,14 +5120,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -5141,14 +5141,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D228">
         <v>0</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D229">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D230">
@@ -5204,11 +5204,11 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -5225,14 +5225,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -5246,14 +5246,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -5267,11 +5267,11 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D235">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D236">
@@ -5330,14 +5330,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238">
@@ -5351,14 +5351,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D238">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -5372,14 +5372,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
@@ -5393,14 +5393,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -5414,14 +5414,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -5435,14 +5435,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243">
@@ -5456,14 +5456,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D243">
         <v>0</v>
       </c>
       <c r="E243">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
@@ -5477,14 +5477,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245">
@@ -5498,14 +5498,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -5519,14 +5519,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D247">
@@ -5561,14 +5561,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -5582,14 +5582,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D250">
@@ -5624,14 +5624,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D251">
         <v>0</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -5645,14 +5645,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -5666,14 +5666,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -5687,14 +5687,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D254">
         <v>0</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255">
@@ -5708,11 +5708,11 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E255">
         <v>18</v>
@@ -5729,14 +5729,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E256">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="257">
@@ -5750,14 +5750,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E257">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258">
@@ -5771,14 +5771,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D258">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E258">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="259">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D259">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E259">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="260">
@@ -5813,14 +5813,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E260">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261">
@@ -5834,14 +5834,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D262">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D263">
@@ -5897,14 +5897,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D264">
         <v>0</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -5918,14 +5918,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D266">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D267">
@@ -5981,14 +5981,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D268">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E268">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -6002,14 +6002,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E269">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -6023,14 +6023,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D270">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E270">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -6044,14 +6044,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E271">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272">
@@ -6065,14 +6065,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D272">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E272">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -6086,14 +6086,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E273">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D274">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D275">
@@ -6149,14 +6149,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D276">
         <v>0</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D277">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D278">
@@ -6212,14 +6212,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D279">
         <v>0</v>
       </c>
       <c r="E279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -6233,14 +6233,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -6254,14 +6254,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E281">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D282">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D283">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D284">
@@ -6338,14 +6338,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D285">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -6359,14 +6359,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E286">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -6380,14 +6380,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D288">
@@ -6422,14 +6422,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D289">
         <v>0</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -6443,14 +6443,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D290">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E290">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -6464,14 +6464,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E291">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -6485,14 +6485,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E292">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293">
@@ -6506,14 +6506,14 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D293">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E293">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294">
@@ -6527,14 +6527,14 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D294">
         <v>0</v>
       </c>
       <c r="E294">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -6548,14 +6548,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E295">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -6569,14 +6569,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D296">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E296">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297">
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D297">
         <v>6</v>
       </c>
       <c r="E297">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298">
@@ -6611,14 +6611,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D298">
+        <v>2</v>
+      </c>
+      <c r="E298">
         <v>5</v>
-      </c>
-      <c r="E298">
-        <v>7</v>
       </c>
     </row>
     <row r="299">
@@ -6632,14 +6632,14 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D299">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E299">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="300">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D300">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E300">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="301">
@@ -6674,14 +6674,14 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D301">
         <v>11</v>
       </c>
       <c r="E301">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="302">
@@ -6695,14 +6695,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D302">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E302">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="303">
@@ -6716,14 +6716,14 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D303">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E303">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304">
@@ -6737,14 +6737,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D304">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E304">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="305">
@@ -6758,14 +6758,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D305">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E305">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306">
@@ -6779,14 +6779,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D306">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E306">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="307">
@@ -6800,14 +6800,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D307">
         <v>3</v>
       </c>
       <c r="E307">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308">
@@ -6821,11 +6821,11 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D308">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E308">
         <v>6</v>
@@ -6842,14 +6842,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D309">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E309">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310">
@@ -6863,14 +6863,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D310">
         <v>1</v>
       </c>
       <c r="E310">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311">
@@ -6884,14 +6884,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D311">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E311">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="312">
@@ -6905,14 +6905,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D312">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E312">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313">
@@ -6926,14 +6926,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D313">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E313">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="314">
@@ -6947,14 +6947,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D314">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E314">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315">
@@ -6968,14 +6968,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E315">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316">
@@ -6989,14 +6989,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D316">
         <v>1</v>
       </c>
       <c r="E316">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D317">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D318">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D319">
@@ -7073,14 +7073,14 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D320">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E320">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321">
@@ -7094,14 +7094,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D321">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E321">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -7115,14 +7115,14 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D323">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D324">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D325">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D326">
@@ -7220,14 +7220,14 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D328">
@@ -7262,14 +7262,14 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D329">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E329">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D330">
@@ -7304,14 +7304,14 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D331">
         <v>0</v>
       </c>
       <c r="E331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D332">
@@ -7346,14 +7346,14 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D333">
         <v>0</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D334">
@@ -7388,11 +7388,11 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E335">
         <v>1</v>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D336">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D337">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D338">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D339">
@@ -7493,14 +7493,14 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D340">
         <v>0</v>
       </c>
       <c r="E340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D341">
@@ -7535,14 +7535,14 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D342">
         <v>0</v>
       </c>
       <c r="E342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D343">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D344">
@@ -7598,14 +7598,14 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D345">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E345">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="346">
@@ -7619,14 +7619,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D346">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E346">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="347">
@@ -7640,14 +7640,14 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D347">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E347">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="348">
@@ -7661,14 +7661,14 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D348">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E348">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="349">
@@ -7682,14 +7682,14 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D349">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E349">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="350">
@@ -7703,14 +7703,14 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D350">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E350">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="351">
@@ -7724,14 +7724,14 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D351">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E351">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="352">
@@ -7745,14 +7745,14 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D352">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E352">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353">
@@ -7766,14 +7766,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D353">
         <v>0</v>
       </c>
       <c r="E353">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -7787,14 +7787,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D354">
         <v>0</v>
       </c>
       <c r="E354">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355">
@@ -7808,14 +7808,14 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D355">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E355">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="356">
@@ -7829,14 +7829,14 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D356">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="357">
@@ -7850,14 +7850,14 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D357">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E357">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358">
@@ -7871,14 +7871,14 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -7892,14 +7892,14 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D359">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360">
@@ -7913,14 +7913,14 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D360">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E360">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -7934,14 +7934,14 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D361">
         <v>0</v>
       </c>
       <c r="E361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -7955,14 +7955,14 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D362">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E362">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363">
@@ -7976,14 +7976,14 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D363">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E363">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="364">
@@ -7997,14 +7997,14 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D364">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E364">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="365">
@@ -8018,14 +8018,14 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D365">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E365">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D366">
@@ -8060,14 +8060,14 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -8081,11 +8081,11 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E368">
         <v>1</v>
@@ -8102,14 +8102,14 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D369">
         <v>0</v>
       </c>
       <c r="E369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -8123,14 +8123,14 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D370">
         <v>0</v>
       </c>
       <c r="E370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -8144,14 +8144,14 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D371">
         <v>0</v>
       </c>
       <c r="E371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -8165,7 +8165,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D372">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D373">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D374">
@@ -8228,14 +8228,14 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D375">
         <v>0</v>
       </c>
       <c r="E375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -8249,14 +8249,14 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D376">
         <v>0</v>
       </c>
       <c r="E376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D377">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D378">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D379">
@@ -8333,14 +8333,14 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -8354,14 +8354,14 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D382">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D383">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D384">
@@ -8438,14 +8438,14 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D385">
         <v>0</v>
       </c>
       <c r="E385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -8459,14 +8459,14 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D386">
         <v>0</v>
       </c>
       <c r="E386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D387">
@@ -8501,14 +8501,14 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D388">
         <v>0</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -8522,14 +8522,14 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D389">
         <v>0</v>
       </c>
       <c r="E389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -8543,14 +8543,14 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D390">
         <v>0</v>
       </c>
       <c r="E390">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="391">
@@ -8564,14 +8564,14 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D391">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E391">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="392">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D392">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E392">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -8606,14 +8606,14 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D393">
         <v>0</v>
       </c>
       <c r="E393">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -8627,14 +8627,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D394">
         <v>0</v>
       </c>
       <c r="E394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -8648,14 +8648,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D395">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E395">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="396">
@@ -8669,14 +8669,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D396">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E396">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="397">
@@ -8690,14 +8690,14 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E397">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398">
@@ -8711,14 +8711,14 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E398">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399">
@@ -8732,14 +8732,14 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D399">
         <v>2</v>
       </c>
       <c r="E399">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="400">
@@ -8753,14 +8753,14 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D400">
         <v>0</v>
       </c>
       <c r="E400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -8774,14 +8774,14 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D401">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E401">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -8795,14 +8795,14 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D402">
         <v>1</v>
       </c>
       <c r="E402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -8816,14 +8816,14 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D403">
         <v>1</v>
       </c>
       <c r="E403">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -8837,14 +8837,14 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D404">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E404">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="405">
@@ -8858,14 +8858,14 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D405">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E405">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -8879,14 +8879,14 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D406">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E406">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="407">
@@ -8900,14 +8900,14 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D407">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E407">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -8921,14 +8921,14 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E408">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -8942,14 +8942,14 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D409">
         <v>1</v>
       </c>
       <c r="E409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -8963,14 +8963,14 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -8984,14 +8984,14 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D411">
         <v>0</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="412">
@@ -9005,14 +9005,14 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D412">
         <v>0</v>
       </c>
       <c r="E412">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -9026,14 +9026,14 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E413">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="414">
@@ -9047,14 +9047,14 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E414">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -9068,14 +9068,14 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D415">
         <v>0</v>
       </c>
       <c r="E415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -9089,14 +9089,14 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D416">
         <v>0</v>
       </c>
       <c r="E416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -9110,7 +9110,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D417">
@@ -9131,14 +9131,14 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D418">
         <v>0</v>
       </c>
       <c r="E418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -9152,14 +9152,14 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E419">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -9173,14 +9173,14 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D420">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E420">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -9194,14 +9194,14 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -9215,7 +9215,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D422">
@@ -9236,7 +9236,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D423">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D424">
@@ -9278,14 +9278,14 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D425">
         <v>0</v>
       </c>
       <c r="E425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -9299,11 +9299,11 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E426">
         <v>2</v>
@@ -9320,14 +9320,14 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E427">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -9341,14 +9341,14 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D428">
         <v>0</v>
       </c>
       <c r="E428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -9362,14 +9362,14 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D429">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E429">
-        <v>110</v>
+        <v>139</v>
       </c>
     </row>
     <row r="430">
@@ -9383,14 +9383,14 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D430">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="E430">
-        <v>138</v>
+        <v>830</v>
       </c>
     </row>
     <row r="431">
@@ -9404,14 +9404,14 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D431">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="E431">
-        <v>817</v>
+        <v>110</v>
       </c>
     </row>
     <row r="432">
@@ -9425,14 +9425,14 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D432">
-        <v>22</v>
+        <v>496</v>
       </c>
       <c r="E432">
-        <v>108</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="433">
@@ -9446,14 +9446,14 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D433">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="E433">
-        <v>2755</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="434">
@@ -9467,14 +9467,14 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D434">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E434">
-        <v>2189</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="435">
@@ -9488,14 +9488,14 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D435">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="E435">
-        <v>1893</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="436">
@@ -9509,14 +9509,14 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -9530,14 +9530,14 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D438">
@@ -9572,14 +9572,14 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D439">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E439">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="440">
@@ -9593,14 +9593,14 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D440">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E440">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="441">
@@ -9614,14 +9614,14 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D441">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E441">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="442">
@@ -9635,28 +9635,28 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D442">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E442">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>São Francisco de Itabapoana</t>
+          <t>São Fidélis</t>
         </is>
       </c>
       <c r="B443">
-        <v>330475</v>
+        <v>330480</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D443">
@@ -9669,15 +9669,15 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>São Francisco de Itabapoana</t>
+          <t>São Fidélis</t>
         </is>
       </c>
       <c r="B444">
-        <v>330475</v>
+        <v>330480</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D444">
@@ -9690,57 +9690,57 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>São Francisco de Itabapoana</t>
+          <t>São Fidélis</t>
         </is>
       </c>
       <c r="B445">
-        <v>330475</v>
+        <v>330480</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D445">
         <v>0</v>
       </c>
       <c r="E445">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>São Francisco de Itabapoana</t>
+          <t>São Fidélis</t>
         </is>
       </c>
       <c r="B446">
-        <v>330475</v>
+        <v>330480</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>São Francisco de Itabapoana</t>
+          <t>São Fidélis</t>
         </is>
       </c>
       <c r="B447">
-        <v>330475</v>
+        <v>330480</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D447">
@@ -9753,523 +9753,523 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>São Francisco de Itabapoana</t>
+          <t>São Fidélis</t>
         </is>
       </c>
       <c r="B448">
-        <v>330475</v>
+        <v>330480</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D448">
         <v>0</v>
       </c>
       <c r="E448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>São Francisco de Itabapoana</t>
+          <t>São Fidélis</t>
         </is>
       </c>
       <c r="B449">
-        <v>330475</v>
+        <v>330480</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D449">
         <v>0</v>
       </c>
       <c r="E449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>São Gonçalo</t>
+          <t>São Francisco de Itabapoana</t>
         </is>
       </c>
       <c r="B450">
-        <v>330490</v>
+        <v>330475</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D450">
         <v>0</v>
       </c>
       <c r="E450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>São Gonçalo</t>
+          <t>São Francisco de Itabapoana</t>
         </is>
       </c>
       <c r="B451">
-        <v>330490</v>
+        <v>330475</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D451">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E451">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>São Gonçalo</t>
+          <t>São Francisco de Itabapoana</t>
         </is>
       </c>
       <c r="B452">
-        <v>330490</v>
+        <v>330475</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D452">
         <v>1</v>
       </c>
       <c r="E452">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>São Gonçalo</t>
+          <t>São Francisco de Itabapoana</t>
         </is>
       </c>
       <c r="B453">
-        <v>330490</v>
+        <v>330475</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D453">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E453">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>São Gonçalo</t>
+          <t>São Francisco de Itabapoana</t>
         </is>
       </c>
       <c r="B454">
-        <v>330490</v>
+        <v>330475</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D454">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E454">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>São Gonçalo</t>
+          <t>São Francisco de Itabapoana</t>
         </is>
       </c>
       <c r="B455">
-        <v>330490</v>
+        <v>330475</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D455">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E455">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>São Gonçalo</t>
+          <t>São Francisco de Itabapoana</t>
         </is>
       </c>
       <c r="B456">
-        <v>330490</v>
+        <v>330475</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D456">
         <v>0</v>
       </c>
       <c r="E456">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>São João da Barra</t>
+          <t>São Gonçalo</t>
         </is>
       </c>
       <c r="B457">
-        <v>330500</v>
+        <v>330490</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D457">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E457">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>São João da Barra</t>
+          <t>São Gonçalo</t>
         </is>
       </c>
       <c r="B458">
-        <v>330500</v>
+        <v>330490</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E458">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>São João da Barra</t>
+          <t>São Gonçalo</t>
         </is>
       </c>
       <c r="B459">
-        <v>330500</v>
+        <v>330490</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D459">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E459">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>São João da Barra</t>
+          <t>São Gonçalo</t>
         </is>
       </c>
       <c r="B460">
-        <v>330500</v>
+        <v>330490</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D460">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E460">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>São João da Barra</t>
+          <t>São Gonçalo</t>
         </is>
       </c>
       <c r="B461">
-        <v>330500</v>
+        <v>330490</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D461">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E461">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>São João da Barra</t>
+          <t>São Gonçalo</t>
         </is>
       </c>
       <c r="B462">
-        <v>330500</v>
+        <v>330490</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E462">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>São João da Barra</t>
+          <t>São Gonçalo</t>
         </is>
       </c>
       <c r="B463">
-        <v>330500</v>
+        <v>330490</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D463">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E463">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>São João da Barra</t>
         </is>
       </c>
       <c r="B464">
-        <v>330510</v>
+        <v>330500</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D464">
         <v>0</v>
       </c>
       <c r="E464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>São João da Barra</t>
         </is>
       </c>
       <c r="B465">
-        <v>330510</v>
+        <v>330500</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D465">
         <v>0</v>
       </c>
       <c r="E465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>São João da Barra</t>
         </is>
       </c>
       <c r="B466">
-        <v>330510</v>
+        <v>330500</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D466">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E466">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>São João da Barra</t>
         </is>
       </c>
       <c r="B467">
-        <v>330510</v>
+        <v>330500</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D467">
         <v>0</v>
       </c>
       <c r="E467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>São João da Barra</t>
         </is>
       </c>
       <c r="B468">
-        <v>330510</v>
+        <v>330500</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D468">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E468">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>São João da Barra</t>
         </is>
       </c>
       <c r="B469">
-        <v>330510</v>
+        <v>330500</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D469">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E469">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>São João de Meriti</t>
+          <t>São João da Barra</t>
         </is>
       </c>
       <c r="B470">
-        <v>330510</v>
+        <v>330500</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D470">
         <v>0</v>
       </c>
       <c r="E470">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>São José do Vale do Rio Preto</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="B471">
-        <v>330515</v>
+        <v>330510</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D471">
         <v>0</v>
       </c>
       <c r="E471">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>São José do Vale do Rio Preto</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="B472">
-        <v>330515</v>
+        <v>330510</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D472">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E472">
         <v>3</v>
@@ -10278,141 +10278,141 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>São José do Vale do Rio Preto</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="B473">
-        <v>330515</v>
+        <v>330510</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D473">
         <v>0</v>
       </c>
       <c r="E473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>São José do Vale do Rio Preto</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="B474">
-        <v>330515</v>
+        <v>330510</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D474">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E474">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>São José do Vale do Rio Preto</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="B475">
-        <v>330515</v>
+        <v>330510</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D475">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E475">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>São José do Vale do Rio Preto</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="B476">
-        <v>330515</v>
+        <v>330510</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D476">
         <v>0</v>
       </c>
       <c r="E476">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>São José do Vale do Rio Preto</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="B477">
-        <v>330515</v>
+        <v>330510</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D477">
         <v>0</v>
       </c>
       <c r="E477">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>São Pedro da Aldeia</t>
+          <t>São José do Vale do Rio Preto</t>
         </is>
       </c>
       <c r="B478">
-        <v>330520</v>
+        <v>330515</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D478">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E478">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>São Pedro da Aldeia</t>
+          <t>São José do Vale do Rio Preto</t>
         </is>
       </c>
       <c r="B479">
-        <v>330520</v>
+        <v>330515</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D479">
@@ -10425,15 +10425,15 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>São Pedro da Aldeia</t>
+          <t>São José do Vale do Rio Preto</t>
         </is>
       </c>
       <c r="B480">
-        <v>330520</v>
+        <v>330515</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D480">
@@ -10446,15 +10446,15 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>São Pedro da Aldeia</t>
+          <t>São José do Vale do Rio Preto</t>
         </is>
       </c>
       <c r="B481">
-        <v>330520</v>
+        <v>330515</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D481">
@@ -10467,15 +10467,15 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>São Pedro da Aldeia</t>
+          <t>São José do Vale do Rio Preto</t>
         </is>
       </c>
       <c r="B482">
-        <v>330520</v>
+        <v>330515</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D482">
@@ -10488,57 +10488,57 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>São Pedro da Aldeia</t>
+          <t>São José do Vale do Rio Preto</t>
         </is>
       </c>
       <c r="B483">
-        <v>330520</v>
+        <v>330515</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D483">
         <v>0</v>
       </c>
       <c r="E483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>São Pedro da Aldeia</t>
+          <t>São José do Vale do Rio Preto</t>
         </is>
       </c>
       <c r="B484">
-        <v>330520</v>
+        <v>330515</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D484">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>São Pedro da Aldeia</t>
         </is>
       </c>
       <c r="B485">
-        <v>330540</v>
+        <v>330520</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D485">
@@ -10551,15 +10551,15 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>São Pedro da Aldeia</t>
         </is>
       </c>
       <c r="B486">
-        <v>330540</v>
+        <v>330520</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D486">
@@ -10572,15 +10572,15 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>São Pedro da Aldeia</t>
         </is>
       </c>
       <c r="B487">
-        <v>330540</v>
+        <v>330520</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D487">
@@ -10593,15 +10593,15 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>São Pedro da Aldeia</t>
         </is>
       </c>
       <c r="B488">
-        <v>330540</v>
+        <v>330520</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D488">
@@ -10614,78 +10614,78 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>São Pedro da Aldeia</t>
         </is>
       </c>
       <c r="B489">
-        <v>330540</v>
+        <v>330520</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D489">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E489">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>São Pedro da Aldeia</t>
         </is>
       </c>
       <c r="B490">
-        <v>330540</v>
+        <v>330520</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D490">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E490">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>São Pedro da Aldeia</t>
         </is>
       </c>
       <c r="B491">
-        <v>330540</v>
+        <v>330520</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D491">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E491">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B492">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D492">
@@ -10698,15 +10698,15 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B493">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D493">
@@ -10719,15 +10719,15 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B494">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D494">
@@ -10740,120 +10740,120 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B495">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D495">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E495">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B496">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D496">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E496">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B497">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D497">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E497">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B498">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D498">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B499">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D499">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B500">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D500">
@@ -10866,120 +10866,120 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B501">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D501">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B502">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B503">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D503">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B504">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D504">
         <v>0</v>
       </c>
       <c r="E504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B505">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D505">
         <v>0</v>
       </c>
       <c r="E505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B506">
-        <v>330570</v>
+        <v>330555</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D506">
@@ -10992,82 +10992,82 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B507">
-        <v>330570</v>
+        <v>330555</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B508">
-        <v>330570</v>
+        <v>330555</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D508">
         <v>0</v>
       </c>
       <c r="E508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B509">
-        <v>330570</v>
+        <v>330555</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B510">
-        <v>330570</v>
+        <v>330555</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E510">
         <v>1</v>
@@ -11076,57 +11076,57 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B511">
-        <v>330570</v>
+        <v>330555</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D511">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E511">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B512">
-        <v>330570</v>
+        <v>330555</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D512">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B513">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D513">
@@ -11139,15 +11139,15 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B514">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D514">
@@ -11160,145 +11160,145 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B515">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B516">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D516">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B517">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B518">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D518">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B519">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D519">
         <v>0</v>
       </c>
       <c r="E519">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B520">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D520">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B521">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E521">
         <v>1</v>
@@ -11307,78 +11307,78 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B522">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D522">
         <v>0</v>
       </c>
       <c r="E522">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B523">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D523">
         <v>0</v>
       </c>
       <c r="E523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B524">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D524">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E524">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B525">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D525">
@@ -11391,183 +11391,183 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B526">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D526">
         <v>0</v>
       </c>
       <c r="E526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B527">
-        <v>330610</v>
+        <v>330580</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E527">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B528">
-        <v>330610</v>
+        <v>330580</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D528">
         <v>0</v>
       </c>
       <c r="E528">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B529">
-        <v>330610</v>
+        <v>330580</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B530">
-        <v>330610</v>
+        <v>330580</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D530">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E530">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B531">
-        <v>330610</v>
+        <v>330580</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D531">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E531">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B532">
-        <v>330610</v>
+        <v>330580</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D532">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E532">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B533">
-        <v>330610</v>
+        <v>330580</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D533">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E533">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B534">
-        <v>330620</v>
+        <v>330600</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D534">
@@ -11580,36 +11580,36 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B535">
-        <v>330620</v>
+        <v>330600</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D535">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E535">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B536">
-        <v>330620</v>
+        <v>330600</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D536">
@@ -11622,232 +11622,673 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B537">
-        <v>330620</v>
+        <v>330600</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D537">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E537">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B538">
-        <v>330620</v>
+        <v>330600</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D538">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E538">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B539">
-        <v>330620</v>
+        <v>330600</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D539">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E539">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B540">
-        <v>330620</v>
+        <v>330600</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D540">
         <v>0</v>
       </c>
       <c r="E540">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B541">
-        <v>330630</v>
+        <v>330610</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D541">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E541">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B542">
-        <v>330630</v>
+        <v>330610</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="D542">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E542">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B543">
-        <v>330630</v>
+        <v>330610</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D543">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E543">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B544">
-        <v>330630</v>
+        <v>330610</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D544">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E544">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B545">
-        <v>330630</v>
+        <v>330610</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D545">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E545">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B546">
-        <v>330630</v>
+        <v>330610</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D546">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E546">
-        <v>104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
+          <t>Valença</t>
+        </is>
+      </c>
+      <c r="B547">
+        <v>330610</v>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
+        </is>
+      </c>
+      <c r="D547">
+        <v>0</v>
+      </c>
+      <c r="E547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Varre-Sai</t>
+        </is>
+      </c>
+      <c r="B548">
+        <v>330615</v>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="D548">
+        <v>0</v>
+      </c>
+      <c r="E548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Varre-Sai</t>
+        </is>
+      </c>
+      <c r="B549">
+        <v>330615</v>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>14/10/2023</t>
+        </is>
+      </c>
+      <c r="D549">
+        <v>0</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Varre-Sai</t>
+        </is>
+      </c>
+      <c r="B550">
+        <v>330615</v>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>15/10/2023</t>
+        </is>
+      </c>
+      <c r="D550">
+        <v>0</v>
+      </c>
+      <c r="E550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Varre-Sai</t>
+        </is>
+      </c>
+      <c r="B551">
+        <v>330615</v>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="D551">
+        <v>0</v>
+      </c>
+      <c r="E551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Varre-Sai</t>
+        </is>
+      </c>
+      <c r="B552">
+        <v>330615</v>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="D552">
+        <v>0</v>
+      </c>
+      <c r="E552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Varre-Sai</t>
+        </is>
+      </c>
+      <c r="B553">
+        <v>330615</v>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="D553">
+        <v>0</v>
+      </c>
+      <c r="E553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Varre-Sai</t>
+        </is>
+      </c>
+      <c r="B554">
+        <v>330615</v>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
+        </is>
+      </c>
+      <c r="D554">
+        <v>0</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Vassouras</t>
+        </is>
+      </c>
+      <c r="B555">
+        <v>330620</v>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="D555">
+        <v>3</v>
+      </c>
+      <c r="E555">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Vassouras</t>
+        </is>
+      </c>
+      <c r="B556">
+        <v>330620</v>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>14/10/2023</t>
+        </is>
+      </c>
+      <c r="D556">
+        <v>0</v>
+      </c>
+      <c r="E556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Vassouras</t>
+        </is>
+      </c>
+      <c r="B557">
+        <v>330620</v>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>15/10/2023</t>
+        </is>
+      </c>
+      <c r="D557">
+        <v>2</v>
+      </c>
+      <c r="E557">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Vassouras</t>
+        </is>
+      </c>
+      <c r="B558">
+        <v>330620</v>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="D558">
+        <v>3</v>
+      </c>
+      <c r="E558">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Vassouras</t>
+        </is>
+      </c>
+      <c r="B559">
+        <v>330620</v>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="D559">
+        <v>3</v>
+      </c>
+      <c r="E559">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Vassouras</t>
+        </is>
+      </c>
+      <c r="B560">
+        <v>330620</v>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="D560">
+        <v>0</v>
+      </c>
+      <c r="E560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Vassouras</t>
+        </is>
+      </c>
+      <c r="B561">
+        <v>330620</v>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
+        </is>
+      </c>
+      <c r="D561">
+        <v>0</v>
+      </c>
+      <c r="E561">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
           <t>Volta Redonda</t>
         </is>
       </c>
-      <c r="B547">
+      <c r="B562">
         <v>330630</v>
       </c>
-      <c r="C547" t="inlineStr">
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="D562">
+        <v>16</v>
+      </c>
+      <c r="E562">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B563">
+        <v>330630</v>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>14/10/2023</t>
+        </is>
+      </c>
+      <c r="D563">
+        <v>4</v>
+      </c>
+      <c r="E563">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B564">
+        <v>330630</v>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>15/10/2023</t>
+        </is>
+      </c>
+      <c r="D564">
+        <v>8</v>
+      </c>
+      <c r="E564">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B565">
+        <v>330630</v>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="D565">
+        <v>28</v>
+      </c>
+      <c r="E565">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B566">
+        <v>330630</v>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="D566">
+        <v>19</v>
+      </c>
+      <c r="E566">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B567">
+        <v>330630</v>
+      </c>
+      <c r="C567" t="inlineStr">
         <is>
           <t>18/10/2023</t>
         </is>
       </c>
-      <c r="D547">
-        <v>24</v>
-      </c>
-      <c r="E547">
-        <v>83</v>
+      <c r="D567">
+        <v>34</v>
+      </c>
+      <c r="E567">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B568">
+        <v>330630</v>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
+        </is>
+      </c>
+      <c r="D568">
+        <v>37</v>
+      </c>
+      <c r="E568">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/inst/planilha_esus.xlsx
+++ b/inst/planilha_esus.xlsx
@@ -395,14 +395,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -416,14 +416,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -437,14 +437,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>106</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -458,14 +458,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -479,14 +479,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -500,14 +500,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D7">
         <v>24</v>
       </c>
       <c r="E7">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -521,14 +521,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -542,14 +542,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -563,14 +563,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -584,11 +584,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -605,14 +605,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -626,14 +626,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -647,14 +647,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -668,14 +668,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -689,14 +689,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -710,14 +710,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -731,7 +731,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D18">
@@ -752,14 +752,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -773,14 +773,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -794,14 +794,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -815,7 +815,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D22">
@@ -836,7 +836,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D23">
@@ -857,14 +857,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -878,14 +878,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -899,7 +899,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D26">
@@ -920,14 +920,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -941,14 +941,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -962,11 +962,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -983,7 +983,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D30">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D31">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D32">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D33">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D34">
@@ -1088,14 +1088,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1109,14 +1109,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1130,11 +1130,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -1151,14 +1151,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="E39">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -1193,14 +1193,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1214,14 +1214,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1235,14 +1235,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1277,14 +1277,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
         <v>2</v>
-      </c>
-      <c r="E44">
-        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1298,14 +1298,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -1319,14 +1319,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46">
         <v>13</v>
-      </c>
-      <c r="E46">
-        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E47">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -1403,14 +1403,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -1424,14 +1424,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -1487,14 +1487,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -1508,14 +1508,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
         <v>2</v>
-      </c>
-      <c r="E55">
-        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D56">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1571,14 +1571,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1592,14 +1592,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -1613,14 +1613,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1634,14 +1634,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -1655,14 +1655,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1676,14 +1676,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1697,14 +1697,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D65">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -1760,14 +1760,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D68">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D69">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D70">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D71">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D72">
@@ -1886,14 +1886,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -1907,14 +1907,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1949,14 +1949,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1970,14 +1970,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1991,14 +1991,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2012,14 +2012,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2033,14 +2033,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81">
@@ -2054,14 +2054,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D81">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -2075,14 +2075,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
@@ -2096,14 +2096,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D85">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D86">
@@ -2180,14 +2180,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -2201,14 +2201,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D89">
@@ -2243,14 +2243,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -2264,14 +2264,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D92">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -2327,14 +2327,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
@@ -2348,14 +2348,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D95">
         <v>4</v>
       </c>
       <c r="E95">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -2369,14 +2369,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E96">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -2390,14 +2390,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D97">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -2411,14 +2411,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
         <v>2</v>
-      </c>
-      <c r="E98">
-        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -2432,14 +2432,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D100">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D101">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -2516,14 +2516,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2537,14 +2537,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -2558,11 +2558,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -2579,14 +2579,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D107">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D108">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D109">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D110">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D111">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D112">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D113">
@@ -2739,120 +2739,120 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Cardoso Moreira</t>
+          <t>Carmo</t>
         </is>
       </c>
       <c r="B114">
-        <v>330115</v>
+        <v>330120</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Cardoso Moreira</t>
+          <t>Carmo</t>
         </is>
       </c>
       <c r="B115">
-        <v>330115</v>
+        <v>330120</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Cardoso Moreira</t>
+          <t>Carmo</t>
         </is>
       </c>
       <c r="B116">
-        <v>330115</v>
+        <v>330120</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Cardoso Moreira</t>
+          <t>Carmo</t>
         </is>
       </c>
       <c r="B117">
-        <v>330115</v>
+        <v>330120</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Cardoso Moreira</t>
+          <t>Carmo</t>
         </is>
       </c>
       <c r="B118">
-        <v>330115</v>
+        <v>330120</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Cardoso Moreira</t>
+          <t>Carmo</t>
         </is>
       </c>
       <c r="B119">
-        <v>330115</v>
+        <v>330120</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D119">
@@ -2865,15 +2865,15 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Cardoso Moreira</t>
+          <t>Carmo</t>
         </is>
       </c>
       <c r="B120">
-        <v>330115</v>
+        <v>330120</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D120">
@@ -2886,15 +2886,15 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Casimiro de Abreu</t>
         </is>
       </c>
       <c r="B121">
-        <v>330120</v>
+        <v>330130</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D121">
@@ -2907,15 +2907,15 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Casimiro de Abreu</t>
         </is>
       </c>
       <c r="B122">
-        <v>330120</v>
+        <v>330130</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D122">
@@ -2928,40 +2928,40 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Casimiro de Abreu</t>
         </is>
       </c>
       <c r="B123">
-        <v>330120</v>
+        <v>330130</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Casimiro de Abreu</t>
         </is>
       </c>
       <c r="B124">
-        <v>330120</v>
+        <v>330130</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -2970,57 +2970,57 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Casimiro de Abreu</t>
         </is>
       </c>
       <c r="B125">
-        <v>330120</v>
+        <v>330130</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Casimiro de Abreu</t>
         </is>
       </c>
       <c r="B126">
-        <v>330120</v>
+        <v>330130</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Casimiro de Abreu</t>
         </is>
       </c>
       <c r="B127">
-        <v>330120</v>
+        <v>330130</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D127">
@@ -3033,15 +3033,15 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Casimiro de Abreu</t>
+          <t>Conceição de Macabu</t>
         </is>
       </c>
       <c r="B128">
-        <v>330130</v>
+        <v>330140</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D128">
@@ -3054,36 +3054,36 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Casimiro de Abreu</t>
+          <t>Conceição de Macabu</t>
         </is>
       </c>
       <c r="B129">
-        <v>330130</v>
+        <v>330140</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Casimiro de Abreu</t>
+          <t>Conceição de Macabu</t>
         </is>
       </c>
       <c r="B130">
-        <v>330130</v>
+        <v>330140</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D130">
@@ -3096,15 +3096,15 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Casimiro de Abreu</t>
+          <t>Conceição de Macabu</t>
         </is>
       </c>
       <c r="B131">
-        <v>330130</v>
+        <v>330140</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D131">
@@ -3117,36 +3117,36 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Casimiro de Abreu</t>
+          <t>Conceição de Macabu</t>
         </is>
       </c>
       <c r="B132">
-        <v>330130</v>
+        <v>330140</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Casimiro de Abreu</t>
+          <t>Conceição de Macabu</t>
         </is>
       </c>
       <c r="B133">
-        <v>330130</v>
+        <v>330140</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D133">
@@ -3159,15 +3159,15 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Casimiro de Abreu</t>
+          <t>Conceição de Macabu</t>
         </is>
       </c>
       <c r="B134">
-        <v>330130</v>
+        <v>330140</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D134">
@@ -3180,120 +3180,120 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Conceição de Macabu</t>
+          <t>Cordeiro</t>
         </is>
       </c>
       <c r="B135">
-        <v>330140</v>
+        <v>330150</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Conceição de Macabu</t>
+          <t>Cordeiro</t>
         </is>
       </c>
       <c r="B136">
-        <v>330140</v>
+        <v>330150</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Conceição de Macabu</t>
+          <t>Cordeiro</t>
         </is>
       </c>
       <c r="B137">
-        <v>330140</v>
+        <v>330150</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Conceição de Macabu</t>
+          <t>Cordeiro</t>
         </is>
       </c>
       <c r="B138">
-        <v>330140</v>
+        <v>330150</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Conceição de Macabu</t>
+          <t>Cordeiro</t>
         </is>
       </c>
       <c r="B139">
-        <v>330140</v>
+        <v>330150</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Conceição de Macabu</t>
+          <t>Cordeiro</t>
         </is>
       </c>
       <c r="B140">
-        <v>330140</v>
+        <v>330150</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D140">
@@ -3306,15 +3306,15 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Conceição de Macabu</t>
+          <t>Cordeiro</t>
         </is>
       </c>
       <c r="B141">
-        <v>330140</v>
+        <v>330150</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D141">
@@ -3327,141 +3327,141 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Duas Barras</t>
         </is>
       </c>
       <c r="B142">
-        <v>330150</v>
+        <v>330160</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Duas Barras</t>
         </is>
       </c>
       <c r="B143">
-        <v>330150</v>
+        <v>330160</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D143">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Duas Barras</t>
         </is>
       </c>
       <c r="B144">
-        <v>330150</v>
+        <v>330160</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Duas Barras</t>
         </is>
       </c>
       <c r="B145">
-        <v>330150</v>
+        <v>330160</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Duas Barras</t>
         </is>
       </c>
       <c r="B146">
-        <v>330150</v>
+        <v>330160</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Duas Barras</t>
         </is>
       </c>
       <c r="B147">
-        <v>330150</v>
+        <v>330160</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Cordeiro</t>
+          <t>Duas Barras</t>
         </is>
       </c>
       <c r="B148">
-        <v>330150</v>
+        <v>330160</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D148">
@@ -3474,141 +3474,141 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Duas Barras</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="B149">
-        <v>330160</v>
+        <v>330170</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Duas Barras</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="B150">
-        <v>330160</v>
+        <v>330170</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Duas Barras</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="B151">
-        <v>330160</v>
+        <v>330170</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Duas Barras</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="B152">
-        <v>330160</v>
+        <v>330170</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Duas Barras</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="B153">
-        <v>330160</v>
+        <v>330170</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Duas Barras</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="B154">
-        <v>330160</v>
+        <v>330170</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Duas Barras</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="B155">
-        <v>330160</v>
+        <v>330170</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D155">
@@ -3621,414 +3621,414 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Duque de Caxias</t>
+          <t>Engenheiro Paulo de Frontin</t>
         </is>
       </c>
       <c r="B156">
-        <v>330170</v>
+        <v>330180</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Duque de Caxias</t>
+          <t>Engenheiro Paulo de Frontin</t>
         </is>
       </c>
       <c r="B157">
-        <v>330170</v>
+        <v>330180</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E157">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Duque de Caxias</t>
+          <t>Engenheiro Paulo de Frontin</t>
         </is>
       </c>
       <c r="B158">
-        <v>330170</v>
+        <v>330180</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E158">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Duque de Caxias</t>
+          <t>Engenheiro Paulo de Frontin</t>
         </is>
       </c>
       <c r="B159">
-        <v>330170</v>
+        <v>330180</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Duque de Caxias</t>
+          <t>Engenheiro Paulo de Frontin</t>
         </is>
       </c>
       <c r="B160">
-        <v>330170</v>
+        <v>330180</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Duque de Caxias</t>
+          <t>Engenheiro Paulo de Frontin</t>
         </is>
       </c>
       <c r="B161">
-        <v>330170</v>
+        <v>330180</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D161">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Duque de Caxias</t>
+          <t>Engenheiro Paulo de Frontin</t>
         </is>
       </c>
       <c r="B162">
-        <v>330170</v>
+        <v>330180</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Engenheiro Paulo de Frontin</t>
+          <t>Guapimirim</t>
         </is>
       </c>
       <c r="B163">
-        <v>330180</v>
+        <v>330185</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Engenheiro Paulo de Frontin</t>
+          <t>Guapimirim</t>
         </is>
       </c>
       <c r="B164">
-        <v>330180</v>
+        <v>330185</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Engenheiro Paulo de Frontin</t>
+          <t>Guapimirim</t>
         </is>
       </c>
       <c r="B165">
-        <v>330180</v>
+        <v>330185</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D165">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Engenheiro Paulo de Frontin</t>
+          <t>Guapimirim</t>
         </is>
       </c>
       <c r="B166">
-        <v>330180</v>
+        <v>330185</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Engenheiro Paulo de Frontin</t>
+          <t>Guapimirim</t>
         </is>
       </c>
       <c r="B167">
-        <v>330180</v>
+        <v>330185</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Engenheiro Paulo de Frontin</t>
+          <t>Guapimirim</t>
         </is>
       </c>
       <c r="B168">
-        <v>330180</v>
+        <v>330185</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Engenheiro Paulo de Frontin</t>
+          <t>Guapimirim</t>
         </is>
       </c>
       <c r="B169">
-        <v>330180</v>
+        <v>330185</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Guapimirim</t>
+          <t>Iguaba Grande</t>
         </is>
       </c>
       <c r="B170">
-        <v>330185</v>
+        <v>330187</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Guapimirim</t>
+          <t>Iguaba Grande</t>
         </is>
       </c>
       <c r="B171">
-        <v>330185</v>
+        <v>330187</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Guapimirim</t>
+          <t>Iguaba Grande</t>
         </is>
       </c>
       <c r="B172">
-        <v>330185</v>
+        <v>330187</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Guapimirim</t>
+          <t>Iguaba Grande</t>
         </is>
       </c>
       <c r="B173">
-        <v>330185</v>
+        <v>330187</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Guapimirim</t>
+          <t>Iguaba Grande</t>
         </is>
       </c>
       <c r="B174">
-        <v>330185</v>
+        <v>330187</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Guapimirim</t>
+          <t>Iguaba Grande</t>
         </is>
       </c>
       <c r="B175">
-        <v>330185</v>
+        <v>330187</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D175">
@@ -4041,15 +4041,15 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Guapimirim</t>
+          <t>Iguaba Grande</t>
         </is>
       </c>
       <c r="B176">
-        <v>330185</v>
+        <v>330187</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D176">
@@ -4062,141 +4062,141 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Iguaba Grande</t>
+          <t>Itaboraí</t>
         </is>
       </c>
       <c r="B177">
-        <v>330187</v>
+        <v>330190</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D177">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Iguaba Grande</t>
+          <t>Itaboraí</t>
         </is>
       </c>
       <c r="B178">
-        <v>330187</v>
+        <v>330190</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E178">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Iguaba Grande</t>
+          <t>Itaboraí</t>
         </is>
       </c>
       <c r="B179">
-        <v>330187</v>
+        <v>330190</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D179">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Iguaba Grande</t>
+          <t>Itaboraí</t>
         </is>
       </c>
       <c r="B180">
-        <v>330187</v>
+        <v>330190</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D180">
         <v>1</v>
       </c>
       <c r="E180">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Iguaba Grande</t>
+          <t>Itaboraí</t>
         </is>
       </c>
       <c r="B181">
-        <v>330187</v>
+        <v>330190</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E181">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Iguaba Grande</t>
+          <t>Itaboraí</t>
         </is>
       </c>
       <c r="B182">
-        <v>330187</v>
+        <v>330190</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Iguaba Grande</t>
+          <t>Itaboraí</t>
         </is>
       </c>
       <c r="B183">
-        <v>330187</v>
+        <v>330190</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D183">
@@ -4209,103 +4209,103 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Itaboraí</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="B184">
-        <v>330190</v>
+        <v>330200</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Itaboraí</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="B185">
-        <v>330190</v>
+        <v>330200</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Itaboraí</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="B186">
-        <v>330190</v>
+        <v>330200</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D186">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Itaboraí</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="B187">
-        <v>330190</v>
+        <v>330200</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E187">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Itaboraí</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="B188">
-        <v>330190</v>
+        <v>330200</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -4314,183 +4314,183 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Itaboraí</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="B189">
-        <v>330190</v>
+        <v>330200</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Itaboraí</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="B190">
-        <v>330190</v>
+        <v>330200</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Italva</t>
         </is>
       </c>
       <c r="B191">
-        <v>330200</v>
+        <v>330205</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Italva</t>
         </is>
       </c>
       <c r="B192">
-        <v>330200</v>
+        <v>330205</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Italva</t>
         </is>
       </c>
       <c r="B193">
-        <v>330200</v>
+        <v>330205</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E193">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Italva</t>
         </is>
       </c>
       <c r="B194">
-        <v>330200</v>
+        <v>330205</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Italva</t>
         </is>
       </c>
       <c r="B195">
-        <v>330200</v>
+        <v>330205</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E195">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Italva</t>
         </is>
       </c>
       <c r="B196">
-        <v>330200</v>
+        <v>330205</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Italva</t>
         </is>
       </c>
       <c r="B197">
-        <v>330200</v>
+        <v>330205</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D197">
@@ -4503,141 +4503,141 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Italva</t>
+          <t>Itaocara</t>
         </is>
       </c>
       <c r="B198">
-        <v>330205</v>
+        <v>330210</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Italva</t>
+          <t>Itaocara</t>
         </is>
       </c>
       <c r="B199">
-        <v>330205</v>
+        <v>330210</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Italva</t>
+          <t>Itaocara</t>
         </is>
       </c>
       <c r="B200">
-        <v>330205</v>
+        <v>330210</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Italva</t>
+          <t>Itaocara</t>
         </is>
       </c>
       <c r="B201">
-        <v>330205</v>
+        <v>330210</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Italva</t>
+          <t>Itaocara</t>
         </is>
       </c>
       <c r="B202">
-        <v>330205</v>
+        <v>330210</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Italva</t>
+          <t>Itaocara</t>
         </is>
       </c>
       <c r="B203">
-        <v>330205</v>
+        <v>330210</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E203">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Italva</t>
+          <t>Itaocara</t>
         </is>
       </c>
       <c r="B204">
-        <v>330205</v>
+        <v>330210</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D204">
@@ -4650,162 +4650,162 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Itaocara</t>
+          <t>Itaperuna</t>
         </is>
       </c>
       <c r="B205">
-        <v>330210</v>
+        <v>330220</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Itaocara</t>
+          <t>Itaperuna</t>
         </is>
       </c>
       <c r="B206">
-        <v>330210</v>
+        <v>330220</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Itaocara</t>
+          <t>Itaperuna</t>
         </is>
       </c>
       <c r="B207">
-        <v>330210</v>
+        <v>330220</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D207">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Itaocara</t>
+          <t>Itaperuna</t>
         </is>
       </c>
       <c r="B208">
-        <v>330210</v>
+        <v>330220</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D208">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E208">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Itaocara</t>
+          <t>Itaperuna</t>
         </is>
       </c>
       <c r="B209">
-        <v>330210</v>
+        <v>330220</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E209">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Itaocara</t>
+          <t>Itaperuna</t>
         </is>
       </c>
       <c r="B210">
-        <v>330210</v>
+        <v>330220</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D210">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E210">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Itaocara</t>
+          <t>Itaperuna</t>
         </is>
       </c>
       <c r="B211">
-        <v>330210</v>
+        <v>330220</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D211">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E211">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Itaperuna</t>
+          <t>Itatiaia</t>
         </is>
       </c>
       <c r="B212">
-        <v>330220</v>
+        <v>330225</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D212">
@@ -4818,40 +4818,40 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Itaperuna</t>
+          <t>Itatiaia</t>
         </is>
       </c>
       <c r="B213">
-        <v>330220</v>
+        <v>330225</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Itaperuna</t>
+          <t>Itatiaia</t>
         </is>
       </c>
       <c r="B214">
-        <v>330220</v>
+        <v>330225</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E214">
         <v>3</v>
@@ -4860,78 +4860,78 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Itaperuna</t>
+          <t>Itatiaia</t>
         </is>
       </c>
       <c r="B215">
-        <v>330220</v>
+        <v>330225</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D215">
         <v>1</v>
       </c>
       <c r="E215">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Itaperuna</t>
+          <t>Itatiaia</t>
         </is>
       </c>
       <c r="B216">
-        <v>330220</v>
+        <v>330225</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Itaperuna</t>
+          <t>Itatiaia</t>
         </is>
       </c>
       <c r="B217">
-        <v>330220</v>
+        <v>330225</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Itaperuna</t>
+          <t>Itatiaia</t>
         </is>
       </c>
       <c r="B218">
-        <v>330220</v>
+        <v>330225</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D218">
@@ -4944,19 +4944,19 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Itatiaia</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="B219">
-        <v>330225</v>
+        <v>330227</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -4965,103 +4965,103 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Itatiaia</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="B220">
-        <v>330225</v>
+        <v>330227</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Itatiaia</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="B221">
-        <v>330225</v>
+        <v>330227</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Itatiaia</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="B222">
-        <v>330225</v>
+        <v>330227</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Itatiaia</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="B223">
-        <v>330225</v>
+        <v>330227</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Itatiaia</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="B224">
-        <v>330225</v>
+        <v>330227</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -5070,36 +5070,36 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Itatiaia</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="B225">
-        <v>330225</v>
+        <v>330227</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D225">
         <v>0</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Laje do Muriaé</t>
         </is>
       </c>
       <c r="B226">
-        <v>330227</v>
+        <v>330230</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D226">
@@ -5112,99 +5112,99 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Laje do Muriaé</t>
         </is>
       </c>
       <c r="B227">
-        <v>330227</v>
+        <v>330230</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Laje do Muriaé</t>
         </is>
       </c>
       <c r="B228">
-        <v>330227</v>
+        <v>330230</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D228">
         <v>0</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Laje do Muriaé</t>
         </is>
       </c>
       <c r="B229">
-        <v>330227</v>
+        <v>330230</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D229">
         <v>0</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Laje do Muriaé</t>
         </is>
       </c>
       <c r="B230">
-        <v>330227</v>
+        <v>330230</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Laje do Muriaé</t>
         </is>
       </c>
       <c r="B231">
-        <v>330227</v>
+        <v>330230</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D231">
@@ -5217,15 +5217,15 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Laje do Muriaé</t>
         </is>
       </c>
       <c r="B232">
-        <v>330227</v>
+        <v>330230</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D232">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D233">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D234">
@@ -5288,14 +5288,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236">
@@ -5309,14 +5309,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D236">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -5330,14 +5330,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -5351,14 +5351,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -5372,14 +5372,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D240">
@@ -5414,14 +5414,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
@@ -5435,14 +5435,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243">
@@ -5456,14 +5456,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E243">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -5477,14 +5477,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D245">
@@ -5519,14 +5519,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E246">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -5540,14 +5540,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D248">
@@ -5582,14 +5582,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D249">
         <v>0</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -5603,14 +5603,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -5624,14 +5624,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D251">
         <v>0</v>
       </c>
       <c r="E251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -5645,14 +5645,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -5666,14 +5666,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -5687,14 +5687,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E254">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255">
@@ -5708,14 +5708,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D255">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E255">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="256">
@@ -5729,14 +5729,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D256">
         <v>4</v>
       </c>
       <c r="E256">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="257">
@@ -5750,14 +5750,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D257">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E257">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="258">
@@ -5771,14 +5771,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D258">
         <v>2</v>
       </c>
       <c r="E258">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="259">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D259">
         <v>2</v>
       </c>
       <c r="E259">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="260">
@@ -5813,14 +5813,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D260">
         <v>2</v>
       </c>
       <c r="E260">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="261">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D261">
@@ -5855,14 +5855,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -5876,14 +5876,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D264">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D265">
@@ -5939,14 +5939,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -5960,14 +5960,14 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D267">
         <v>0</v>
       </c>
       <c r="E267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -5981,14 +5981,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D268">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E268">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -6002,14 +6002,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E269">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -6023,14 +6023,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E270">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -6044,14 +6044,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E271">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272">
@@ -6065,14 +6065,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D272">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E272">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273">
@@ -6086,14 +6086,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E273">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -6107,14 +6107,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D275">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D276">
@@ -6170,14 +6170,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D277">
         <v>0</v>
       </c>
       <c r="E277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -6191,14 +6191,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279">
@@ -6212,14 +6212,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D279">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E279">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D280">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D281">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D282">
@@ -6296,14 +6296,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -6317,14 +6317,14 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D284">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D285">
@@ -6359,14 +6359,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -6380,14 +6380,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D288">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D289">
@@ -6443,14 +6443,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D290">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291">
@@ -6464,14 +6464,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E291">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -6485,14 +6485,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D293">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D294">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D295">
@@ -6569,14 +6569,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D296">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E296">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E297">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298">
@@ -6611,14 +6611,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D298">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E298">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299">
@@ -6632,14 +6632,14 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D299">
         <v>0</v>
       </c>
       <c r="E299">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D300">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E300">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -6674,14 +6674,14 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D301">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E301">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -6695,14 +6695,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D302">
         <v>0</v>
       </c>
       <c r="E302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -6716,14 +6716,14 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D303">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E303">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304">
@@ -6737,14 +6737,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D304">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E304">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="305">
@@ -6758,14 +6758,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D305">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E305">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="306">
@@ -6779,14 +6779,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D306">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E306">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="307">
@@ -6800,14 +6800,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D307">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E307">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="308">
@@ -6821,14 +6821,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D308">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E308">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="309">
@@ -6842,14 +6842,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D309">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E309">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -6863,14 +6863,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D310">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E310">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="311">
@@ -6884,14 +6884,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D311">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E311">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="312">
@@ -6905,14 +6905,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D312">
         <v>3</v>
       </c>
       <c r="E312">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="313">
@@ -6926,11 +6926,11 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D313">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E313">
         <v>6</v>
@@ -6947,14 +6947,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D314">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E314">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315">
@@ -6968,14 +6968,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D315">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E315">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -6989,14 +6989,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -7010,14 +7010,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D317">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E317">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318">
@@ -7031,14 +7031,14 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D318">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E318">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="319">
@@ -7052,14 +7052,14 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D319">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E319">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320">
@@ -7073,14 +7073,14 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D320">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E320">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="321">
@@ -7094,14 +7094,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D321">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E321">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322">
@@ -7115,14 +7115,14 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E322">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="323">
@@ -7136,14 +7136,14 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D323">
         <v>0</v>
       </c>
       <c r="E323">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -7157,11 +7157,11 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E324">
         <v>1</v>
@@ -7178,14 +7178,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D325">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E325">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326">
@@ -7199,14 +7199,14 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D326">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E326">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -7220,14 +7220,14 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E327">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328">
@@ -7241,14 +7241,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D328">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E328">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -7262,14 +7262,14 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D329">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E329">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="330">
@@ -7283,14 +7283,14 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D330">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E330">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D331">
@@ -7325,14 +7325,14 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D333">
@@ -7367,14 +7367,14 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D334">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E334">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="335">
@@ -7388,14 +7388,14 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D335">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E335">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="336">
@@ -7409,14 +7409,14 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D336">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E336">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337">
@@ -7430,14 +7430,14 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D337">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E337">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -7451,14 +7451,14 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D338">
         <v>0</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D339">
@@ -7493,11 +7493,11 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E340">
         <v>1</v>
@@ -7514,14 +7514,14 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D342">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D343">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D344">
@@ -7598,14 +7598,14 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D345">
         <v>0</v>
       </c>
       <c r="E345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D346">
@@ -7640,14 +7640,14 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D347">
         <v>0</v>
       </c>
       <c r="E347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D348">
@@ -7682,14 +7682,14 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -7703,14 +7703,14 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D351">
@@ -7745,14 +7745,14 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D352">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E352">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="353">
@@ -7766,14 +7766,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D353">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E353">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="354">
@@ -7787,14 +7787,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D354">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E354">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="355">
@@ -7808,14 +7808,14 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D355">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E355">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="356">
@@ -7829,11 +7829,11 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D356">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E356">
         <v>32</v>
@@ -7850,14 +7850,14 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D357">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E357">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="358">
@@ -7871,14 +7871,14 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D358">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E358">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="359">
@@ -7892,14 +7892,14 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D359">
         <v>0</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -7913,14 +7913,14 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D360">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E360">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="361">
@@ -7934,14 +7934,14 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D361">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E361">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="362">
@@ -7955,14 +7955,14 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D362">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E362">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="363">
@@ -7976,14 +7976,14 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D363">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E363">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364">
@@ -7997,14 +7997,14 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D364">
         <v>1</v>
       </c>
       <c r="E364">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -8018,14 +8018,14 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -8039,14 +8039,14 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D366">
         <v>0</v>
       </c>
       <c r="E366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -8060,14 +8060,14 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D367">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E367">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="368">
@@ -8081,14 +8081,14 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D368">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E368">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="369">
@@ -8102,14 +8102,14 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D369">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E369">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="370">
@@ -8123,14 +8123,14 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D370">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E370">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371">
@@ -8144,14 +8144,14 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D371">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E371">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372">
@@ -8165,14 +8165,14 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D372">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E372">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -8186,11 +8186,11 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E373">
         <v>1</v>
@@ -8207,14 +8207,14 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D374">
         <v>0</v>
       </c>
       <c r="E374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -8228,14 +8228,14 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D375">
         <v>0</v>
       </c>
       <c r="E375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376">
@@ -8249,14 +8249,14 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D376">
         <v>0</v>
       </c>
       <c r="E376">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -8270,14 +8270,14 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D377">
         <v>0</v>
       </c>
       <c r="E377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D378">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D379">
@@ -8333,14 +8333,14 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D380">
         <v>0</v>
       </c>
       <c r="E380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -8354,14 +8354,14 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D381">
         <v>0</v>
       </c>
       <c r="E381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D382">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D383">
@@ -8417,14 +8417,14 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D384">
         <v>0</v>
       </c>
       <c r="E384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -8438,14 +8438,14 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D385">
         <v>0</v>
       </c>
       <c r="E385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D386">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D387">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D388">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D389">
@@ -8543,14 +8543,14 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
@@ -8564,14 +8564,14 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D392">
@@ -8606,7 +8606,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D393">
@@ -8627,14 +8627,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D394">
         <v>0</v>
       </c>
       <c r="E394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -8648,14 +8648,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D395">
         <v>0</v>
       </c>
       <c r="E395">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="396">
@@ -8669,14 +8669,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D396">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E396">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="397">
@@ -8690,14 +8690,14 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D397">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E397">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -8711,14 +8711,14 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D398">
         <v>0</v>
       </c>
       <c r="E398">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D399">
@@ -8753,14 +8753,14 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D400">
         <v>0</v>
       </c>
       <c r="E400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -8774,14 +8774,14 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D401">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E401">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="402">
@@ -8795,14 +8795,14 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D402">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E402">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403">
@@ -8816,14 +8816,14 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E403">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -8837,14 +8837,14 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D404">
         <v>2</v>
       </c>
       <c r="E404">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="405">
@@ -8858,14 +8858,14 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D405">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E405">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -8879,14 +8879,14 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D406">
         <v>0</v>
       </c>
       <c r="E406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D407">
@@ -8921,14 +8921,14 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D408">
         <v>1</v>
       </c>
       <c r="E408">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -8942,14 +8942,14 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D409">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E409">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="410">
@@ -8963,14 +8963,14 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D410">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E410">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411">
@@ -8984,14 +8984,14 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D411">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E411">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412">
@@ -9005,14 +9005,14 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D412">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E412">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="413">
@@ -9026,14 +9026,14 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D413">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E413">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D414">
@@ -9068,14 +9068,14 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -9089,14 +9089,14 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D416">
         <v>0</v>
       </c>
       <c r="E416">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417">
@@ -9110,14 +9110,14 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D417">
         <v>0</v>
       </c>
       <c r="E417">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -9131,14 +9131,14 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E418">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="419">
@@ -9152,14 +9152,14 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E419">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -9173,14 +9173,14 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D420">
         <v>0</v>
       </c>
       <c r="E420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -9194,14 +9194,14 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D421">
         <v>0</v>
       </c>
       <c r="E421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -9215,7 +9215,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D422">
@@ -9236,14 +9236,14 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D423">
         <v>0</v>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D424">
@@ -9278,14 +9278,14 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D425">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -9299,14 +9299,14 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D426">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D427">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D428">
@@ -9362,7 +9362,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D429">
@@ -9383,14 +9383,14 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D430">
         <v>0</v>
       </c>
       <c r="E430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -9404,11 +9404,11 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E431">
         <v>2</v>
@@ -9425,14 +9425,14 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E432">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -9446,14 +9446,14 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D433">
         <v>0</v>
       </c>
       <c r="E433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D434">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D435">
@@ -9509,14 +9509,14 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D436">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c r="E436">
-        <v>831</v>
+        <v>115</v>
       </c>
     </row>
     <row r="437">
@@ -9530,14 +9530,14 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D437">
-        <v>24</v>
+        <v>504</v>
       </c>
       <c r="E437">
-        <v>114</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="438">
@@ -9551,14 +9551,14 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D438">
-        <v>504</v>
+        <v>393</v>
       </c>
       <c r="E438">
-        <v>3010</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="439">
@@ -9572,14 +9572,14 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D439">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E439">
-        <v>2493</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="440">
@@ -9593,14 +9593,14 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D440">
-        <v>381</v>
+        <v>290</v>
       </c>
       <c r="E440">
-        <v>2350</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="441">
@@ -9614,14 +9614,14 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D441">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="E441">
-        <v>1833</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="442">
@@ -9635,14 +9635,14 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D442">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="E442">
-        <v>1471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="443">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D443">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D444">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D445">
@@ -9719,7 +9719,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D446">
@@ -9740,7 +9740,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D447">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D448">
@@ -9782,7 +9782,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D449">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D450">
@@ -9824,14 +9824,14 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D451">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E451">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="452">
@@ -9845,14 +9845,14 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D452">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E452">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="453">
@@ -9866,14 +9866,14 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D453">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E453">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="454">
@@ -9887,14 +9887,14 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D454">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E454">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="455">
@@ -9908,14 +9908,14 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D455">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E455">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="456">
@@ -9929,14 +9929,14 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D456">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E456">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D457">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D458">
@@ -9992,7 +9992,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D459">
@@ -10013,14 +10013,14 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D460">
         <v>0</v>
       </c>
       <c r="E460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -10034,14 +10034,14 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D461">
         <v>0</v>
       </c>
       <c r="E461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -10055,7 +10055,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D462">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D463">
@@ -10097,14 +10097,14 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E464">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -10118,14 +10118,14 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -10139,7 +10139,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D466">
@@ -10160,14 +10160,14 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D467">
         <v>0</v>
       </c>
       <c r="E467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -10181,14 +10181,14 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D468">
         <v>0</v>
       </c>
       <c r="E468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -10202,14 +10202,14 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470">
@@ -10223,14 +10223,14 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -10244,14 +10244,14 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D471">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E471">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472">
@@ -10265,14 +10265,14 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D472">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E472">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="473">
@@ -10286,14 +10286,14 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D473">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E473">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="474">
@@ -10307,14 +10307,14 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D474">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E474">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="475">
@@ -10328,14 +10328,14 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D475">
         <v>2</v>
       </c>
       <c r="E475">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="476">
@@ -10349,14 +10349,14 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D476">
         <v>2</v>
       </c>
       <c r="E476">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="477">
@@ -10370,14 +10370,14 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D477">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E477">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="478">
@@ -10391,7 +10391,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D478">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D479">
@@ -10433,14 +10433,14 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D480">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E480">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="481">
@@ -10454,14 +10454,14 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D481">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E481">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -10475,14 +10475,14 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D483">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -10538,14 +10538,14 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D485">
+        <v>0</v>
+      </c>
+      <c r="E485">
         <v>2</v>
-      </c>
-      <c r="E485">
-        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -10559,14 +10559,14 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D486">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E486">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="487">
@@ -10580,14 +10580,14 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D487">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E487">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="488">
@@ -10601,14 +10601,14 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D488">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E488">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="489">
@@ -10622,14 +10622,14 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D489">
         <v>0</v>
       </c>
       <c r="E489">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="490">
@@ -10643,14 +10643,14 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D490">
         <v>0</v>
       </c>
       <c r="E490">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="491">
@@ -10664,14 +10664,14 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D491">
         <v>0</v>
       </c>
       <c r="E491">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D492">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D493">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D494">
@@ -10748,14 +10748,14 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D495">
         <v>0</v>
       </c>
       <c r="E495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496">
@@ -10769,14 +10769,14 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D496">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E496">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -10790,14 +10790,14 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D497">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E497">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D498">
@@ -10832,7 +10832,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D499">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D500">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D501">
@@ -10895,7 +10895,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D502">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D503">
@@ -10937,14 +10937,14 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D504">
         <v>0</v>
       </c>
       <c r="E504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -10958,14 +10958,14 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D505">
         <v>0</v>
       </c>
       <c r="E505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D506">
@@ -11000,14 +11000,14 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D507">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E507">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="508">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D508">
@@ -11042,14 +11042,14 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D509">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E509">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510">
@@ -11063,14 +11063,14 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D510">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E510">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -11084,14 +11084,14 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D512">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D513">
@@ -11147,14 +11147,14 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -11168,14 +11168,14 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -11189,7 +11189,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D516">
@@ -11210,7 +11210,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D517">
@@ -11231,14 +11231,14 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D518">
         <v>0</v>
       </c>
       <c r="E518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519">
@@ -11252,14 +11252,14 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D519">
         <v>0</v>
       </c>
       <c r="E519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -11273,14 +11273,14 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D520">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -11294,14 +11294,14 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E521">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522">
@@ -11315,14 +11315,14 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D522">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -11336,14 +11336,14 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D523">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E523">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="524">
@@ -11357,14 +11357,14 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D524">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E524">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -11378,7 +11378,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D525">
@@ -11399,7 +11399,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D526">
@@ -11420,7 +11420,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D527">
@@ -11441,14 +11441,14 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D528">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529">
@@ -11462,14 +11462,14 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D529">
         <v>1</v>
       </c>
       <c r="E529">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -11483,14 +11483,14 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D530">
         <v>1</v>
       </c>
       <c r="E530">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531">
@@ -11504,14 +11504,14 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D531">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -11525,7 +11525,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D532">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D533">
@@ -11567,14 +11567,14 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -11588,14 +11588,14 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D535">
         <v>0</v>
       </c>
       <c r="E535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536">
@@ -11609,14 +11609,14 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D536">
         <v>0</v>
       </c>
       <c r="E536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -11630,14 +11630,14 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D537">
         <v>0</v>
       </c>
       <c r="E537">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="538">
@@ -11651,14 +11651,14 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D538">
         <v>0</v>
       </c>
       <c r="E538">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -11672,14 +11672,14 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D539">
         <v>0</v>
       </c>
       <c r="E539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D540">
@@ -11714,14 +11714,14 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E541">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -11735,14 +11735,14 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D542">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E542">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="543">
@@ -11756,14 +11756,14 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D543">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E543">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="544">
@@ -11777,14 +11777,14 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D544">
         <v>4</v>
       </c>
       <c r="E544">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="545">
@@ -11798,14 +11798,14 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D545">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E545">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546">
@@ -11819,14 +11819,14 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D546">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D547">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D548">
@@ -11882,7 +11882,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D549">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D550">
@@ -11924,7 +11924,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D551">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D552">
@@ -11966,7 +11966,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D553">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D554">
@@ -12008,7 +12008,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D555">
@@ -12029,7 +12029,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D556">
@@ -12050,7 +12050,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D557">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D558">
@@ -12092,14 +12092,14 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D559">
         <v>0</v>
       </c>
       <c r="E559">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="560">
@@ -12113,14 +12113,14 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D560">
         <v>0</v>
       </c>
       <c r="E560">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -12134,14 +12134,14 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D561">
         <v>0</v>
       </c>
       <c r="E561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -12155,11 +12155,11 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D562">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E562">
         <v>1</v>
@@ -12176,14 +12176,14 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D563">
         <v>0</v>
       </c>
       <c r="E563">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564">
@@ -12197,14 +12197,14 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D564">
         <v>0</v>
       </c>
       <c r="E564">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -12218,11 +12218,11 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D565">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E565">
         <v>1</v>
@@ -12239,14 +12239,14 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D566">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -12260,7 +12260,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D567">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D568">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D569">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D570">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D571">
@@ -12365,7 +12365,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D572">
@@ -12386,7 +12386,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D573">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D574">
@@ -12428,7 +12428,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D575">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D576">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E576">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577">
@@ -12470,14 +12470,14 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D577">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E577">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="578">
@@ -12491,14 +12491,14 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D578">
         <v>3</v>
       </c>
       <c r="E578">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="579">
@@ -12512,14 +12512,14 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D579">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E579">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="580">
@@ -12533,14 +12533,14 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D580">
         <v>0</v>
       </c>
       <c r="E580">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="581">
@@ -12554,14 +12554,14 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D581">
         <v>0</v>
       </c>
       <c r="E581">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -12575,14 +12575,14 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D582">
         <v>0</v>
       </c>
       <c r="E582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -12596,14 +12596,14 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>15/10/2023</t>
         </is>
       </c>
       <c r="D583">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E583">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="584">
@@ -12617,14 +12617,14 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>15/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="D584">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E584">
-        <v>38</v>
+        <v>137</v>
       </c>
     </row>
     <row r="585">
@@ -12638,14 +12638,14 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="D585">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E585">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="586">
@@ -12659,14 +12659,14 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="D586">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E586">
-        <v>116</v>
+        <v>145</v>
       </c>
     </row>
     <row r="587">
@@ -12680,14 +12680,14 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="D587">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E587">
-        <v>143</v>
+        <v>169</v>
       </c>
     </row>
     <row r="588">
@@ -12701,14 +12701,14 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="D588">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E588">
-        <v>164</v>
+        <v>131</v>
       </c>
     </row>
     <row r="589">
@@ -12722,14 +12722,14 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>21/10/2023</t>
         </is>
       </c>
       <c r="D589">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E589">
-        <v>123</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/inst/planilha_esus.xlsx
+++ b/inst/planilha_esus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E554"/>
+  <dimension ref="A1:E561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,14 +395,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -416,14 +416,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -437,14 +437,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -458,14 +458,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -479,14 +479,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -500,14 +500,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -521,14 +521,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -542,7 +542,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D9">
@@ -563,14 +563,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -584,14 +584,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -605,14 +605,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -626,14 +626,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -647,14 +647,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -668,14 +668,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -689,14 +689,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -710,14 +710,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -731,14 +731,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -752,14 +752,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -773,7 +773,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D20">
@@ -794,14 +794,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -815,7 +815,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D22">
@@ -836,14 +836,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -857,14 +857,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D25">
@@ -899,7 +899,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D26">
@@ -920,14 +920,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -941,14 +941,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -962,7 +962,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D29">
@@ -983,14 +983,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1004,14 +1004,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1025,14 +1025,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1046,11 +1046,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>7</v>
@@ -1067,14 +1067,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1088,14 +1088,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D36">
@@ -1130,14 +1130,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1151,14 +1151,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1193,14 +1193,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1214,14 +1214,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1235,14 +1235,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1277,14 +1277,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1298,14 +1298,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -1319,14 +1319,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D48">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -1403,14 +1403,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1424,14 +1424,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -1487,14 +1487,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D55">
@@ -1529,14 +1529,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D57">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D58">
@@ -1592,14 +1592,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1613,14 +1613,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D61">
@@ -1655,14 +1655,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1676,14 +1676,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D64">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D65">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D66">
@@ -1760,14 +1760,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -1781,14 +1781,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1802,14 +1802,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -1823,14 +1823,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1844,14 +1844,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D72">
@@ -1886,14 +1886,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74">
@@ -1907,14 +1907,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1949,14 +1949,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D77">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D78">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D79">
@@ -2033,14 +2033,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -2054,14 +2054,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -2075,14 +2075,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E82">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -2096,11 +2096,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -2117,14 +2117,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -2138,14 +2138,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D86">
@@ -2180,14 +2180,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2201,14 +2201,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -2222,14 +2222,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2243,14 +2243,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -2264,14 +2264,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
@@ -2285,14 +2285,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D92">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D93">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D94">
@@ -2348,14 +2348,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2369,14 +2369,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -2390,14 +2390,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -2411,14 +2411,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D99">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D101">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -2516,14 +2516,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2537,14 +2537,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -2558,14 +2558,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -2579,14 +2579,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2600,14 +2600,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2621,14 +2621,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -2642,14 +2642,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D110">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D112">
@@ -2726,14 +2726,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D114">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D115">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D116">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D117">
@@ -2831,14 +2831,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -2852,14 +2852,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -2873,14 +2873,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2894,14 +2894,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -2915,14 +2915,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D123">
@@ -2957,14 +2957,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E124">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
@@ -2978,14 +2978,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
@@ -2999,14 +2999,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3020,14 +3020,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3041,14 +3041,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3062,14 +3062,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D130">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D131">
@@ -3125,14 +3125,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D133">
@@ -3167,14 +3167,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D135">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D136">
@@ -3230,14 +3230,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D139">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D140">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D141">
@@ -3335,14 +3335,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3356,14 +3356,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
@@ -3377,14 +3377,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145">
@@ -3398,14 +3398,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
@@ -3419,14 +3419,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D146">
         <v>1</v>
       </c>
       <c r="E146">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148">
@@ -3461,14 +3461,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D149">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D150">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D151">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D152">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D153">
@@ -3587,14 +3587,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3608,14 +3608,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3650,14 +3650,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -3671,14 +3671,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -3692,14 +3692,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -3713,14 +3713,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D161">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D162">
@@ -3776,14 +3776,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -3797,14 +3797,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E165">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166">
@@ -3839,14 +3839,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -3860,14 +3860,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -3881,14 +3881,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D169">
@@ -3923,14 +3923,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171">
@@ -3944,14 +3944,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172">
@@ -3965,14 +3965,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -3986,14 +3986,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D174">
@@ -4028,14 +4028,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D176">
@@ -4070,14 +4070,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D178">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D179">
@@ -4133,14 +4133,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D181">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D182">
@@ -4196,14 +4196,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D184">
@@ -4238,14 +4238,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -4259,14 +4259,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -4280,14 +4280,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D188">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D189">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D190">
@@ -4364,14 +4364,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -4385,14 +4385,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193">
@@ -4406,14 +4406,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D193">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -4427,14 +4427,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195">
@@ -4448,14 +4448,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -4469,14 +4469,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -4490,14 +4490,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -4511,14 +4511,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -4532,14 +4532,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200">
@@ -4553,14 +4553,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E200">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
@@ -4574,14 +4574,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -4595,14 +4595,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D203">
@@ -4637,14 +4637,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -4658,14 +4658,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E205">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D206">
@@ -4700,14 +4700,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -4742,14 +4742,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -4763,14 +4763,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D211">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D212">
@@ -4826,14 +4826,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -4847,14 +4847,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -4868,14 +4868,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -4889,14 +4889,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -4910,14 +4910,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -4931,14 +4931,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D219">
@@ -4973,14 +4973,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -4994,14 +4994,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E221">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -5015,14 +5015,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -5036,14 +5036,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -5057,14 +5057,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -5078,14 +5078,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D226">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D227">
@@ -5141,14 +5141,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -5162,14 +5162,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D230">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D231">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D232">
@@ -5246,14 +5246,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
       <c r="E233">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
@@ -5267,14 +5267,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D234">
         <v>0</v>
       </c>
       <c r="E234">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -5288,14 +5288,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236">
@@ -5309,14 +5309,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E236">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237">
@@ -5330,14 +5330,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -5351,14 +5351,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -5372,14 +5372,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D240">
@@ -5414,14 +5414,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -5435,14 +5435,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -5456,14 +5456,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D243">
         <v>0</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D244">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D245">
@@ -5519,14 +5519,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D246">
         <v>0</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -5540,14 +5540,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E247">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248">
@@ -5561,14 +5561,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D248">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E248">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="249">
@@ -5582,14 +5582,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D249">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E249">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="250">
@@ -5603,14 +5603,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D250">
         <v>1</v>
       </c>
       <c r="E250">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="251">
@@ -5624,14 +5624,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E251">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="252">
@@ -5645,14 +5645,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E252">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253">
@@ -5666,14 +5666,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E253">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D254">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D255">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D256">
@@ -5750,14 +5750,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -5771,14 +5771,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D258">
         <v>0</v>
       </c>
       <c r="E258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D259">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D260">
@@ -5834,14 +5834,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E261">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -5855,14 +5855,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E262">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263">
@@ -5876,14 +5876,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D263">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E263">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -5897,14 +5897,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D264">
         <v>1</v>
       </c>
       <c r="E264">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265">
@@ -5918,14 +5918,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E265">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -5939,14 +5939,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267">
@@ -5960,14 +5960,14 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D267">
         <v>0</v>
       </c>
       <c r="E267">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D268">
@@ -6002,14 +6002,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D269">
         <v>0</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -6023,14 +6023,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D270">
         <v>0</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D271">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D272">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D273">
@@ -6107,14 +6107,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D275">
@@ -6149,14 +6149,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D277">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D278">
@@ -6212,14 +6212,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D280">
@@ -6254,14 +6254,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D281">
         <v>0</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -6275,14 +6275,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D283">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D284">
@@ -6338,14 +6338,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E285">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -6359,14 +6359,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -6380,14 +6380,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D287">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D288">
@@ -6422,11 +6422,11 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -6443,14 +6443,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E290">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291">
@@ -6464,14 +6464,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E291">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -6485,14 +6485,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293">
@@ -6506,14 +6506,14 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E293">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D294">
@@ -6548,14 +6548,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D295">
         <v>0</v>
       </c>
       <c r="E295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -6569,14 +6569,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D296">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E296">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D297">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E297">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="298">
@@ -6611,14 +6611,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D298">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E298">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="299">
@@ -6632,14 +6632,14 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D299">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E299">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="300">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D300">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E300">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="301">
@@ -6674,14 +6674,14 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D301">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E301">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="302">
@@ -6695,14 +6695,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E302">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -6716,14 +6716,14 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D303">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E303">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -6737,14 +6737,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305">
@@ -6758,14 +6758,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E305">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306">
@@ -6779,11 +6779,11 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D306">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E306">
         <v>11</v>
@@ -6800,14 +6800,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D307">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E307">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308">
@@ -6821,14 +6821,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E308">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309">
@@ -6842,14 +6842,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D309">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E309">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -6863,14 +6863,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D310">
         <v>0</v>
       </c>
       <c r="E310">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -6884,14 +6884,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E311">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="312">
@@ -6905,14 +6905,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D312">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E312">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313">
@@ -6926,14 +6926,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D313">
         <v>2</v>
       </c>
       <c r="E313">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314">
@@ -6947,14 +6947,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E314">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="315">
@@ -6968,14 +6968,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E315">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -6989,14 +6989,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D316">
         <v>0</v>
       </c>
       <c r="E316">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -7010,14 +7010,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D317">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E317">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -7031,14 +7031,14 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E318">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="319">
@@ -7052,14 +7052,14 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D319">
         <v>1</v>
       </c>
       <c r="E319">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320">
@@ -7073,14 +7073,14 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D320">
         <v>1</v>
       </c>
       <c r="E320">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -7094,14 +7094,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D321">
         <v>1</v>
       </c>
       <c r="E321">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322">
@@ -7115,14 +7115,14 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E322">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -7136,14 +7136,14 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D323">
         <v>0</v>
       </c>
       <c r="E323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D324">
@@ -7178,14 +7178,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D325">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D326">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E326">
         <v>11</v>
@@ -7220,14 +7220,14 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D327">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E327">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328">
@@ -7241,14 +7241,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D328">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E328">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329">
@@ -7262,14 +7262,14 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D329">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E329">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D330">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D331">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D332">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D333">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D334">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D335">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D336">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D337">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D338">
@@ -7472,14 +7472,14 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D339">
         <v>0</v>
       </c>
       <c r="E339">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340">
@@ -7493,14 +7493,14 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D340">
         <v>0</v>
       </c>
       <c r="E340">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341">
@@ -7514,14 +7514,14 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D341">
         <v>0</v>
       </c>
       <c r="E341">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -7535,14 +7535,14 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D342">
         <v>0</v>
       </c>
       <c r="E342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D343">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D344">
@@ -7598,14 +7598,14 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D345">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E345">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="346">
@@ -7619,14 +7619,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D346">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E346">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="347">
@@ -7640,14 +7640,14 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D347">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E347">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="348">
@@ -7661,14 +7661,14 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D348">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E348">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="349">
@@ -7682,14 +7682,14 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D349">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E349">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="350">
@@ -7703,14 +7703,14 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D350">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E350">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="351">
@@ -7724,14 +7724,14 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D351">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E351">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="352">
@@ -7745,14 +7745,14 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -7766,14 +7766,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D353">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E353">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="354">
@@ -7787,14 +7787,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D354">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E354">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="355">
@@ -7808,14 +7808,14 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D355">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E355">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="356">
@@ -7829,14 +7829,14 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D356">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E356">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -7850,11 +7850,11 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D357">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E357">
         <v>2</v>
@@ -7871,14 +7871,14 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -7892,14 +7892,14 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D359">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E359">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -7913,14 +7913,14 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D360">
         <v>0</v>
       </c>
       <c r="E360">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361">
@@ -7934,14 +7934,14 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D361">
         <v>0</v>
       </c>
       <c r="E361">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -7955,14 +7955,14 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D362">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E362">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363">
@@ -7976,14 +7976,14 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
         <v>2</v>
-      </c>
-      <c r="E363">
-        <v>4</v>
       </c>
     </row>
     <row r="364">
@@ -7997,14 +7997,14 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D364">
         <v>0</v>
       </c>
       <c r="E364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -8018,14 +8018,14 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E365">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366">
@@ -8039,14 +8039,14 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -8060,14 +8060,14 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D367">
         <v>0</v>
       </c>
       <c r="E367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368">
@@ -8081,11 +8081,11 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E368">
         <v>2</v>
@@ -8102,14 +8102,14 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D369">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D370">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D371">
@@ -8165,7 +8165,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D372">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D373">
@@ -8207,14 +8207,14 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D374">
         <v>0</v>
       </c>
       <c r="E374">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375">
@@ -8228,14 +8228,14 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D375">
         <v>0</v>
       </c>
       <c r="E375">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376">
@@ -8249,14 +8249,14 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E376">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377">
@@ -8270,14 +8270,14 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E377">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -8291,14 +8291,14 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D378">
         <v>0</v>
       </c>
       <c r="E378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -8312,14 +8312,14 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D379">
         <v>0</v>
       </c>
       <c r="E379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -8333,14 +8333,14 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D380">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E380">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="381">
@@ -8354,14 +8354,14 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D381">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E381">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="382">
@@ -8375,14 +8375,14 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D382">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E382">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="383">
@@ -8396,14 +8396,14 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D383">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E383">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="384">
@@ -8417,14 +8417,14 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D384">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E384">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385">
@@ -8438,14 +8438,14 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D385">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E385">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D386">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D387">
@@ -8501,14 +8501,14 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D388">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389">
@@ -8522,14 +8522,14 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D389">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E389">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="390">
@@ -8543,14 +8543,14 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D390">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E390">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
@@ -8564,14 +8564,14 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E391">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D392">
         <v>0</v>
       </c>
       <c r="E392">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -8606,14 +8606,14 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D393">
         <v>0</v>
       </c>
       <c r="E393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -8627,14 +8627,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D394">
         <v>0</v>
       </c>
       <c r="E394">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -8648,14 +8648,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E395">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="396">
@@ -8669,14 +8669,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E396">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D397">
@@ -8711,14 +8711,14 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D398">
         <v>0</v>
       </c>
       <c r="E398">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="399">
@@ -8732,14 +8732,14 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E399">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -8753,14 +8753,14 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -8774,14 +8774,14 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D401">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E401">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -8795,14 +8795,14 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D402">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E402">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -8816,14 +8816,14 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D403">
         <v>0</v>
       </c>
       <c r="E403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -8837,11 +8837,11 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E404">
         <v>1</v>
@@ -8858,11 +8858,11 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E405">
         <v>1</v>
@@ -8879,14 +8879,14 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D406">
         <v>0</v>
       </c>
       <c r="E406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -8900,14 +8900,14 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -8921,14 +8921,14 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D409">
@@ -8963,14 +8963,14 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -8984,14 +8984,14 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -9005,14 +9005,14 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E412">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -9026,14 +9026,14 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E413">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D414">
@@ -9068,14 +9068,14 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D415">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="E415">
-        <v>681</v>
+        <v>94</v>
       </c>
     </row>
     <row r="416">
@@ -9089,14 +9089,14 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D416">
-        <v>24</v>
+        <v>307</v>
       </c>
       <c r="E416">
-        <v>94</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="417">
@@ -9110,14 +9110,14 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D417">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="E417">
-        <v>2640</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="418">
@@ -9131,14 +9131,14 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D418">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="E418">
-        <v>2125</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="419">
@@ -9152,14 +9152,14 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D419">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="E419">
-        <v>2161</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="420">
@@ -9173,14 +9173,14 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D420">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="E420">
-        <v>1648</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="421">
@@ -9194,14 +9194,14 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D421">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="E421">
-        <v>1326</v>
+        <v>356</v>
       </c>
     </row>
     <row r="422">
@@ -9215,7 +9215,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D422">
@@ -9236,14 +9236,14 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D423">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -9257,14 +9257,14 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D424">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E424">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425">
@@ -9278,14 +9278,14 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D425">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E425">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -9299,11 +9299,11 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E426">
         <v>1</v>
@@ -9320,14 +9320,14 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D428">
@@ -9362,7 +9362,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D429">
@@ -9383,14 +9383,14 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D430">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D431">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D432">
@@ -9446,14 +9446,14 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D434">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D435">
@@ -9509,7 +9509,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D436">
@@ -9530,14 +9530,14 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D437">
         <v>0</v>
       </c>
       <c r="E437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -9551,11 +9551,11 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D438">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E438">
         <v>1</v>
@@ -9572,14 +9572,14 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D439">
         <v>1</v>
       </c>
       <c r="E439">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440">
@@ -9593,11 +9593,11 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E440">
         <v>2</v>
@@ -9614,14 +9614,14 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D441">
         <v>0</v>
       </c>
       <c r="E441">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -9635,14 +9635,14 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D442">
         <v>0</v>
       </c>
       <c r="E442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -9656,14 +9656,14 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E443">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="444">
@@ -9677,14 +9677,14 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D444">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E444">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="445">
@@ -9698,14 +9698,14 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D445">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E445">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="446">
@@ -9719,14 +9719,14 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D446">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E446">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="447">
@@ -9740,14 +9740,14 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E447">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="448">
@@ -9761,14 +9761,14 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E448">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="449">
@@ -9782,14 +9782,14 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E449">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="450">
@@ -9803,14 +9803,14 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D450">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E450">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -9824,14 +9824,14 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D451">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E451">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="452">
@@ -9845,11 +9845,11 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D452">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E452">
         <v>9</v>
@@ -9866,14 +9866,14 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D453">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E453">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="454">
@@ -9887,14 +9887,14 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D454">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E454">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455">
@@ -9908,14 +9908,14 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D455">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -9929,14 +9929,14 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D456">
         <v>0</v>
       </c>
       <c r="E456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -9950,14 +9950,14 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -9971,14 +9971,14 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D458">
         <v>1</v>
       </c>
       <c r="E458">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="459">
@@ -9992,14 +9992,14 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E459">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="460">
@@ -10013,14 +10013,14 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E460">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="461">
@@ -10034,14 +10034,14 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D461">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E461">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="462">
@@ -10055,14 +10055,14 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D462">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E462">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="463">
@@ -10076,14 +10076,14 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D463">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E463">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D464">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D465">
@@ -10139,7 +10139,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D466">
@@ -10160,14 +10160,14 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D467">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E467">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="468">
@@ -10181,14 +10181,14 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D468">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E468">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -10202,7 +10202,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D469">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D470">
@@ -10244,7 +10244,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D471">
@@ -10265,14 +10265,14 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -10286,14 +10286,14 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D473">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D474">
@@ -10328,14 +10328,14 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D475">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476">
@@ -10349,14 +10349,14 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D476">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E476">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="477">
@@ -10370,14 +10370,14 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D477">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E477">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -10391,14 +10391,14 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -10412,14 +10412,14 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D479">
         <v>0</v>
       </c>
       <c r="E479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -10433,11 +10433,11 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D480">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E480">
         <v>1</v>
@@ -10454,14 +10454,14 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D482">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D483">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D484">
@@ -10538,14 +10538,14 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D485">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E485">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -10559,14 +10559,14 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D486">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E486">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="487">
@@ -10580,14 +10580,14 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D487">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E487">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="488">
@@ -10601,14 +10601,14 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D488">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E488">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="489">
@@ -10622,14 +10622,14 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D489">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E489">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D490">
@@ -10664,14 +10664,14 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D491">
         <v>0</v>
       </c>
       <c r="E491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D492">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D493">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D494">
@@ -10748,14 +10748,14 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -10769,14 +10769,14 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -10790,14 +10790,14 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D497">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498">
@@ -10811,14 +10811,14 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D498">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -10832,7 +10832,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D499">
@@ -10853,14 +10853,14 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D500">
         <v>0</v>
       </c>
       <c r="E500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D501">
@@ -10895,7 +10895,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D502">
@@ -10916,14 +10916,14 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D503">
         <v>0</v>
       </c>
       <c r="E503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D504">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D505">
@@ -10971,36 +10971,36 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B506">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D506">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B507">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D507">
@@ -11013,57 +11013,57 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B508">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D508">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B509">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B510">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D510">
@@ -11076,15 +11076,15 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B511">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D511">
@@ -11097,36 +11097,36 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B512">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D512">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B513">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D513">
@@ -11139,40 +11139,40 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B514">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D514">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B515">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E515">
         <v>1</v>
@@ -11181,15 +11181,15 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B516">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D516">
@@ -11202,15 +11202,15 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B517">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D517">
@@ -11223,15 +11223,15 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B518">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D518">
@@ -11244,15 +11244,15 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B519">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D519">
@@ -11265,15 +11265,15 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B520">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D520">
@@ -11286,19 +11286,19 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B521">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E521">
         <v>1</v>
@@ -11307,36 +11307,36 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B522">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D522">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B523">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D523">
@@ -11349,57 +11349,57 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B524">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D524">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B525">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D525">
         <v>0</v>
       </c>
       <c r="E525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B526">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D526">
@@ -11412,120 +11412,120 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B527">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B528">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D528">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B529">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B530">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D530">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B531">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D531">
         <v>0</v>
       </c>
       <c r="E531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B532">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D532">
@@ -11538,15 +11538,15 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B533">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D533">
@@ -11559,78 +11559,78 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B534">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D534">
         <v>0</v>
       </c>
       <c r="E534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B535">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B536">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D536">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E536">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B537">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D537">
@@ -11643,15 +11643,15 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B538">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D538">
@@ -11664,337 +11664,484 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B539">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D539">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E539">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B540">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D540">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E540">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B541">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B542">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D542">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E542">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B543">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D543">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E543">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B544">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D544">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E544">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B545">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D545">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E545">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B546">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D546">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E546">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B547">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D547">
         <v>0</v>
       </c>
       <c r="E547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B548">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>04/11/2023</t>
+          <t>05/11/2023</t>
         </is>
       </c>
       <c r="D548">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E548">
-        <v>119</v>
+        <v>4</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B549">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D549">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E549">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B550">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D550">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="E550">
-        <v>213</v>
+        <v>4</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B551">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D551">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E551">
-        <v>188</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B552">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D552">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E552">
-        <v>158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B553">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D553">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E553">
-        <v>148</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
+          <t>Vassouras</t>
+        </is>
+      </c>
+      <c r="B554">
+        <v>330620</v>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="D554">
+        <v>0</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
           <t>Volta Redonda</t>
         </is>
       </c>
-      <c r="B554">
+      <c r="B555">
         <v>330630</v>
       </c>
-      <c r="C554" t="inlineStr">
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>05/11/2023</t>
+        </is>
+      </c>
+      <c r="D555">
+        <v>17</v>
+      </c>
+      <c r="E555">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B556">
+        <v>330630</v>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>06/11/2023</t>
+        </is>
+      </c>
+      <c r="D556">
+        <v>62</v>
+      </c>
+      <c r="E556">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B557">
+        <v>330630</v>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>07/11/2023</t>
+        </is>
+      </c>
+      <c r="D557">
+        <v>35</v>
+      </c>
+      <c r="E557">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B558">
+        <v>330630</v>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>08/11/2023</t>
+        </is>
+      </c>
+      <c r="D558">
+        <v>34</v>
+      </c>
+      <c r="E558">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B559">
+        <v>330630</v>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="D559">
+        <v>28</v>
+      </c>
+      <c r="E559">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B560">
+        <v>330630</v>
+      </c>
+      <c r="C560" t="inlineStr">
         <is>
           <t>10/11/2023</t>
         </is>
       </c>
-      <c r="D554">
+      <c r="D560">
         <v>23</v>
       </c>
-      <c r="E554">
-        <v>114</v>
+      <c r="E560">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B561">
+        <v>330630</v>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="D561">
+        <v>8</v>
+      </c>
+      <c r="E561">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/inst/planilha_esus.xlsx
+++ b/inst/planilha_esus.xlsx
@@ -395,14 +395,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -416,14 +416,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -437,14 +437,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -458,14 +458,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -479,14 +479,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -500,14 +500,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -521,14 +521,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -542,14 +542,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -563,14 +563,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -584,14 +584,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -605,14 +605,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -626,14 +626,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -647,14 +647,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -668,14 +668,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -689,14 +689,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -710,14 +710,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -731,14 +731,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D19">
@@ -773,14 +773,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -794,7 +794,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D21">
@@ -815,7 +815,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D22">
@@ -836,14 +836,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -857,7 +857,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D24">
@@ -878,7 +878,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D25">
@@ -899,14 +899,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -920,14 +920,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -941,7 +941,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D28">
@@ -962,7 +962,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D29">
@@ -983,14 +983,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1004,14 +1004,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1025,11 +1025,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>7</v>
@@ -1046,11 +1046,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>7</v>
@@ -1067,14 +1067,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>2</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D35">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D36">
@@ -1130,14 +1130,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -1151,14 +1151,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1193,14 +1193,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1214,14 +1214,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1235,14 +1235,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -1277,14 +1277,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -1298,14 +1298,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -1319,14 +1319,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D47">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D50">
@@ -1424,14 +1424,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D54">
@@ -1508,14 +1508,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D56">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D57">
@@ -1571,14 +1571,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -1592,14 +1592,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D60">
@@ -1634,14 +1634,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1655,14 +1655,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D63">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D64">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D65">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -1760,14 +1760,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1781,14 +1781,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -1802,14 +1802,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1823,14 +1823,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1844,14 +1844,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1865,14 +1865,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73">
@@ -1886,14 +1886,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E73">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -1907,14 +1907,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1949,14 +1949,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D77">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D78">
@@ -2012,14 +2012,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -2033,14 +2033,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -2054,14 +2054,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -2075,11 +2075,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <v>3</v>
@@ -2096,14 +2096,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D85">
@@ -2159,14 +2159,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2180,14 +2180,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -2201,14 +2201,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2222,14 +2222,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -2243,14 +2243,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -2264,14 +2264,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D91">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2285,14 +2285,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2327,14 +2327,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -2348,14 +2348,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -2369,14 +2369,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
       <c r="E96">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2390,11 +2390,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D98">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D99">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -2474,14 +2474,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2516,14 +2516,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -2537,14 +2537,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2558,14 +2558,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D106">
@@ -2600,14 +2600,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -2621,14 +2621,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D109">
@@ -2663,14 +2663,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D111">
@@ -2705,14 +2705,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2726,14 +2726,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D114">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D115">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D116">
@@ -2810,14 +2810,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -2831,14 +2831,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2852,14 +2852,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D120">
@@ -2894,14 +2894,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D122">
@@ -2936,14 +2936,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E123">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -2957,14 +2957,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -2978,14 +2978,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -2999,14 +2999,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D127">
@@ -3041,14 +3041,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D129">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D130">
@@ -3104,14 +3104,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D132">
@@ -3146,14 +3146,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D134">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D135">
@@ -3209,14 +3209,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3230,14 +3230,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D138">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D139">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D140">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D141">
@@ -3335,14 +3335,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
@@ -3356,14 +3356,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
@@ -3377,14 +3377,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145">
@@ -3398,14 +3398,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D145">
         <v>1</v>
       </c>
       <c r="E145">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146">
@@ -3419,14 +3419,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -3461,14 +3461,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D149">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D150">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D151">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D152">
@@ -3566,14 +3566,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -3587,14 +3587,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D155">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -3650,14 +3650,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -3671,14 +3671,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -3692,14 +3692,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D160">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D161">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D162">
@@ -3776,14 +3776,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
@@ -3797,14 +3797,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E164">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -3839,14 +3839,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167">
@@ -3860,14 +3860,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
         <v>2</v>
-      </c>
-      <c r="E167">
-        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -3881,14 +3881,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -3902,14 +3902,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170">
@@ -3923,14 +3923,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171">
@@ -3944,14 +3944,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -3965,14 +3965,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D173">
@@ -4007,14 +4007,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D175">
@@ -4049,14 +4049,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D177">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D178">
@@ -4112,14 +4112,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -4133,14 +4133,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D181">
@@ -4175,14 +4175,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D183">
@@ -4217,14 +4217,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -4238,14 +4238,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -4259,14 +4259,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D187">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D188">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D189">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D190">
@@ -4364,14 +4364,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192">
@@ -4385,14 +4385,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D192">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -4406,14 +4406,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194">
@@ -4427,14 +4427,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -4448,14 +4448,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -4469,14 +4469,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D197">
@@ -4511,14 +4511,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199">
@@ -4532,14 +4532,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E199">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
@@ -4553,14 +4553,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -4574,14 +4574,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D202">
@@ -4616,14 +4616,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E203">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D204">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D205">
@@ -4679,14 +4679,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -4700,14 +4700,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209">
@@ -4742,14 +4742,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D210">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D211">
@@ -4805,14 +4805,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -4826,14 +4826,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -4847,14 +4847,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -4868,14 +4868,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -4889,14 +4889,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -4910,14 +4910,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D218">
@@ -4952,14 +4952,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -4973,14 +4973,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E220">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -4994,14 +4994,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -5015,14 +5015,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -5036,14 +5036,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -5057,14 +5057,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D225">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D226">
@@ -5120,14 +5120,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -5141,14 +5141,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D229">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D230">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D231">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D232">
@@ -5246,14 +5246,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
       <c r="E233">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
@@ -5267,14 +5267,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235">
@@ -5288,14 +5288,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E235">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236">
@@ -5309,14 +5309,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237">
@@ -5330,14 +5330,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -5351,14 +5351,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D239">
@@ -5393,14 +5393,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -5414,14 +5414,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -5435,14 +5435,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D243">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D244">
@@ -5498,14 +5498,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D246">
@@ -5540,14 +5540,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E247">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="248">
@@ -5561,14 +5561,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D248">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E248">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="249">
@@ -5582,14 +5582,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D249">
         <v>1</v>
       </c>
       <c r="E249">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="250">
@@ -5603,14 +5603,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E250">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="251">
@@ -5624,14 +5624,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E251">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="252">
@@ -5645,14 +5645,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E252">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253">
@@ -5666,14 +5666,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E253">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D254">
@@ -5708,14 +5708,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256">
@@ -5729,14 +5729,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -5750,14 +5750,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D258">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D259">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D260">
@@ -5834,14 +5834,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E261">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262">
@@ -5855,14 +5855,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D262">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E262">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -5876,14 +5876,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D263">
         <v>1</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264">
@@ -5897,14 +5897,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E264">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -5918,14 +5918,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -5939,14 +5939,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -5960,14 +5960,14 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D267">
         <v>0</v>
       </c>
       <c r="E267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -5981,14 +5981,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D268">
         <v>0</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -6002,14 +6002,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D269">
         <v>0</v>
       </c>
       <c r="E269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D270">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D271">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D272">
@@ -6086,14 +6086,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D273">
         <v>0</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -6107,14 +6107,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -6128,14 +6128,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D276">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D277">
@@ -6191,14 +6191,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D279">
@@ -6233,14 +6233,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D280">
         <v>0</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -6254,14 +6254,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D281">
         <v>0</v>
       </c>
       <c r="E281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D282">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D283">
@@ -6317,14 +6317,14 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E284">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -6338,14 +6338,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E285">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -6359,14 +6359,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D286">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D287">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D288">
@@ -6422,14 +6422,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E289">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290">
@@ -6443,14 +6443,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E290">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -6464,14 +6464,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E291">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292">
@@ -6485,14 +6485,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E292">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D293">
@@ -6527,14 +6527,14 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D294">
         <v>0</v>
       </c>
       <c r="E294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D295">
@@ -6569,14 +6569,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E296">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="297">
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D297">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E297">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="298">
@@ -6611,14 +6611,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D298">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E298">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="299">
@@ -6632,14 +6632,14 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D299">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E299">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="300">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D300">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E300">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="301">
@@ -6674,14 +6674,14 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E301">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -6695,14 +6695,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D302">
         <v>0</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -6716,14 +6716,14 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304">
@@ -6737,14 +6737,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E304">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305">
@@ -6758,11 +6758,11 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D305">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E305">
         <v>11</v>
@@ -6779,14 +6779,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D306">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E306">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -6800,14 +6800,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E307">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308">
@@ -6821,14 +6821,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E308">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -6842,14 +6842,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D309">
         <v>0</v>
       </c>
       <c r="E309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -6863,14 +6863,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D310">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E310">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="311">
@@ -6884,14 +6884,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D311">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E311">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312">
@@ -6905,14 +6905,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D312">
         <v>2</v>
       </c>
       <c r="E312">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313">
@@ -6926,14 +6926,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E313">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314">
@@ -6947,14 +6947,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E314">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -6968,14 +6968,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D315">
         <v>0</v>
       </c>
       <c r="E315">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -6989,14 +6989,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E316">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -7010,14 +7010,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E317">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318">
@@ -7031,14 +7031,14 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D318">
         <v>1</v>
       </c>
       <c r="E318">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319">
@@ -7052,14 +7052,14 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D319">
         <v>1</v>
       </c>
       <c r="E319">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -7073,14 +7073,14 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D320">
         <v>1</v>
       </c>
       <c r="E320">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321">
@@ -7094,14 +7094,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E321">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -7115,14 +7115,14 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D322">
         <v>0</v>
       </c>
       <c r="E322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D323">
@@ -7157,14 +7157,14 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D324">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E324">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325">
@@ -7178,11 +7178,11 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D325">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E325">
         <v>11</v>
@@ -7199,14 +7199,14 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D326">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E326">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327">
@@ -7220,14 +7220,14 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D327">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E327">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328">
@@ -7241,14 +7241,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D328">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E328">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D329">
@@ -7283,14 +7283,14 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D331">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D332">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D333">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D334">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D335">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D336">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D337">
@@ -7451,14 +7451,14 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D338">
         <v>0</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339">
@@ -7472,14 +7472,14 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D339">
         <v>0</v>
       </c>
       <c r="E339">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340">
@@ -7493,14 +7493,14 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D340">
         <v>0</v>
       </c>
       <c r="E340">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -7514,14 +7514,14 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D341">
         <v>0</v>
       </c>
       <c r="E341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D342">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D343">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D344">
@@ -7598,14 +7598,14 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D345">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E345">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="346">
@@ -7619,14 +7619,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D346">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E346">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="347">
@@ -7640,14 +7640,14 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D347">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E347">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="348">
@@ -7661,14 +7661,14 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D348">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E348">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="349">
@@ -7682,14 +7682,14 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D349">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E349">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="350">
@@ -7703,14 +7703,14 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D350">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E350">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="351">
@@ -7724,14 +7724,14 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D351">
         <v>2</v>
       </c>
       <c r="E351">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="352">
@@ -7745,14 +7745,14 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D352">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E352">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="353">
@@ -7766,14 +7766,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D353">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E353">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="354">
@@ -7787,14 +7787,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D354">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E354">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="355">
@@ -7808,14 +7808,14 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D355">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E355">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -7829,11 +7829,11 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E356">
         <v>2</v>
@@ -7850,14 +7850,14 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D358">
@@ -7892,14 +7892,14 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D359">
         <v>0</v>
       </c>
       <c r="E359">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -7913,14 +7913,14 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D360">
         <v>0</v>
       </c>
       <c r="E360">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -7934,14 +7934,14 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D361">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E361">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362">
@@ -7955,14 +7955,14 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E362">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="363">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D363">
@@ -7997,14 +7997,14 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E364">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365">
@@ -8018,14 +8018,14 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E365">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -8039,14 +8039,14 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D366">
         <v>0</v>
       </c>
       <c r="E366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367">
@@ -8060,11 +8060,11 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D367">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E367">
         <v>2</v>
@@ -8081,14 +8081,14 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D368">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D369">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D370">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D371">
@@ -8165,7 +8165,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D372">
@@ -8186,14 +8186,14 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D373">
         <v>0</v>
       </c>
       <c r="E373">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374">
@@ -8207,14 +8207,14 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D374">
         <v>0</v>
       </c>
       <c r="E374">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375">
@@ -8228,14 +8228,14 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E375">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376">
@@ -8249,14 +8249,14 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E376">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -8270,14 +8270,14 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D377">
         <v>0</v>
       </c>
       <c r="E377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -8291,14 +8291,14 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D378">
         <v>0</v>
       </c>
       <c r="E378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D379">
@@ -8333,14 +8333,14 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D380">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E380">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="381">
@@ -8354,14 +8354,14 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D381">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E381">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="382">
@@ -8375,14 +8375,14 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D382">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E382">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="383">
@@ -8396,14 +8396,14 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D383">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E383">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="384">
@@ -8417,14 +8417,14 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D384">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E384">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D385">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D386">
@@ -8480,14 +8480,14 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D387">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E387">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="388">
@@ -8501,14 +8501,14 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D388">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E388">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="389">
@@ -8522,14 +8522,14 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D389">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E389">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -8543,14 +8543,14 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E390">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -8564,14 +8564,14 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D391">
         <v>0</v>
       </c>
       <c r="E391">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D392">
         <v>0</v>
       </c>
       <c r="E392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -8606,7 +8606,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D393">
@@ -8627,14 +8627,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E394">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395">
@@ -8648,14 +8648,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E395">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -8669,7 +8669,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D396">
@@ -8690,14 +8690,14 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D397">
         <v>0</v>
       </c>
       <c r="E397">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398">
@@ -8711,14 +8711,14 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E398">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399">
@@ -8732,14 +8732,14 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D400">
@@ -8774,14 +8774,14 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D401">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E401">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -8795,14 +8795,14 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D402">
         <v>0</v>
       </c>
       <c r="E402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -8816,11 +8816,11 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E403">
         <v>1</v>
@@ -8837,11 +8837,11 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E404">
         <v>1</v>
@@ -8858,14 +8858,14 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D405">
         <v>0</v>
       </c>
       <c r="E405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -8879,14 +8879,14 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -8900,14 +8900,14 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -8921,14 +8921,14 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D408">
         <v>0</v>
       </c>
       <c r="E408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -8942,14 +8942,14 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -8963,14 +8963,14 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -8984,14 +8984,14 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E411">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -9005,14 +9005,14 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E412">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D413">
@@ -9047,14 +9047,14 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D414">
         <v>0</v>
       </c>
       <c r="E414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -9068,14 +9068,14 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D415">
-        <v>24</v>
+        <v>306</v>
       </c>
       <c r="E415">
-        <v>94</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="416">
@@ -9089,14 +9089,14 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D416">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="E416">
-        <v>2639</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="417">
@@ -9110,14 +9110,14 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D417">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="E417">
-        <v>2124</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="418">
@@ -9131,14 +9131,14 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D418">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="E418">
-        <v>2178</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="419">
@@ -9152,14 +9152,14 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D419">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="E419">
-        <v>1688</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="420">
@@ -9173,14 +9173,14 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D420">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="E420">
-        <v>1349</v>
+        <v>381</v>
       </c>
     </row>
     <row r="421">
@@ -9194,14 +9194,14 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D421">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E421">
-        <v>356</v>
+        <v>39</v>
       </c>
     </row>
     <row r="422">
@@ -9215,14 +9215,14 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D422">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423">
@@ -9236,14 +9236,14 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D423">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E423">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="424">
@@ -9257,14 +9257,14 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D424">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E424">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -9278,11 +9278,11 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E425">
         <v>1</v>
@@ -9299,14 +9299,14 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D427">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D428">
@@ -9362,14 +9362,14 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D430">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D431">
@@ -9425,14 +9425,14 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D433">
@@ -9467,14 +9467,14 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D435">
@@ -9509,14 +9509,14 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D436">
         <v>0</v>
       </c>
       <c r="E436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -9530,11 +9530,11 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E437">
         <v>1</v>
@@ -9551,14 +9551,14 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D438">
         <v>1</v>
       </c>
       <c r="E438">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
@@ -9572,11 +9572,11 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E439">
         <v>2</v>
@@ -9593,14 +9593,14 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D440">
         <v>0</v>
       </c>
       <c r="E440">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -9614,14 +9614,14 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D441">
         <v>0</v>
       </c>
       <c r="E441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D442">
@@ -9656,14 +9656,14 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D443">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E443">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="444">
@@ -9677,14 +9677,14 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D444">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E444">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="445">
@@ -9698,14 +9698,14 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D445">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E445">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="446">
@@ -9719,14 +9719,14 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E446">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="447">
@@ -9740,14 +9740,14 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E447">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="448">
@@ -9761,14 +9761,14 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E448">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="449">
@@ -9782,14 +9782,14 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D449">
         <v>0</v>
       </c>
       <c r="E449">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450">
@@ -9803,14 +9803,14 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D450">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E450">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="451">
@@ -9824,11 +9824,11 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D451">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E451">
         <v>9</v>
@@ -9845,14 +9845,14 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D452">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E452">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="453">
@@ -9866,14 +9866,14 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D453">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E453">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -9887,14 +9887,14 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D454">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -9908,14 +9908,14 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D455">
         <v>0</v>
       </c>
       <c r="E455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -9929,14 +9929,14 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D456">
         <v>0</v>
       </c>
       <c r="E456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -9950,14 +9950,14 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D457">
         <v>1</v>
       </c>
       <c r="E457">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="458">
@@ -9971,14 +9971,14 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E458">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="459">
@@ -9992,14 +9992,14 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E459">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="460">
@@ -10013,14 +10013,14 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D460">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E460">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="461">
@@ -10034,14 +10034,14 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D461">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E461">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="462">
@@ -10055,14 +10055,14 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E462">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D463">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D464">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D465">
@@ -10139,14 +10139,14 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D466">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E466">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467">
@@ -10160,14 +10160,14 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D467">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E467">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -10181,7 +10181,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D468">
@@ -10202,7 +10202,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D469">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D470">
@@ -10244,14 +10244,14 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -10265,14 +10265,14 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D473">
@@ -10307,14 +10307,14 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D474">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475">
@@ -10328,14 +10328,14 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D475">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E475">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="476">
@@ -10349,14 +10349,14 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D476">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E476">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D477">
@@ -10391,14 +10391,14 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D478">
         <v>0</v>
       </c>
       <c r="E478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -10412,11 +10412,11 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E479">
         <v>1</v>
@@ -10433,14 +10433,14 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D481">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D482">
@@ -10496,14 +10496,14 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D483">
         <v>0</v>
       </c>
       <c r="E483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D484">
@@ -10538,14 +10538,14 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D485">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E485">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="486">
@@ -10559,14 +10559,14 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D486">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E486">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="487">
@@ -10580,14 +10580,14 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D487">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E487">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="488">
@@ -10601,14 +10601,14 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D488">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E488">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -10622,7 +10622,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D489">
@@ -10643,14 +10643,14 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D490">
         <v>0</v>
       </c>
       <c r="E490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -10664,14 +10664,14 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D491">
         <v>0</v>
       </c>
       <c r="E491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D492">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D493">
@@ -10727,14 +10727,14 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D494">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -10748,14 +10748,14 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -10769,14 +10769,14 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D496">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497">
@@ -10790,14 +10790,14 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D498">
@@ -10832,14 +10832,14 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D499">
         <v>0</v>
       </c>
       <c r="E499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D500">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D501">
@@ -10895,14 +10895,14 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D502">
         <v>0</v>
       </c>
       <c r="E502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D503">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D504">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D505">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D506">
@@ -11000,7 +11000,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D507">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D508">
@@ -11042,7 +11042,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D509">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D510">
@@ -11084,14 +11084,14 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -11105,14 +11105,14 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D512">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -11126,14 +11126,14 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D513">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514">
@@ -11147,14 +11147,14 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D514">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E514">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -11168,14 +11168,14 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -11189,7 +11189,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D516">
@@ -11210,7 +11210,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D517">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D518">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D519">
@@ -11273,14 +11273,14 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D520">
         <v>0</v>
       </c>
       <c r="E520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -11294,14 +11294,14 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D521">
         <v>0</v>
       </c>
       <c r="E521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D522">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D523">
@@ -11357,7 +11357,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D524">
@@ -11378,7 +11378,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D525">
@@ -11399,7 +11399,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D526">
@@ -11420,14 +11420,14 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D527">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E527">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="528">
@@ -11441,14 +11441,14 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -11462,14 +11462,14 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D529">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E529">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530">
@@ -11483,14 +11483,14 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D530">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E530">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -11504,14 +11504,14 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D531">
         <v>0</v>
       </c>
       <c r="E531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -11525,7 +11525,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D532">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D533">
@@ -11567,14 +11567,14 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535">
@@ -11588,14 +11588,14 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
@@ -11609,7 +11609,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D536">
@@ -11630,7 +11630,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D537">
@@ -11651,7 +11651,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D538">
@@ -11672,7 +11672,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D539">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D540">
@@ -11714,14 +11714,14 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D541">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E541">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="542">
@@ -11735,14 +11735,14 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D542">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E542">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -11756,7 +11756,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D543">
@@ -11777,14 +11777,14 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D544">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E544">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="545">
@@ -11798,14 +11798,14 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D545">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E545">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="546">
@@ -11819,14 +11819,14 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D546">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E546">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D547">
@@ -11861,14 +11861,14 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D548">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E548">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="549">
@@ -11882,14 +11882,14 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D549">
         <v>5</v>
       </c>
       <c r="E549">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="550">
@@ -11903,14 +11903,14 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D550">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E550">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551">
@@ -11924,14 +11924,14 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D551">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E551">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="552">
@@ -11945,14 +11945,14 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D552">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E552">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -11966,14 +11966,14 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D553">
         <v>0</v>
       </c>
       <c r="E553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D554">
@@ -12008,14 +12008,14 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>05/11/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="D555">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E555">
-        <v>78</v>
+        <v>213</v>
       </c>
     </row>
     <row r="556">
@@ -12029,14 +12029,14 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="D556">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E556">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="557">
@@ -12050,14 +12050,14 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="D557">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E557">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="558">
@@ -12071,14 +12071,14 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D558">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E558">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="559">
@@ -12092,14 +12092,14 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D559">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E559">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="560">
@@ -12113,14 +12113,14 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D560">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E560">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="561">
@@ -12134,14 +12134,14 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D561">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E561">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/inst/planilha_esus.xlsx
+++ b/inst/planilha_esus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E575"/>
+  <dimension ref="A1:E568"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,14 +395,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -416,14 +416,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -437,14 +437,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -458,14 +458,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -479,14 +479,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -500,14 +500,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -521,14 +521,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -542,14 +542,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -563,14 +563,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -584,7 +584,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D11">
@@ -605,7 +605,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D12">
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D13">
@@ -647,7 +647,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D14">
@@ -668,7 +668,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D15">
@@ -689,14 +689,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -710,14 +710,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>2</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -731,7 +731,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D18">
@@ -752,14 +752,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -773,14 +773,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -794,14 +794,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -815,14 +815,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -836,7 +836,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D23">
@@ -857,14 +857,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D25">
@@ -899,7 +899,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D26">
@@ -920,7 +920,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D27">
@@ -941,7 +941,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D28">
@@ -962,7 +962,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D29">
@@ -983,14 +983,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1004,14 +1004,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D32">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D33">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D34">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D35">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D36">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D37">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D38">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D39">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D40">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D41">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D42">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D43">
@@ -1277,14 +1277,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1298,14 +1298,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1319,14 +1319,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1403,14 +1403,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1424,14 +1424,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1487,14 +1487,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -1508,14 +1508,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1529,11 +1529,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -1550,14 +1550,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D58">
@@ -1592,14 +1592,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -1613,14 +1613,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D61">
@@ -1655,14 +1655,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -1676,14 +1676,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -1697,14 +1697,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1718,14 +1718,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D66">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -1760,14 +1760,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D68">
@@ -1802,14 +1802,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1823,14 +1823,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -1844,14 +1844,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1865,14 +1865,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1886,14 +1886,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -1907,14 +1907,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D75">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D76">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D77">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D78">
@@ -2012,14 +2012,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2033,14 +2033,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2054,14 +2054,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2075,14 +2075,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D83">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D85">
@@ -2159,14 +2159,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
@@ -2180,14 +2180,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
@@ -2201,14 +2201,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D89">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D90">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D91">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D92">
@@ -2306,11 +2306,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93">
         <v>3</v>
@@ -2327,14 +2327,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -2348,14 +2348,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2369,14 +2369,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2390,14 +2390,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -2411,14 +2411,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -2432,14 +2432,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -2474,14 +2474,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D102">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2516,14 +2516,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2537,14 +2537,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -2558,14 +2558,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D106">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D107">
@@ -2621,11 +2621,11 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -2642,14 +2642,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D110">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -2705,14 +2705,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113">
@@ -2726,14 +2726,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2747,14 +2747,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -2768,14 +2768,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D117">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D118">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D119">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D120">
@@ -2894,14 +2894,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D122">
@@ -2936,14 +2936,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2957,14 +2957,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D125">
@@ -2999,11 +2999,11 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -3020,14 +3020,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3041,14 +3041,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -3062,14 +3062,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3083,14 +3083,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D131">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D132">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D133">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D134">
@@ -3188,14 +3188,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E135">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
@@ -3209,14 +3209,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D137">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D139">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D140">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D141">
@@ -3335,14 +3335,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D143">
@@ -3377,14 +3377,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D145">
@@ -3419,14 +3419,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D148">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D149">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D150">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D151">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D152">
@@ -3566,14 +3566,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -3587,14 +3587,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D155">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="E156">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157">
@@ -3650,14 +3650,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158">
@@ -3671,14 +3671,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159">
@@ -3692,14 +3692,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3713,14 +3713,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
@@ -3734,11 +3734,11 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161">
         <v>7</v>
@@ -3755,14 +3755,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D163">
@@ -3797,14 +3797,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D166">
@@ -3860,14 +3860,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -3881,14 +3881,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D169">
@@ -3923,14 +3923,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D171">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D172">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D173">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D174">
@@ -4028,14 +4028,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D176">
@@ -4070,14 +4070,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D177">
         <v>1</v>
       </c>
       <c r="E177">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
@@ -4091,14 +4091,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179">
@@ -4112,14 +4112,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
@@ -4133,14 +4133,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
@@ -4154,14 +4154,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E181">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182">
@@ -4175,14 +4175,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D182">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -4196,14 +4196,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -4217,14 +4217,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D184">
         <v>2</v>
       </c>
       <c r="E184">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
@@ -4238,14 +4238,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -4259,14 +4259,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -4280,14 +4280,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -4301,14 +4301,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D188">
         <v>1</v>
       </c>
       <c r="E188">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
@@ -4322,14 +4322,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -4343,14 +4343,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -4364,14 +4364,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D192">
@@ -4406,14 +4406,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D194">
@@ -4448,14 +4448,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -4469,14 +4469,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -4490,14 +4490,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -4511,14 +4511,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D198">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -4532,14 +4532,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -4553,14 +4553,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -4574,14 +4574,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -4595,14 +4595,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
@@ -4616,14 +4616,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D203">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -4637,14 +4637,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -4658,14 +4658,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206">
@@ -4679,14 +4679,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E206">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207">
@@ -4700,14 +4700,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E207">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D208">
@@ -4742,14 +4742,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210">
@@ -4763,14 +4763,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D211">
@@ -4805,14 +4805,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -4826,14 +4826,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -4847,14 +4847,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D215">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D216">
@@ -4910,14 +4910,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -4931,14 +4931,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -4952,14 +4952,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E219">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -4973,14 +4973,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -4994,14 +4994,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -5015,14 +5015,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -5036,14 +5036,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D223">
         <v>0</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D224">
@@ -5078,14 +5078,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D225">
         <v>0</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D226">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D227">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D228">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D229">
@@ -5183,14 +5183,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -5204,14 +5204,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D232">
@@ -5246,14 +5246,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -5267,14 +5267,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -5288,14 +5288,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -5309,14 +5309,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -5330,14 +5330,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -5351,14 +5351,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D239">
@@ -5393,14 +5393,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E240">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D241">
@@ -5435,14 +5435,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -5456,14 +5456,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D243">
         <v>0</v>
       </c>
       <c r="E243">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -5477,14 +5477,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D244">
         <v>0</v>
       </c>
       <c r="E244">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -5498,14 +5498,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -5519,14 +5519,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D246">
         <v>0</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D247">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D248">
@@ -5582,14 +5582,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D249">
         <v>0</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D250">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D251">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D252">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D253">
@@ -5687,14 +5687,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E254">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="255">
@@ -5708,14 +5708,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D255">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E255">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="256">
@@ -5729,14 +5729,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E256">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="257">
@@ -5750,14 +5750,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E257">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258">
@@ -5771,14 +5771,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D258">
         <v>0</v>
       </c>
       <c r="E258">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E259">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="260">
@@ -5813,14 +5813,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E260">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="261">
@@ -5834,14 +5834,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D261">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E261">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -5855,14 +5855,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D263">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D264">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D265">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D266">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D267">
@@ -5981,14 +5981,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
         <v>2</v>
-      </c>
-      <c r="E268">
-        <v>4</v>
       </c>
     </row>
     <row r="269">
@@ -6002,14 +6002,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E269">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270">
@@ -6023,14 +6023,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E270">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271">
@@ -6044,14 +6044,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D271">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E271">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -6065,14 +6065,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -6086,11 +6086,11 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -6107,14 +6107,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D275">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D276">
@@ -6170,14 +6170,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D277">
         <v>0</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -6191,14 +6191,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D278">
         <v>0</v>
       </c>
       <c r="E278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -6212,14 +6212,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D279">
         <v>0</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -6233,14 +6233,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D280">
         <v>0</v>
       </c>
       <c r="E280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D281">
@@ -6275,14 +6275,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D283">
@@ -6317,14 +6317,14 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D284">
         <v>0</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -6338,14 +6338,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D285">
         <v>0</v>
       </c>
       <c r="E285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D286">
@@ -6380,14 +6380,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D287">
         <v>0</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -6401,14 +6401,14 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D288">
         <v>0</v>
       </c>
       <c r="E288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -6422,14 +6422,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E289">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -6443,14 +6443,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D290">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D291">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D292">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D293">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D294">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D295">
@@ -6569,14 +6569,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E296">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E297">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -6611,14 +6611,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E298">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D299">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301">
@@ -6674,14 +6674,14 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E301">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -6695,14 +6695,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D302">
         <v>0</v>
       </c>
       <c r="E302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -6716,14 +6716,14 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D303">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E303">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="304">
@@ -6737,14 +6737,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D304">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E304">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="305">
@@ -6758,14 +6758,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D305">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E305">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306">
@@ -6779,14 +6779,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D306">
         <v>0</v>
       </c>
       <c r="E306">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -6800,14 +6800,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D307">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E307">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="308">
@@ -6821,14 +6821,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D308">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E308">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="309">
@@ -6842,14 +6842,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D309">
         <v>0</v>
       </c>
       <c r="E309">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -6863,14 +6863,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D310">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E310">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -6884,14 +6884,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D311">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E311">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="312">
@@ -6905,14 +6905,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D312">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E312">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313">
@@ -6926,14 +6926,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D313">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E313">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -6947,14 +6947,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D314">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E314">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315">
@@ -6968,14 +6968,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E315">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D316">
@@ -7010,14 +7010,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D317">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E317">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318">
@@ -7031,14 +7031,14 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D318">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E318">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -7052,14 +7052,14 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D319">
         <v>0</v>
       </c>
       <c r="E319">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -7073,14 +7073,14 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E320">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -7094,14 +7094,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D321">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E321">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322">
@@ -7115,14 +7115,14 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D322">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E322">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323">
@@ -7136,14 +7136,14 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E323">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -7157,14 +7157,14 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E324">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325">
@@ -7178,14 +7178,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D325">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E325">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326">
@@ -7199,14 +7199,14 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D326">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E326">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="327">
@@ -7220,14 +7220,14 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E327">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -7241,14 +7241,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D328">
         <v>0</v>
       </c>
       <c r="E328">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -7262,14 +7262,14 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D329">
         <v>0</v>
       </c>
       <c r="E329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D330">
@@ -7304,14 +7304,14 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D331">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E331">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332">
@@ -7325,14 +7325,14 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D332">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E332">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D333">
@@ -7367,14 +7367,14 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -7388,14 +7388,14 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D335">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E335">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="336">
@@ -7409,14 +7409,14 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D336">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E336">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -7430,14 +7430,14 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D338">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D339">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D340">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D341">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D342">
@@ -7556,14 +7556,14 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D343">
         <v>0</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D344">
@@ -7598,7 +7598,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D345">
@@ -7619,14 +7619,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D346">
         <v>0</v>
       </c>
       <c r="E346">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -7640,14 +7640,14 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D347">
         <v>0</v>
       </c>
       <c r="E347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D348">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D349">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D350">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D351">
@@ -7745,14 +7745,14 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D352">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E352">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="353">
@@ -7766,14 +7766,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D353">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E353">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="354">
@@ -7787,14 +7787,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D354">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E354">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="355">
@@ -7808,14 +7808,14 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D355">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E355">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="356">
@@ -7829,14 +7829,14 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D356">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E356">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="357">
@@ -7850,14 +7850,14 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D357">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E357">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="358">
@@ -7871,14 +7871,14 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D358">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E358">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="359">
@@ -7892,14 +7892,14 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D359">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E359">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360">
@@ -7913,11 +7913,11 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E360">
         <v>2</v>
@@ -7934,14 +7934,14 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D362">
@@ -7976,14 +7976,14 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D363">
         <v>0</v>
       </c>
       <c r="E363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -7997,11 +7997,11 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E364">
         <v>1</v>
@@ -8018,14 +8018,14 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -8039,14 +8039,14 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D366">
         <v>2</v>
       </c>
       <c r="E366">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="367">
@@ -8060,14 +8060,14 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D367">
         <v>2</v>
       </c>
       <c r="E367">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368">
@@ -8081,11 +8081,11 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D368">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E368">
         <v>4</v>
@@ -8102,14 +8102,14 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E369">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -8123,14 +8123,14 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D370">
         <v>0</v>
       </c>
       <c r="E370">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371">
@@ -8144,14 +8144,14 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D371">
         <v>0</v>
       </c>
       <c r="E371">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -8165,7 +8165,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D372">
@@ -8186,14 +8186,14 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D373">
         <v>0</v>
       </c>
       <c r="E373">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D374">
@@ -8228,11 +8228,11 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E375">
         <v>1</v>
@@ -8249,11 +8249,11 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E376">
         <v>1</v>
@@ -8270,14 +8270,14 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D377">
         <v>0</v>
       </c>
       <c r="E377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D378">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D379">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D380">
@@ -8354,14 +8354,14 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D381">
         <v>0</v>
       </c>
       <c r="E381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -8375,14 +8375,14 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D382">
         <v>0</v>
       </c>
       <c r="E382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D383">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D384">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D385">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D386">
@@ -8480,14 +8480,14 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E387">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -8501,14 +8501,14 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D388">
         <v>0</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -8522,14 +8522,14 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D389">
         <v>0</v>
       </c>
       <c r="E389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D390">
@@ -8564,14 +8564,14 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D391">
         <v>0</v>
       </c>
       <c r="E391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D392">
         <v>0</v>
       </c>
       <c r="E392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -8606,7 +8606,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D393">
@@ -8627,14 +8627,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D394">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E394">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="395">
@@ -8648,14 +8648,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D395">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E395">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -8669,7 +8669,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D396">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D397">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D398">
@@ -8732,14 +8732,14 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D399">
         <v>0</v>
       </c>
       <c r="E399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D400">
@@ -8774,14 +8774,14 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D401">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E401">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402">
@@ -8795,11 +8795,11 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E402">
         <v>2</v>
@@ -8816,14 +8816,14 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D403">
         <v>0</v>
       </c>
       <c r="E403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D404">
@@ -8858,14 +8858,14 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D405">
         <v>0</v>
       </c>
       <c r="E405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -8879,14 +8879,14 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D406">
         <v>0</v>
       </c>
       <c r="E406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D407">
@@ -8921,14 +8921,14 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D408">
         <v>0</v>
       </c>
       <c r="E408">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409">
@@ -8942,14 +8942,14 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E409">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -8963,14 +8963,14 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -8984,14 +8984,14 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -9005,14 +9005,14 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D413">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D414">
@@ -9068,14 +9068,14 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E415">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -9089,14 +9089,14 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D416">
         <v>0</v>
       </c>
       <c r="E416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -9110,14 +9110,14 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D417">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -9131,14 +9131,14 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D419">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D420">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D421">
@@ -9215,14 +9215,14 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E422">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -9236,14 +9236,14 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D423">
         <v>1</v>
       </c>
       <c r="E423">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -9257,14 +9257,14 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -9278,14 +9278,14 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -9299,14 +9299,14 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -9320,14 +9320,14 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -9341,14 +9341,14 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -9362,14 +9362,14 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D429">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="E429">
-        <v>2333</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="430">
@@ -9383,14 +9383,14 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D430">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E430">
-        <v>1791</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="431">
@@ -9404,14 +9404,14 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D431">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="E431">
-        <v>1745</v>
+        <v>580</v>
       </c>
     </row>
     <row r="432">
@@ -9425,14 +9425,14 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D432">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E432">
-        <v>573</v>
+        <v>63</v>
       </c>
     </row>
     <row r="433">
@@ -9446,14 +9446,14 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D433">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="E433">
-        <v>59</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="434">
@@ -9467,14 +9467,14 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D434">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="E434">
-        <v>1775</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="435">
@@ -9488,14 +9488,14 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D435">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="E435">
-        <v>1118</v>
+        <v>40</v>
       </c>
     </row>
     <row r="436">
@@ -9509,11 +9509,11 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E436">
         <v>1</v>
@@ -9530,14 +9530,14 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -9551,14 +9551,14 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D438">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
@@ -9572,14 +9572,14 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D439">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -9593,14 +9593,14 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -9614,14 +9614,14 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D442">
@@ -9656,14 +9656,14 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D444">
@@ -9698,14 +9698,14 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -9719,14 +9719,14 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -9740,7 +9740,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D447">
@@ -9761,14 +9761,14 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -9782,14 +9782,14 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -9803,11 +9803,11 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E450">
         <v>2</v>
@@ -9824,14 +9824,14 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D451">
         <v>0</v>
       </c>
       <c r="E451">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -9845,14 +9845,14 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D452">
         <v>0</v>
       </c>
       <c r="E452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -9866,7 +9866,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D453">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D454">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D455">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D456">
@@ -9950,14 +9950,14 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D457">
         <v>1</v>
       </c>
       <c r="E457">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458">
@@ -9971,14 +9971,14 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D458">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E458">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="459">
@@ -9992,14 +9992,14 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D459">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E459">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="460">
@@ -10013,14 +10013,14 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D460">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E460">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="461">
@@ -10034,14 +10034,14 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D461">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E461">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="462">
@@ -10055,14 +10055,14 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D462">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E462">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="463">
@@ -10076,14 +10076,14 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D463">
         <v>0</v>
       </c>
       <c r="E463">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="464">
@@ -10097,14 +10097,14 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D464">
         <v>7</v>
       </c>
       <c r="E464">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="465">
@@ -10118,14 +10118,14 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D465">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E465">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="466">
@@ -10139,14 +10139,14 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D466">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E466">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467">
@@ -10160,14 +10160,14 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D467">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -10181,14 +10181,14 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D468">
         <v>1</v>
       </c>
       <c r="E468">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469">
@@ -10202,14 +10202,14 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E469">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D470">
@@ -10244,14 +10244,14 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D471">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E471">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="472">
@@ -10265,14 +10265,14 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D472">
         <v>2</v>
       </c>
       <c r="E472">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="473">
@@ -10286,14 +10286,14 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D473">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E473">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="474">
@@ -10307,14 +10307,14 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E474">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -10328,14 +10328,14 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D475">
         <v>0</v>
       </c>
       <c r="E475">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476">
@@ -10349,14 +10349,14 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E476">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="477">
@@ -10370,70 +10370,70 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E477">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>São José de Ubá</t>
+          <t>São José do Vale do Rio Preto</t>
         </is>
       </c>
       <c r="B478">
-        <v>330513</v>
+        <v>330515</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D478">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E478">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>São José de Ubá</t>
+          <t>São José do Vale do Rio Preto</t>
         </is>
       </c>
       <c r="B479">
-        <v>330513</v>
+        <v>330515</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D479">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E479">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>São José de Ubá</t>
+          <t>São José do Vale do Rio Preto</t>
         </is>
       </c>
       <c r="B480">
-        <v>330513</v>
+        <v>330515</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D480">
@@ -10446,15 +10446,15 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>São José de Ubá</t>
+          <t>São José do Vale do Rio Preto</t>
         </is>
       </c>
       <c r="B481">
-        <v>330513</v>
+        <v>330515</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D481">
@@ -10467,15 +10467,15 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>São José de Ubá</t>
+          <t>São José do Vale do Rio Preto</t>
         </is>
       </c>
       <c r="B482">
-        <v>330513</v>
+        <v>330515</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D482">
@@ -10488,57 +10488,57 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>São José de Ubá</t>
+          <t>São José do Vale do Rio Preto</t>
         </is>
       </c>
       <c r="B483">
-        <v>330513</v>
+        <v>330515</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D483">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E483">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>São José de Ubá</t>
+          <t>São José do Vale do Rio Preto</t>
         </is>
       </c>
       <c r="B484">
-        <v>330513</v>
+        <v>330515</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D484">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E484">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>São José do Vale do Rio Preto</t>
+          <t>São Pedro da Aldeia</t>
         </is>
       </c>
       <c r="B485">
-        <v>330515</v>
+        <v>330520</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D485">
@@ -10551,57 +10551,57 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>São José do Vale do Rio Preto</t>
+          <t>São Pedro da Aldeia</t>
         </is>
       </c>
       <c r="B486">
-        <v>330515</v>
+        <v>330520</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D486">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>São José do Vale do Rio Preto</t>
+          <t>São Pedro da Aldeia</t>
         </is>
       </c>
       <c r="B487">
-        <v>330515</v>
+        <v>330520</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D487">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E487">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>São José do Vale do Rio Preto</t>
+          <t>São Pedro da Aldeia</t>
         </is>
       </c>
       <c r="B488">
-        <v>330515</v>
+        <v>330520</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D488">
@@ -10614,15 +10614,15 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>São José do Vale do Rio Preto</t>
+          <t>São Pedro da Aldeia</t>
         </is>
       </c>
       <c r="B489">
-        <v>330515</v>
+        <v>330520</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D489">
@@ -10635,124 +10635,124 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>São José do Vale do Rio Preto</t>
+          <t>São Pedro da Aldeia</t>
         </is>
       </c>
       <c r="B490">
-        <v>330515</v>
+        <v>330520</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>São José do Vale do Rio Preto</t>
+          <t>São Pedro da Aldeia</t>
         </is>
       </c>
       <c r="B491">
-        <v>330515</v>
+        <v>330520</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D491">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E491">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>São Pedro da Aldeia</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B492">
-        <v>330520</v>
+        <v>330540</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D492">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>São Pedro da Aldeia</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B493">
-        <v>330520</v>
+        <v>330540</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D493">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>São Pedro da Aldeia</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B494">
-        <v>330520</v>
+        <v>330540</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D494">
         <v>0</v>
       </c>
       <c r="E494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>São Pedro da Aldeia</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B495">
-        <v>330520</v>
+        <v>330540</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E495">
         <v>1</v>
@@ -10761,103 +10761,103 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>São Pedro da Aldeia</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B496">
-        <v>330520</v>
+        <v>330540</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D496">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>São Pedro da Aldeia</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B497">
-        <v>330520</v>
+        <v>330540</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D497">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>São Pedro da Aldeia</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B498">
-        <v>330520</v>
+        <v>330540</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D498">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B499">
-        <v>330540</v>
+        <v>330550</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D499">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E499">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B500">
-        <v>330540</v>
+        <v>330550</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D500">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E500">
         <v>2</v>
@@ -10866,141 +10866,141 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B501">
-        <v>330540</v>
+        <v>330550</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D501">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B502">
-        <v>330540</v>
+        <v>330550</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D502">
         <v>0</v>
       </c>
       <c r="E502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B503">
-        <v>330540</v>
+        <v>330550</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D503">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B504">
-        <v>330540</v>
+        <v>330550</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B505">
-        <v>330540</v>
+        <v>330550</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D505">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B506">
-        <v>330550</v>
+        <v>330555</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D506">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B507">
-        <v>330550</v>
+        <v>330555</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D507">
@@ -11013,36 +11013,36 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B508">
-        <v>330550</v>
+        <v>330555</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B509">
-        <v>330550</v>
+        <v>330555</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D509">
@@ -11055,57 +11055,57 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B510">
-        <v>330550</v>
+        <v>330555</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D510">
         <v>0</v>
       </c>
       <c r="E510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B511">
-        <v>330550</v>
+        <v>330555</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D511">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E511">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B512">
-        <v>330550</v>
+        <v>330555</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D512">
@@ -11118,36 +11118,36 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B513">
-        <v>330555</v>
+        <v>330560</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D513">
         <v>0</v>
       </c>
       <c r="E513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B514">
-        <v>330555</v>
+        <v>330560</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D514">
@@ -11160,36 +11160,36 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B515">
-        <v>330555</v>
+        <v>330560</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B516">
-        <v>330555</v>
+        <v>330560</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D516">
@@ -11202,183 +11202,183 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B517">
-        <v>330555</v>
+        <v>330560</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B518">
-        <v>330555</v>
+        <v>330560</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D518">
         <v>0</v>
       </c>
       <c r="E518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B519">
-        <v>330555</v>
+        <v>330560</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D519">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E519">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B520">
-        <v>330560</v>
+        <v>330570</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D520">
         <v>0</v>
       </c>
       <c r="E520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B521">
-        <v>330560</v>
+        <v>330570</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B522">
-        <v>330560</v>
+        <v>330570</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D522">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B523">
-        <v>330560</v>
+        <v>330570</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D523">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B524">
-        <v>330560</v>
+        <v>330570</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D524">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E524">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B525">
-        <v>330560</v>
+        <v>330570</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D525">
@@ -11391,15 +11391,15 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B526">
-        <v>330560</v>
+        <v>330570</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D526">
@@ -11412,99 +11412,99 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B527">
-        <v>330570</v>
+        <v>330575</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D527">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B528">
-        <v>330570</v>
+        <v>330575</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D528">
         <v>0</v>
       </c>
       <c r="E528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B529">
-        <v>330570</v>
+        <v>330575</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B530">
-        <v>330570</v>
+        <v>330575</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D530">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E530">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B531">
-        <v>330570</v>
+        <v>330575</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D531">
@@ -11517,36 +11517,36 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B532">
-        <v>330570</v>
+        <v>330575</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D532">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E532">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B533">
-        <v>330570</v>
+        <v>330575</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D533">
@@ -11559,57 +11559,57 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B534">
-        <v>330575</v>
+        <v>330580</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D534">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E534">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B535">
-        <v>330575</v>
+        <v>330580</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B536">
-        <v>330575</v>
+        <v>330580</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D536">
@@ -11622,15 +11622,15 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B537">
-        <v>330575</v>
+        <v>330580</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D537">
@@ -11643,36 +11643,36 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B538">
-        <v>330575</v>
+        <v>330580</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D538">
         <v>0</v>
       </c>
       <c r="E538">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B539">
-        <v>330575</v>
+        <v>330580</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D539">
@@ -11685,15 +11685,15 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B540">
-        <v>330575</v>
+        <v>330580</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D540">
@@ -11706,78 +11706,78 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B541">
-        <v>330580</v>
+        <v>330600</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D541">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E541">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B542">
-        <v>330580</v>
+        <v>330600</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D542">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E542">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B543">
-        <v>330580</v>
+        <v>330600</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D543">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B544">
-        <v>330580</v>
+        <v>330600</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D544">
@@ -11790,15 +11790,15 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B545">
-        <v>330580</v>
+        <v>330600</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D545">
@@ -11811,36 +11811,36 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B546">
-        <v>330580</v>
+        <v>330600</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D546">
         <v>0</v>
       </c>
       <c r="E546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B547">
-        <v>330580</v>
+        <v>330600</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D547">
@@ -11853,57 +11853,57 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B548">
-        <v>330600</v>
+        <v>330610</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D548">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E548">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B549">
-        <v>330600</v>
+        <v>330610</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D549">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E549">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B550">
-        <v>330600</v>
+        <v>330610</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D550">
@@ -11916,15 +11916,15 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B551">
-        <v>330600</v>
+        <v>330610</v>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D551">
@@ -11937,57 +11937,57 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B552">
-        <v>330600</v>
+        <v>330610</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D552">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E552">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B553">
-        <v>330600</v>
+        <v>330610</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D553">
         <v>0</v>
       </c>
       <c r="E553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B554">
-        <v>330600</v>
+        <v>330610</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D554">
@@ -12000,78 +12000,78 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B555">
-        <v>330610</v>
+        <v>330620</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D555">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E555">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B556">
-        <v>330610</v>
+        <v>330620</v>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D556">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E556">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B557">
-        <v>330610</v>
+        <v>330620</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D557">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E557">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B558">
-        <v>330610</v>
+        <v>330620</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D558">
@@ -12084,15 +12084,15 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B559">
-        <v>330610</v>
+        <v>330620</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D559">
@@ -12105,337 +12105,190 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B560">
-        <v>330610</v>
+        <v>330620</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D560">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E560">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B561">
-        <v>330610</v>
+        <v>330620</v>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D561">
         <v>0</v>
       </c>
       <c r="E561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B562">
-        <v>330620</v>
+        <v>330630</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="D562">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E562">
-        <v>5</v>
+        <v>153</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B563">
-        <v>330620</v>
+        <v>330630</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="D563">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E563">
-        <v>9</v>
+        <v>134</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B564">
-        <v>330620</v>
+        <v>330630</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="D564">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E564">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B565">
-        <v>330620</v>
+        <v>330630</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="D565">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E565">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B566">
-        <v>330620</v>
+        <v>330630</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>12/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="D566">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E566">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B567">
-        <v>330620</v>
+        <v>330630</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="D567">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E567">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B568">
-        <v>330620</v>
+        <v>330630</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="D568">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E568">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B569">
-        <v>330630</v>
-      </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>08/11/2023</t>
-        </is>
-      </c>
-      <c r="D569">
-        <v>34</v>
-      </c>
-      <c r="E569">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B570">
-        <v>330630</v>
-      </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>09/11/2023</t>
-        </is>
-      </c>
-      <c r="D570">
-        <v>29</v>
-      </c>
-      <c r="E570">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B571">
-        <v>330630</v>
-      </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>10/11/2023</t>
-        </is>
-      </c>
-      <c r="D571">
-        <v>28</v>
-      </c>
-      <c r="E571">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B572">
-        <v>330630</v>
-      </c>
-      <c r="C572" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
-      </c>
-      <c r="D572">
-        <v>8</v>
-      </c>
-      <c r="E572">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B573">
-        <v>330630</v>
-      </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>12/11/2023</t>
-        </is>
-      </c>
-      <c r="D573">
-        <v>14</v>
-      </c>
-      <c r="E573">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B574">
-        <v>330630</v>
-      </c>
-      <c r="C574" t="inlineStr">
-        <is>
-          <t>13/11/2023</t>
-        </is>
-      </c>
-      <c r="D574">
-        <v>28</v>
-      </c>
-      <c r="E574">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B575">
-        <v>330630</v>
-      </c>
-      <c r="C575" t="inlineStr">
-        <is>
-          <t>14/11/2023</t>
-        </is>
-      </c>
-      <c r="D575">
-        <v>19</v>
-      </c>
-      <c r="E575">
-        <v>98</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/inst/planilha_esus.xlsx
+++ b/inst/planilha_esus.xlsx
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="E182">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
@@ -9474,7 +9474,7 @@
         <v>116</v>
       </c>
       <c r="E434">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="435">

--- a/inst/planilha_esus.xlsx
+++ b/inst/planilha_esus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E575"/>
+  <dimension ref="A1:E582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="E251">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252">
@@ -6846,10 +6846,10 @@
         </is>
       </c>
       <c r="D309">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E309">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="310">
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="E317">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318">
@@ -9534,10 +9534,10 @@
         </is>
       </c>
       <c r="D437">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E437">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="438">
@@ -10824,11 +10824,11 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>São Sebastião do Alto</t>
         </is>
       </c>
       <c r="B499">
-        <v>330540</v>
+        <v>330530</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         </is>
       </c>
       <c r="D499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E499">
         <v>1</v>
@@ -10845,11 +10845,11 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>São Sebastião do Alto</t>
         </is>
       </c>
       <c r="B500">
-        <v>330540</v>
+        <v>330530</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
@@ -10860,17 +10860,17 @@
         <v>0</v>
       </c>
       <c r="E500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>São Sebastião do Alto</t>
         </is>
       </c>
       <c r="B501">
-        <v>330540</v>
+        <v>330530</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
@@ -10878,20 +10878,20 @@
         </is>
       </c>
       <c r="D501">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>São Sebastião do Alto</t>
         </is>
       </c>
       <c r="B502">
-        <v>330540</v>
+        <v>330530</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
@@ -10899,20 +10899,20 @@
         </is>
       </c>
       <c r="D502">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>São Sebastião do Alto</t>
         </is>
       </c>
       <c r="B503">
-        <v>330540</v>
+        <v>330530</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
@@ -10920,20 +10920,20 @@
         </is>
       </c>
       <c r="D503">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>São Sebastião do Alto</t>
         </is>
       </c>
       <c r="B504">
-        <v>330540</v>
+        <v>330530</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
@@ -10950,11 +10950,11 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>São Sebastião do Alto</t>
         </is>
       </c>
       <c r="B505">
-        <v>330540</v>
+        <v>330530</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
@@ -10965,17 +10965,17 @@
         <v>0</v>
       </c>
       <c r="E505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B506">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
@@ -10986,17 +10986,17 @@
         <v>1</v>
       </c>
       <c r="E506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B507">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
@@ -11007,17 +11007,17 @@
         <v>0</v>
       </c>
       <c r="E507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B508">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
@@ -11025,20 +11025,20 @@
         </is>
       </c>
       <c r="D508">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B509">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
@@ -11046,20 +11046,20 @@
         </is>
       </c>
       <c r="D509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B510">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
@@ -11067,20 +11067,20 @@
         </is>
       </c>
       <c r="D510">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B511">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
@@ -11097,11 +11097,11 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Sapucaia</t>
         </is>
       </c>
       <c r="B512">
-        <v>330550</v>
+        <v>330540</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
@@ -11112,17 +11112,17 @@
         <v>0</v>
       </c>
       <c r="E512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B513">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
@@ -11130,20 +11130,20 @@
         </is>
       </c>
       <c r="D513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B514">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
@@ -11160,11 +11160,11 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B515">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
@@ -11181,11 +11181,11 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B516">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
@@ -11196,17 +11196,17 @@
         <v>0</v>
       </c>
       <c r="E516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B517">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
@@ -11214,20 +11214,20 @@
         </is>
       </c>
       <c r="D517">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E517">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B518">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
@@ -11244,11 +11244,11 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B519">
-        <v>330555</v>
+        <v>330550</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
@@ -11259,17 +11259,17 @@
         <v>0</v>
       </c>
       <c r="E519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B520">
-        <v>330560</v>
+        <v>330555</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
@@ -11286,11 +11286,11 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B521">
-        <v>330560</v>
+        <v>330555</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
@@ -11298,20 +11298,20 @@
         </is>
       </c>
       <c r="D521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B522">
-        <v>330560</v>
+        <v>330555</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
@@ -11328,11 +11328,11 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B523">
-        <v>330560</v>
+        <v>330555</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         </is>
       </c>
       <c r="D523">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E523">
         <v>1</v>
@@ -11349,11 +11349,11 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B524">
-        <v>330560</v>
+        <v>330555</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
@@ -11361,20 +11361,20 @@
         </is>
       </c>
       <c r="D524">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E524">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B525">
-        <v>330560</v>
+        <v>330555</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Silva Jardim</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B526">
-        <v>330560</v>
+        <v>330555</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
@@ -11406,17 +11406,17 @@
         <v>0</v>
       </c>
       <c r="E526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B527">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
@@ -11424,20 +11424,20 @@
         </is>
       </c>
       <c r="D527">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B528">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
@@ -11454,11 +11454,11 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B529">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
@@ -11475,11 +11475,11 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B530">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
@@ -11487,20 +11487,20 @@
         </is>
       </c>
       <c r="D530">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E530">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B531">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
@@ -11508,20 +11508,20 @@
         </is>
       </c>
       <c r="D531">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B532">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
@@ -11538,11 +11538,11 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Silva Jardim</t>
         </is>
       </c>
       <c r="B533">
-        <v>330570</v>
+        <v>330560</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
@@ -11559,11 +11559,11 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B534">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
@@ -11571,20 +11571,20 @@
         </is>
       </c>
       <c r="D534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B535">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
@@ -11592,20 +11592,20 @@
         </is>
       </c>
       <c r="D535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B536">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
@@ -11616,17 +11616,17 @@
         <v>0</v>
       </c>
       <c r="E536">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B537">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
@@ -11634,20 +11634,20 @@
         </is>
       </c>
       <c r="D537">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E537">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B538">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
@@ -11655,20 +11655,20 @@
         </is>
       </c>
       <c r="D538">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B539">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
@@ -11685,11 +11685,11 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Sumidouro</t>
         </is>
       </c>
       <c r="B540">
-        <v>330575</v>
+        <v>330570</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
@@ -11706,11 +11706,11 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B541">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
@@ -11718,20 +11718,20 @@
         </is>
       </c>
       <c r="D541">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E541">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B542">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
@@ -11742,17 +11742,17 @@
         <v>0</v>
       </c>
       <c r="E542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B543">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
@@ -11763,17 +11763,17 @@
         <v>0</v>
       </c>
       <c r="E543">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B544">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
@@ -11784,17 +11784,17 @@
         <v>0</v>
       </c>
       <c r="E544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B545">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
@@ -11811,11 +11811,11 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B546">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
@@ -11832,11 +11832,11 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B547">
-        <v>330580</v>
+        <v>330575</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
@@ -11844,20 +11844,20 @@
         </is>
       </c>
       <c r="D547">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B548">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
@@ -11865,20 +11865,20 @@
         </is>
       </c>
       <c r="D548">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E548">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B549">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
@@ -11889,17 +11889,17 @@
         <v>0</v>
       </c>
       <c r="E549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B550">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
@@ -11916,11 +11916,11 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B551">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C551" t="inlineStr">
         <is>
@@ -11931,17 +11931,17 @@
         <v>0</v>
       </c>
       <c r="E551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B552">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
@@ -11958,11 +11958,11 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B553">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
@@ -11979,11 +11979,11 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Três Rios</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B554">
-        <v>330600</v>
+        <v>330580</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
@@ -11991,20 +11991,20 @@
         </is>
       </c>
       <c r="D554">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B555">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
@@ -12012,20 +12012,20 @@
         </is>
       </c>
       <c r="D555">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E555">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B556">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C556" t="inlineStr">
         <is>
@@ -12042,11 +12042,11 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B557">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
@@ -12063,11 +12063,11 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B558">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
@@ -12075,20 +12075,20 @@
         </is>
       </c>
       <c r="D558">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E558">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B559">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
@@ -12096,20 +12096,20 @@
         </is>
       </c>
       <c r="D559">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E559">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B560">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
@@ -12126,11 +12126,11 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Três Rios</t>
         </is>
       </c>
       <c r="B561">
-        <v>330610</v>
+        <v>330600</v>
       </c>
       <c r="C561" t="inlineStr">
         <is>
@@ -12141,17 +12141,17 @@
         <v>0</v>
       </c>
       <c r="E561">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B562">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
@@ -12159,20 +12159,20 @@
         </is>
       </c>
       <c r="D562">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E562">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B563">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
@@ -12189,11 +12189,11 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B564">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
@@ -12210,11 +12210,11 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B565">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
@@ -12222,20 +12222,20 @@
         </is>
       </c>
       <c r="D565">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E565">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B566">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
@@ -12243,20 +12243,20 @@
         </is>
       </c>
       <c r="D566">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E566">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B567">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
@@ -12273,11 +12273,11 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Vassouras</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B568">
-        <v>330620</v>
+        <v>330610</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
@@ -12288,17 +12288,17 @@
         <v>0</v>
       </c>
       <c r="E568">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B569">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
@@ -12306,20 +12306,20 @@
         </is>
       </c>
       <c r="D569">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E569">
-        <v>134</v>
+        <v>7</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B570">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
@@ -12327,20 +12327,20 @@
         </is>
       </c>
       <c r="D570">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E570">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B571">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C571" t="inlineStr">
         <is>
@@ -12348,20 +12348,20 @@
         </is>
       </c>
       <c r="D571">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E571">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B572">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
@@ -12369,20 +12369,20 @@
         </is>
       </c>
       <c r="D572">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E572">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B573">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
@@ -12390,20 +12390,20 @@
         </is>
       </c>
       <c r="D573">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E573">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B574">
-        <v>330630</v>
+        <v>330620</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
@@ -12411,30 +12411,177 @@
         </is>
       </c>
       <c r="D574">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E574">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
+          <t>Vassouras</t>
+        </is>
+      </c>
+      <c r="B575">
+        <v>330620</v>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>16/11/2023</t>
+        </is>
+      </c>
+      <c r="D575">
+        <v>0</v>
+      </c>
+      <c r="E575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
           <t>Volta Redonda</t>
         </is>
       </c>
-      <c r="B575">
+      <c r="B576">
         <v>330630</v>
       </c>
-      <c r="C575" t="inlineStr">
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="D576">
+        <v>28</v>
+      </c>
+      <c r="E576">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B577">
+        <v>330630</v>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="D577">
+        <v>8</v>
+      </c>
+      <c r="E577">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B578">
+        <v>330630</v>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="D578">
+        <v>14</v>
+      </c>
+      <c r="E578">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B579">
+        <v>330630</v>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="D579">
+        <v>28</v>
+      </c>
+      <c r="E579">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B580">
+        <v>330630</v>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>14/11/2023</t>
+        </is>
+      </c>
+      <c r="D580">
+        <v>19</v>
+      </c>
+      <c r="E580">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B581">
+        <v>330630</v>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>15/11/2023</t>
+        </is>
+      </c>
+      <c r="D581">
+        <v>7</v>
+      </c>
+      <c r="E581">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="B582">
+        <v>330630</v>
+      </c>
+      <c r="C582" t="inlineStr">
         <is>
           <t>16/11/2023</t>
         </is>
       </c>
-      <c r="D575">
+      <c r="D582">
         <v>20</v>
       </c>
-      <c r="E575">
+      <c r="E582">
         <v>84</v>
       </c>
     </row>

--- a/inst/planilha_esus.xlsx
+++ b/inst/planilha_esus.xlsx
@@ -395,14 +395,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -416,14 +416,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -437,14 +437,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -458,14 +458,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -479,14 +479,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -500,14 +500,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -521,14 +521,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -542,7 +542,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D9">
@@ -563,14 +563,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -584,14 +584,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -605,7 +605,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D12">
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D13">
@@ -647,7 +647,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D14">
@@ -668,7 +668,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D15">
@@ -689,14 +689,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -710,14 +710,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -731,14 +731,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -752,14 +752,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -773,14 +773,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -794,14 +794,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -815,7 +815,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D22">
@@ -836,14 +836,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -857,7 +857,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D24">
@@ -878,14 +878,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -899,14 +899,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -920,14 +920,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -941,7 +941,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D28">
@@ -962,7 +962,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D29">
@@ -983,14 +983,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D31">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D32">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D33">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D34">
@@ -1088,14 +1088,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D36">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D37">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D38">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D39">
@@ -1193,14 +1193,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1214,14 +1214,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D42">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D43">
@@ -1277,11 +1277,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1298,14 +1298,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1319,14 +1319,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D47">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D48">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D50">
@@ -1424,14 +1424,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -1487,14 +1487,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -1508,14 +1508,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -1529,14 +1529,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1571,14 +1571,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -1592,14 +1592,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1613,14 +1613,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -1634,14 +1634,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1655,14 +1655,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D63">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D64">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D65">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D67">
@@ -1781,14 +1781,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -1802,14 +1802,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1823,14 +1823,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -1844,14 +1844,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D72">
@@ -1886,14 +1886,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D74">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D76">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D77">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D78">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D79">
@@ -2033,14 +2033,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2054,14 +2054,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -2075,14 +2075,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2096,11 +2096,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2117,14 +2117,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2138,14 +2138,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2159,14 +2159,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2180,14 +2180,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
@@ -2201,14 +2201,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
@@ -2222,14 +2222,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -2243,14 +2243,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -2264,14 +2264,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -2285,14 +2285,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D93">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D94">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D95">
@@ -2369,14 +2369,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2390,14 +2390,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D98">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D99">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2474,14 +2474,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2516,14 +2516,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2537,14 +2537,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2558,14 +2558,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -2579,14 +2579,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D107">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D108">
@@ -2642,14 +2642,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2663,14 +2663,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D111">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D112">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D113">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D114">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D115">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D116">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D117">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D118">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D119">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D120">
@@ -2894,14 +2894,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -2915,14 +2915,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -2936,14 +2936,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -2957,14 +2957,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D125">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D126">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D127">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D128">
@@ -3062,14 +3062,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3083,14 +3083,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D131">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D132">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D133">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D134">
@@ -3188,14 +3188,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D136">
@@ -3230,14 +3230,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -3272,14 +3272,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D140">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D141">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D142">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D143">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D144">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D145">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D146">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D147">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D148">
@@ -3482,14 +3482,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -3503,11 +3503,11 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D151">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D152">
@@ -3566,14 +3566,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D154">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D155">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -3650,14 +3650,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
@@ -3671,14 +3671,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -3692,14 +3692,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D160">
@@ -3734,14 +3734,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162">
@@ -3755,14 +3755,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D163">
@@ -3797,14 +3797,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D166">
@@ -3860,14 +3860,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -3881,14 +3881,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D169">
@@ -3923,14 +3923,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -3944,14 +3944,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172">
@@ -3965,14 +3965,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
@@ -3986,14 +3986,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -4007,14 +4007,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4028,14 +4028,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D176">
@@ -4070,14 +4070,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4091,14 +4091,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -4112,14 +4112,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D180">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D181">
@@ -4175,14 +4175,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D183">
@@ -4217,14 +4217,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -4238,14 +4238,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -4259,14 +4259,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4280,14 +4280,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -4301,14 +4301,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4322,14 +4322,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -4343,14 +4343,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D191">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D192">
@@ -4406,14 +4406,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -4427,14 +4427,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -4448,14 +4448,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D195">
         <v>1</v>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -4469,14 +4469,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D197">
@@ -4511,14 +4511,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -4532,14 +4532,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200">
@@ -4553,14 +4553,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -4574,11 +4574,11 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E201">
         <v>3</v>
@@ -4595,14 +4595,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E202">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203">
@@ -4616,14 +4616,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -4637,14 +4637,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D205">
@@ -4679,14 +4679,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -4700,14 +4700,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D208">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D209">
@@ -4763,14 +4763,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -4784,14 +4784,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -4805,14 +4805,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -4826,14 +4826,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -4847,14 +4847,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D215">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D216">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D217">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D218">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D219">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D220">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D221">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D222">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D223">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D224">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D225">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D226">
@@ -5120,14 +5120,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228">
@@ -5141,14 +5141,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D228">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
@@ -5162,14 +5162,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D229">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E229">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D230">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D231">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D232">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D233">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D234">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D235">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D236">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D237">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D238">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D239">
@@ -5393,14 +5393,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -5414,14 +5414,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
@@ -5435,14 +5435,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D243">
@@ -5477,14 +5477,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -5498,14 +5498,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D246">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D247">
@@ -5561,14 +5561,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D248">
         <v>0</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D249">
@@ -5603,14 +5603,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D251">
@@ -5645,14 +5645,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -5666,14 +5666,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -5687,14 +5687,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E254">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="255">
@@ -5708,14 +5708,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E255">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256">
@@ -5729,14 +5729,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="257">
@@ -5750,14 +5750,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="258">
@@ -5771,14 +5771,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E258">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="259">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D259">
         <v>0</v>
       </c>
       <c r="E259">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="260">
@@ -5813,14 +5813,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D261">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D262">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D263">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D264">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D265">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D266">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D267">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D268">
@@ -6002,14 +6002,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D269">
         <v>0</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D270">
@@ -6044,14 +6044,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E271">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -6065,11 +6065,11 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E272">
         <v>2</v>
@@ -6086,14 +6086,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D273">
         <v>0</v>
       </c>
       <c r="E273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D274">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D275">
@@ -6149,14 +6149,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D276">
         <v>0</v>
       </c>
       <c r="E276">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -6170,14 +6170,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D277">
         <v>0</v>
       </c>
       <c r="E277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D278">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D279">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D280">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D281">
@@ -6275,14 +6275,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D282">
         <v>0</v>
       </c>
       <c r="E282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D283">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D284">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D285">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D286">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D287">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D288">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D289">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D290">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D291">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D292">
@@ -6506,14 +6506,14 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D293">
         <v>0</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -6527,11 +6527,11 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -6548,14 +6548,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -6569,7 +6569,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D296">
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D297">
         <v>0</v>
       </c>
       <c r="E297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -6611,14 +6611,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E298">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -6632,14 +6632,14 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E299">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D300">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D301">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D302">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D303">
@@ -6737,14 +6737,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D304">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E304">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="305">
@@ -6758,14 +6758,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D305">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E305">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306">
@@ -6779,11 +6779,11 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E306">
         <v>17</v>
@@ -6800,14 +6800,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E307">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308">
@@ -6821,14 +6821,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E308">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309">
@@ -6842,14 +6842,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D309">
         <v>0</v>
       </c>
       <c r="E309">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -6863,14 +6863,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D310">
         <v>0</v>
       </c>
       <c r="E310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -6884,14 +6884,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E311">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="312">
@@ -6905,14 +6905,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D312">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E312">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313">
@@ -6926,14 +6926,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D313">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E313">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314">
@@ -6947,14 +6947,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D314">
         <v>0</v>
       </c>
       <c r="E314">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -6968,14 +6968,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D315">
         <v>0</v>
       </c>
       <c r="E315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D316">
@@ -7010,14 +7010,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D317">
         <v>0</v>
       </c>
       <c r="E317">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318">
@@ -7031,14 +7031,14 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D318">
         <v>0</v>
       </c>
       <c r="E318">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319">
@@ -7052,14 +7052,14 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D319">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E319">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320">
@@ -7073,14 +7073,14 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D320">
         <v>3</v>
       </c>
       <c r="E320">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321">
@@ -7094,14 +7094,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D321">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E321">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322">
@@ -7115,14 +7115,14 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D322">
         <v>1</v>
       </c>
       <c r="E322">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323">
@@ -7136,14 +7136,14 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E323">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324">
@@ -7157,14 +7157,14 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D324">
         <v>0</v>
       </c>
       <c r="E324">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -7178,14 +7178,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E325">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -7199,14 +7199,14 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E326">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327">
@@ -7220,14 +7220,14 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D327">
         <v>0</v>
       </c>
       <c r="E327">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D328">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D329">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D330">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D331">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D332">
@@ -7346,14 +7346,14 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D333">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334">
@@ -7367,14 +7367,14 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D334">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E334">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D335">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D336">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D337">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D338">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D339">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D340">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D341">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D342">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D343">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D344">
@@ -7598,7 +7598,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D345">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D346">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D347">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D348">
@@ -7682,14 +7682,14 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D349">
         <v>0</v>
       </c>
       <c r="E349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -7703,14 +7703,14 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D350">
         <v>0</v>
       </c>
       <c r="E350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D351">
@@ -7745,14 +7745,14 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E352">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353">
@@ -7766,14 +7766,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D353">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E353">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="354">
@@ -7787,14 +7787,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D354">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E354">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="355">
@@ -7808,14 +7808,14 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D355">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E355">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="356">
@@ -7829,14 +7829,14 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D356">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E356">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="357">
@@ -7850,14 +7850,14 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D357">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E357">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="358">
@@ -7871,14 +7871,14 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D358">
         <v>2</v>
       </c>
       <c r="E358">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="359">
@@ -7892,14 +7892,14 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -7913,14 +7913,14 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="361">
@@ -7934,14 +7934,14 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E361">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -7955,14 +7955,14 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E362">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="363">
@@ -7976,14 +7976,14 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E363">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
@@ -7997,14 +7997,14 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D364">
         <v>0</v>
       </c>
       <c r="E364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D365">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D366">
@@ -8060,14 +8060,14 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D367">
         <v>0</v>
       </c>
       <c r="E367">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="368">
@@ -8081,14 +8081,14 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D368">
         <v>0</v>
       </c>
       <c r="E368">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D369">
@@ -8123,14 +8123,14 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D370">
         <v>0</v>
       </c>
       <c r="E370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D371">
@@ -8165,7 +8165,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D372">
@@ -8186,14 +8186,14 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D373">
         <v>0</v>
       </c>
       <c r="E373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -8207,14 +8207,14 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D374">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E374">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -8228,14 +8228,14 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D375">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E375">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376">
@@ -8249,14 +8249,14 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D376">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D377">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D378">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D379">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D380">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D381">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D382">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D383">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D384">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D385">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D386">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D387">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D388">
@@ -8522,14 +8522,14 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -8543,14 +8543,14 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D391">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D392">
@@ -8606,7 +8606,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D393">
@@ -8627,14 +8627,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D394">
         <v>0</v>
       </c>
       <c r="E394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -8648,14 +8648,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D395">
         <v>0</v>
       </c>
       <c r="E395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -8669,14 +8669,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D396">
         <v>0</v>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -8690,14 +8690,14 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D397">
         <v>0</v>
       </c>
       <c r="E397">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -8711,14 +8711,14 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D398">
         <v>0</v>
       </c>
       <c r="E398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -8732,14 +8732,14 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D399">
         <v>0</v>
       </c>
       <c r="E399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -8753,14 +8753,14 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D400">
         <v>0</v>
       </c>
       <c r="E400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -8774,14 +8774,14 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E401">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402">
@@ -8795,14 +8795,14 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E402">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="403">
@@ -8816,14 +8816,14 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D403">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E403">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="404">
@@ -8837,14 +8837,14 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D404">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E404">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -8858,11 +8858,11 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E405">
         <v>2</v>
@@ -8879,14 +8879,14 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D407">
@@ -8921,14 +8921,14 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D408">
         <v>0</v>
       </c>
       <c r="E408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -8942,14 +8942,14 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D409">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E409">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="410">
@@ -8963,14 +8963,14 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D410">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E410">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411">
@@ -8984,14 +8984,14 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D411">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E411">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -9005,14 +9005,14 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -9026,14 +9026,14 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D414">
@@ -9068,7 +9068,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D415">
@@ -9089,14 +9089,14 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D416">
         <v>0</v>
       </c>
       <c r="E416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -9110,14 +9110,14 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D417">
         <v>0</v>
       </c>
       <c r="E417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D418">
@@ -9152,14 +9152,14 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D419">
         <v>0</v>
       </c>
       <c r="E419">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -9173,14 +9173,14 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D420">
         <v>0</v>
       </c>
       <c r="E420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D421">
@@ -9215,7 +9215,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D422">
@@ -9236,7 +9236,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D423">
@@ -9257,14 +9257,14 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D424">
         <v>0</v>
       </c>
       <c r="E424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -9278,14 +9278,14 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D425">
         <v>0</v>
       </c>
       <c r="E425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D426">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D427">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D428">
@@ -9362,7 +9362,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D429">
@@ -9383,14 +9383,14 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D430">
         <v>0</v>
       </c>
       <c r="E430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D431">
@@ -9425,14 +9425,14 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D432">
         <v>0</v>
       </c>
       <c r="E432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -9446,14 +9446,14 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D433">
         <v>0</v>
       </c>
       <c r="E433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D434">
@@ -9488,14 +9488,14 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D435">
         <v>0</v>
       </c>
       <c r="E435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -9509,14 +9509,14 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D436">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E436">
-        <v>329</v>
+        <v>57</v>
       </c>
     </row>
     <row r="437">
@@ -9530,14 +9530,14 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D437">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E437">
-        <v>57</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="438">
@@ -9551,14 +9551,14 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D438">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E438">
-        <v>1558</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="439">
@@ -9572,14 +9572,14 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D439">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E439">
-        <v>1289</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="440">
@@ -9593,14 +9593,14 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D440">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E440">
-        <v>1132</v>
+        <v>928</v>
       </c>
     </row>
     <row r="441">
@@ -9614,14 +9614,14 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D441">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E441">
-        <v>924</v>
+        <v>732</v>
       </c>
     </row>
     <row r="442">
@@ -9635,14 +9635,14 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D442">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="E442">
-        <v>691</v>
+        <v>241</v>
       </c>
     </row>
     <row r="443">
@@ -9656,14 +9656,14 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D443">
         <v>0</v>
       </c>
       <c r="E443">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="444">
@@ -9677,14 +9677,14 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E444">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="445">
@@ -9698,14 +9698,14 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D445">
         <v>1</v>
       </c>
       <c r="E445">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="446">
@@ -9719,14 +9719,14 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D446">
         <v>1</v>
       </c>
       <c r="E446">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="447">
@@ -9740,11 +9740,11 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E447">
         <v>8</v>
@@ -9761,14 +9761,14 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D448">
         <v>0</v>
       </c>
       <c r="E448">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -9782,7 +9782,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D449">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D450">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D451">
@@ -9845,7 +9845,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D452">
@@ -9866,7 +9866,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D453">
@@ -9887,14 +9887,14 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -9908,14 +9908,14 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D456">
@@ -9950,14 +9950,14 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D457">
         <v>0</v>
       </c>
       <c r="E457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -9971,14 +9971,14 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E458">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="459">
@@ -9992,14 +9992,14 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D459">
         <v>1</v>
       </c>
       <c r="E459">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="460">
@@ -10013,14 +10013,14 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D460">
         <v>1</v>
       </c>
       <c r="E460">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="461">
@@ -10034,14 +10034,14 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E461">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="462">
@@ -10055,14 +10055,14 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D462">
         <v>0</v>
       </c>
       <c r="E462">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D463">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D464">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D465">
@@ -10139,14 +10139,14 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D466">
         <v>0</v>
       </c>
       <c r="E466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -10160,14 +10160,14 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D467">
         <v>0</v>
       </c>
       <c r="E467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -10181,14 +10181,14 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D468">
         <v>0</v>
       </c>
       <c r="E468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -10202,14 +10202,14 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D469">
         <v>0</v>
       </c>
       <c r="E469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D470">
@@ -10244,7 +10244,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D471">
@@ -10265,14 +10265,14 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D472">
         <v>0</v>
       </c>
       <c r="E472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -10286,14 +10286,14 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D473">
         <v>0</v>
       </c>
       <c r="E473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D474">
@@ -10328,7 +10328,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D475">
@@ -10349,7 +10349,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D476">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D477">
@@ -10391,14 +10391,14 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D478">
         <v>0</v>
       </c>
       <c r="E478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D479">
@@ -10433,14 +10433,14 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D480">
         <v>0</v>
       </c>
       <c r="E480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D481">
@@ -10475,14 +10475,14 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D482">
         <v>0</v>
       </c>
       <c r="E482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -10496,14 +10496,14 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D483">
         <v>0</v>
       </c>
       <c r="E483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D484">
@@ -10538,7 +10538,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D485">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D486">
@@ -10580,7 +10580,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D487">
@@ -10601,7 +10601,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D488">
@@ -10622,7 +10622,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D489">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D490">
@@ -10664,7 +10664,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D491">
@@ -10685,11 +10685,11 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E492">
         <v>1</v>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D493">
@@ -10727,14 +10727,14 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -10748,7 +10748,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D495">
@@ -10769,7 +10769,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D496">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D497">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D498">
@@ -10832,14 +10832,14 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D499">
         <v>0</v>
       </c>
       <c r="E499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -10853,14 +10853,14 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D500">
         <v>0</v>
       </c>
       <c r="E500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -10874,14 +10874,14 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D501">
         <v>0</v>
       </c>
       <c r="E501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -10895,14 +10895,14 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
@@ -10916,14 +10916,14 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D503">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D504">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D505">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D506">
@@ -11000,7 +11000,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D507">
@@ -11021,14 +11021,14 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D508">
         <v>0</v>
       </c>
       <c r="E508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -11042,14 +11042,14 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D509">
         <v>0</v>
       </c>
       <c r="E509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D510">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D511">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D512">
@@ -11126,14 +11126,14 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -11147,7 +11147,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D514">
@@ -11168,7 +11168,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D515">
@@ -11189,14 +11189,14 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -11210,7 +11210,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D517">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D518">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D519">
@@ -11273,7 +11273,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D520">
@@ -11294,14 +11294,14 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522">
@@ -11315,14 +11315,14 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D522">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D523">
@@ -11357,7 +11357,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D524">
@@ -11378,7 +11378,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D525">
@@ -11399,7 +11399,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D526">
@@ -11420,7 +11420,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D527">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D528">
@@ -11462,7 +11462,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D529">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D530">
@@ -11504,14 +11504,14 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D531">
         <v>0</v>
       </c>
       <c r="E531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532">
@@ -11525,14 +11525,14 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D532">
         <v>0</v>
       </c>
       <c r="E532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D533">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D534">
@@ -11588,14 +11588,14 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D535">
         <v>0</v>
       </c>
       <c r="E535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -11609,14 +11609,14 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D536">
         <v>0</v>
       </c>
       <c r="E536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -11630,14 +11630,14 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D537">
         <v>0</v>
       </c>
       <c r="E537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -11651,14 +11651,14 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D538">
         <v>0</v>
       </c>
       <c r="E538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -11672,14 +11672,14 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D539">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -11693,14 +11693,14 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -11714,7 +11714,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D541">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D542">
@@ -11756,7 +11756,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D543">
@@ -11777,14 +11777,14 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D544">
         <v>0</v>
       </c>
       <c r="E544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -11798,14 +11798,14 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D545">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546">
@@ -11819,14 +11819,14 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D547">
@@ -11861,14 +11861,14 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D548">
         <v>0</v>
       </c>
       <c r="E548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -11882,14 +11882,14 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D549">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E549">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="550">
@@ -11903,14 +11903,14 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D550">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E550">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="551">
@@ -11924,14 +11924,14 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D551">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E551">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="552">
@@ -11945,14 +11945,14 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D552">
         <v>0</v>
       </c>
       <c r="E552">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -11966,14 +11966,14 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D553">
         <v>0</v>
       </c>
       <c r="E553">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -11987,14 +11987,14 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D554">
         <v>0</v>
       </c>
       <c r="E554">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -12008,14 +12008,14 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D555">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E555">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556">
@@ -12029,14 +12029,14 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D556">
         <v>0</v>
       </c>
       <c r="E556">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557">
@@ -12050,14 +12050,14 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D557">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E557">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558">
@@ -12071,14 +12071,14 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D558">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E558">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -12092,14 +12092,14 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D559">
         <v>0</v>
       </c>
       <c r="E559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -12113,7 +12113,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D560">
@@ -12134,7 +12134,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D561">
@@ -12155,14 +12155,14 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>25/11/2023</t>
+          <t>26/11/2023</t>
         </is>
       </c>
       <c r="D562">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E562">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="563">
@@ -12176,14 +12176,14 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>26/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="D563">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E563">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="564">
@@ -12197,14 +12197,14 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="D564">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E564">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="565">
@@ -12218,14 +12218,14 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="D565">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E565">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="566">
@@ -12239,14 +12239,14 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="D566">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E566">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="567">
@@ -12260,14 +12260,14 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="D567">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E567">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="568">
@@ -12281,14 +12281,14 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/12/2023</t>
         </is>
       </c>
       <c r="D568">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E568">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/inst/planilha_esus.xlsx
+++ b/inst/planilha_esus.xlsx
@@ -395,14 +395,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -416,14 +416,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -437,14 +437,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -458,14 +458,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -479,14 +479,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>4</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -500,14 +500,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -521,14 +521,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -542,7 +542,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D9">
@@ -563,14 +563,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -584,14 +584,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -605,7 +605,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D12">
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D13">
@@ -647,7 +647,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D14">
@@ -668,7 +668,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D15">
@@ -689,7 +689,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D16">
@@ -710,7 +710,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D17">
@@ -731,7 +731,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D18">
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D19">
@@ -773,14 +773,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -794,14 +794,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -815,7 +815,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D22">
@@ -836,7 +836,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D23">
@@ -857,7 +857,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D24">
@@ -878,7 +878,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D25">
@@ -899,7 +899,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D26">
@@ -920,7 +920,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D27">
@@ -941,7 +941,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D28">
@@ -962,7 +962,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D29">
@@ -983,14 +983,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1004,14 +1004,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D32">
@@ -1046,14 +1046,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1067,14 +1067,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1088,14 +1088,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D36">
@@ -1130,14 +1130,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1151,14 +1151,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1193,14 +1193,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1214,14 +1214,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D42">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D43">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D44">
@@ -1298,14 +1298,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1319,14 +1319,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1403,14 +1403,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1424,14 +1424,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D54">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D55">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D56">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D57">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D58">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D59">
@@ -1613,14 +1613,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1634,14 +1634,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D62">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D63">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D64">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D65">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D66">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D67">
@@ -1781,14 +1781,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D69">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D70">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D71">
@@ -1865,14 +1865,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -1886,14 +1886,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
@@ -1907,14 +1907,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D75">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D76">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D77">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D78">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D79">
@@ -2033,14 +2033,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2054,14 +2054,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D82">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D83">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D84">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D85">
@@ -2159,14 +2159,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -2180,14 +2180,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2201,14 +2201,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D89">
@@ -2243,14 +2243,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2264,14 +2264,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D92">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D93">
@@ -2327,14 +2327,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2348,14 +2348,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2369,14 +2369,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D97">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D98">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D99">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2474,14 +2474,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D102">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D103">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D104">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D105">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D106">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D107">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D108">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D109">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D110">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D111">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D112">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D113">
@@ -2747,14 +2747,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D115">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D116">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D117">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D118">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D119">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D120">
@@ -2894,14 +2894,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
@@ -2915,14 +2915,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
@@ -2936,14 +2936,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
@@ -2957,14 +2957,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
         <v>2</v>
-      </c>
-      <c r="E124">
-        <v>7</v>
       </c>
     </row>
     <row r="125">
@@ -2978,14 +2978,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D126">
@@ -3020,14 +3020,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D128">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D129">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D130">
@@ -3104,14 +3104,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3125,14 +3125,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D133">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D134">
@@ -3188,14 +3188,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3209,14 +3209,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
@@ -3230,14 +3230,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D138">
@@ -3272,14 +3272,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D140">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D141">
@@ -3335,14 +3335,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3356,14 +3356,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -3377,14 +3377,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -3398,14 +3398,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D146">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -3461,14 +3461,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3482,11 +3482,11 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -3503,14 +3503,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -3524,14 +3524,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -3545,14 +3545,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D153">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D154">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D155">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D156">
@@ -3650,14 +3650,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -3671,14 +3671,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D159">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D160">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D161">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D162">
@@ -3776,14 +3776,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -3797,14 +3797,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E164">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D165">
@@ -3839,14 +3839,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -3860,14 +3860,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D168">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D169">
@@ -3923,14 +3923,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
@@ -3944,14 +3944,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -3965,14 +3965,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
         <v>2</v>
-      </c>
-      <c r="E172">
-        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -3986,14 +3986,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
@@ -4007,14 +4007,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D174">
         <v>1</v>
       </c>
       <c r="E174">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -4028,14 +4028,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D176">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D177">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D178">
@@ -4112,14 +4112,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -4133,14 +4133,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D181">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D182">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D183">
@@ -4217,14 +4217,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -4238,14 +4238,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -4259,14 +4259,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D187">
@@ -4301,14 +4301,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -4322,14 +4322,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D190">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D191">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D192">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D193">
@@ -4427,14 +4427,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -4448,14 +4448,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D196">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D197">
@@ -4511,14 +4511,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -4532,11 +4532,11 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E199">
         <v>3</v>
@@ -4553,14 +4553,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D201">
@@ -4595,14 +4595,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -4616,14 +4616,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D204">
@@ -4658,14 +4658,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -4679,14 +4679,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -4700,14 +4700,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D208">
@@ -4742,14 +4742,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -4763,14 +4763,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -4784,14 +4784,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -4805,14 +4805,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -4826,14 +4826,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -4847,14 +4847,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D215">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D216">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D217">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D218">
@@ -4952,14 +4952,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220">
@@ -4973,14 +4973,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221">
@@ -4994,14 +4994,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="222">
@@ -5015,14 +5015,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D223">
@@ -5057,14 +5057,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225">
@@ -5078,14 +5078,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D225">
         <v>0</v>
       </c>
       <c r="E225">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226">
@@ -5099,14 +5099,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D227">
@@ -5141,14 +5141,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D228">
         <v>0</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D229">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D230">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D231">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D232">
@@ -5246,14 +5246,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234">
@@ -5267,14 +5267,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D234">
         <v>0</v>
       </c>
       <c r="E234">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235">
@@ -5288,14 +5288,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D236">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D237">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D238">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D239">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D240">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D241">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D242">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D243">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D244">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D245">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D246">
@@ -5540,14 +5540,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D247">
         <v>0</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -5561,14 +5561,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D248">
         <v>0</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -5582,14 +5582,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D249">
         <v>0</v>
       </c>
       <c r="E249">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -5603,14 +5603,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D251">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D252">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D253">
@@ -5687,14 +5687,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="255">
@@ -5708,14 +5708,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D255">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E255">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="256">
@@ -5729,14 +5729,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D256">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E256">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257">
@@ -5750,14 +5750,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258">
@@ -5771,14 +5771,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D258">
         <v>1</v>
       </c>
       <c r="E258">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D259">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D260">
@@ -5834,14 +5834,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E261">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="262">
@@ -5855,14 +5855,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E262">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="263">
@@ -5876,14 +5876,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D263">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E263">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264">
@@ -5897,14 +5897,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D264">
         <v>0</v>
       </c>
       <c r="E264">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -5918,14 +5918,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D266">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D267">
@@ -5981,14 +5981,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E268">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="269">
@@ -6002,14 +6002,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E269">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270">
@@ -6023,14 +6023,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D270">
         <v>0</v>
       </c>
       <c r="E270">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271">
@@ -6044,14 +6044,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D271">
         <v>0</v>
       </c>
       <c r="E271">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272">
@@ -6065,14 +6065,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273">
@@ -6086,14 +6086,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D273">
         <v>0</v>
       </c>
       <c r="E273">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274">
@@ -6107,14 +6107,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D275">
@@ -6149,14 +6149,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D276">
         <v>0</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -6170,14 +6170,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D277">
         <v>0</v>
       </c>
       <c r="E277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -6191,14 +6191,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D278">
         <v>0</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -6212,14 +6212,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D279">
         <v>0</v>
       </c>
       <c r="E279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D280">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D281">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D282">
@@ -6296,14 +6296,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -6317,14 +6317,14 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E284">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -6338,14 +6338,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D285">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D286">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D287">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D288">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D289">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D290">
@@ -6464,14 +6464,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D291">
         <v>0</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D292">
@@ -6506,11 +6506,11 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -6527,14 +6527,14 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D295">
@@ -6569,14 +6569,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D296">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E296">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="297">
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D297">
         <v>3</v>
       </c>
       <c r="E297">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="298">
@@ -6611,14 +6611,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D298">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E298">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="299">
@@ -6632,14 +6632,14 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D299">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E299">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="300">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D300">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E300">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="301">
@@ -6674,14 +6674,14 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D301">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E301">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="302">
@@ -6695,14 +6695,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E302">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303">
@@ -6716,14 +6716,14 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304">
@@ -6737,14 +6737,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D304">
         <v>1</v>
       </c>
       <c r="E304">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305">
@@ -6758,14 +6758,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E305">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306">
@@ -6779,14 +6779,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D306">
         <v>0</v>
       </c>
       <c r="E306">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -6800,14 +6800,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D307">
         <v>0</v>
       </c>
       <c r="E307">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -6821,14 +6821,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D308">
         <v>0</v>
       </c>
       <c r="E308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D309">
@@ -6863,14 +6863,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D310">
         <v>0</v>
       </c>
       <c r="E310">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -6884,14 +6884,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D311">
         <v>0</v>
       </c>
       <c r="E311">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -6905,14 +6905,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D312">
         <v>0</v>
       </c>
       <c r="E312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -6926,14 +6926,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D313">
         <v>0</v>
       </c>
       <c r="E313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -6947,14 +6947,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D314">
         <v>0</v>
       </c>
       <c r="E314">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -6968,14 +6968,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D315">
         <v>0</v>
       </c>
       <c r="E315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D316">
@@ -7010,14 +7010,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D317">
         <v>0</v>
       </c>
       <c r="E317">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -7031,14 +7031,14 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D318">
         <v>0</v>
       </c>
       <c r="E318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D319">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D320">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D321">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D322">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D323">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D324">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D325">
@@ -7199,14 +7199,14 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D326">
         <v>0</v>
       </c>
       <c r="E326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D327">
@@ -7241,14 +7241,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D328">
         <v>0</v>
       </c>
       <c r="E328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D329">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D330">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D331">
@@ -7325,14 +7325,14 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E332">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333">
@@ -7346,14 +7346,14 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E333">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D334">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D335">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D336">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D337">
@@ -7451,14 +7451,14 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D338">
         <v>0</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -7472,14 +7472,14 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D339">
         <v>0</v>
       </c>
       <c r="E339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -7493,14 +7493,14 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -7514,14 +7514,14 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D342">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D343">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D344">
@@ -7598,11 +7598,11 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -7619,7 +7619,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D346">
@@ -7640,14 +7640,14 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E347">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -7661,14 +7661,14 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E348">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -7682,14 +7682,14 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -7703,11 +7703,11 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E350">
         <v>1</v>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D351">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D352">
@@ -7766,14 +7766,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D353">
         <v>0</v>
       </c>
       <c r="E353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -7787,14 +7787,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D354">
         <v>0</v>
       </c>
       <c r="E354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D355">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D356">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D357">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D358">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D359">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D360">
@@ -7934,14 +7934,14 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D361">
         <v>0</v>
       </c>
       <c r="E361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -7955,14 +7955,14 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -7976,11 +7976,11 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E363">
         <v>1</v>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D364">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D365">
@@ -8039,14 +8039,14 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D366">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="E366">
-        <v>40</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="367">
@@ -8060,14 +8060,14 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D367">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E367">
-        <v>1237</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="368">
@@ -8081,14 +8081,14 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D368">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E368">
-        <v>1100</v>
+        <v>937</v>
       </c>
     </row>
     <row r="369">
@@ -8102,14 +8102,14 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D369">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E369">
-        <v>936</v>
+        <v>783</v>
       </c>
     </row>
     <row r="370">
@@ -8123,14 +8123,14 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D370">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E370">
-        <v>759</v>
+        <v>743</v>
       </c>
     </row>
     <row r="371">
@@ -8144,14 +8144,14 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D371">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E371">
-        <v>694</v>
+        <v>160</v>
       </c>
     </row>
     <row r="372">
@@ -8165,14 +8165,14 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D372">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E372">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="373">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D373">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D374">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D375">
@@ -8249,7 +8249,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D376">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D377">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D378">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D379">
@@ -8333,14 +8333,14 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D380">
         <v>0</v>
       </c>
       <c r="E380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -8354,11 +8354,11 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E381">
         <v>1</v>
@@ -8375,14 +8375,14 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D383">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D384">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D385">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D386">
@@ -8480,14 +8480,14 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D387">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E387">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388">
@@ -8501,14 +8501,14 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D388">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E388">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="389">
@@ -8522,14 +8522,14 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D389">
         <v>1</v>
       </c>
       <c r="E389">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390">
@@ -8543,14 +8543,14 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E390">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="391">
@@ -8564,14 +8564,14 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D391">
         <v>0</v>
       </c>
       <c r="E391">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D392">
         <v>0</v>
       </c>
       <c r="E392">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -8606,14 +8606,14 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D393">
         <v>0</v>
       </c>
       <c r="E393">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D394">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D395">
@@ -8669,7 +8669,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D396">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D397">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D398">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D399">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D400">
@@ -8774,14 +8774,14 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E401">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="402">
@@ -8795,14 +8795,14 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D402">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E402">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403">
@@ -8816,14 +8816,14 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D403">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E403">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404">
@@ -8837,14 +8837,14 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D404">
         <v>0</v>
       </c>
       <c r="E404">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405">
@@ -8858,14 +8858,14 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D405">
         <v>0</v>
       </c>
       <c r="E405">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -8879,14 +8879,14 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407">
@@ -8900,11 +8900,11 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E407">
         <v>1</v>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D408">
@@ -8942,14 +8942,14 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D409">
         <v>0</v>
       </c>
       <c r="E409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -8963,14 +8963,14 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D410">
         <v>0</v>
       </c>
       <c r="E410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D411">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D412">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D413">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D414">
@@ -9068,7 +9068,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D415">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D416">
@@ -9110,7 +9110,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D417">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D418">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D419">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D420">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D421">
@@ -9215,7 +9215,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D422">
@@ -9236,7 +9236,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D423">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D424">
@@ -9278,7 +9278,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D425">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D426">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D427">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D428">
@@ -9362,14 +9362,14 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D429">
         <v>0</v>
       </c>
       <c r="E429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D430">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D431">
@@ -9425,14 +9425,14 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D432">
         <v>0</v>
       </c>
       <c r="E432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -9446,14 +9446,14 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D433">
         <v>0</v>
       </c>
       <c r="E433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -9467,14 +9467,14 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D434">
         <v>0</v>
       </c>
       <c r="E434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D435">
@@ -9509,7 +9509,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D436">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D437">
@@ -9551,14 +9551,14 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D438">
         <v>0</v>
       </c>
       <c r="E438">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="439">
@@ -9572,14 +9572,14 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D439">
         <v>0</v>
       </c>
       <c r="E439">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -9593,7 +9593,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D440">
@@ -9614,7 +9614,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D441">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D442">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D443">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D444">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D445">
@@ -9719,7 +9719,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D446">
@@ -9740,7 +9740,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D447">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D448">
@@ -9782,7 +9782,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D449">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D450">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D451">
@@ -9845,14 +9845,14 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D452">
         <v>0</v>
       </c>
       <c r="E452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -9866,14 +9866,14 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D453">
         <v>0</v>
       </c>
       <c r="E453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D454">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D455">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D456">
@@ -9950,11 +9950,11 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E457">
         <v>3</v>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D458">
@@ -9992,7 +9992,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D459">
@@ -10013,14 +10013,14 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D460">
         <v>0</v>
       </c>
       <c r="E460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D461">
@@ -10055,7 +10055,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D462">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D463">
@@ -10097,14 +10097,14 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D464">
         <v>0</v>
       </c>
       <c r="E464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -10118,14 +10118,14 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D465">
         <v>0</v>
       </c>
       <c r="E465">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="466">
@@ -10139,14 +10139,14 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D466">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E466">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467">
@@ -10160,14 +10160,14 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D467">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -10181,7 +10181,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D468">
@@ -10202,7 +10202,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D469">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D470">
@@ -10244,14 +10244,14 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D471">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E471">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="472">
@@ -10265,14 +10265,14 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E472">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -10286,14 +10286,14 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D473">
         <v>0</v>
       </c>
       <c r="E473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -10307,14 +10307,14 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D474">
         <v>0</v>
       </c>
       <c r="E474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -10328,7 +10328,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D475">
@@ -10349,7 +10349,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D476">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D477">
@@ -10391,14 +10391,14 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>03/12/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="D478">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E478">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="479">
@@ -10412,14 +10412,14 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D479">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E479">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="480">
@@ -10433,14 +10433,14 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D480">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E480">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="481">
@@ -10454,14 +10454,14 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D481">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E481">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="482">
@@ -10475,14 +10475,14 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D482">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E482">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="483">
@@ -10496,14 +10496,14 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D483">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E483">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="484">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E484">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/inst/planilha_esus.xlsx
+++ b/inst/planilha_esus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E484"/>
+  <dimension ref="A1:E470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,14 +395,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -416,14 +416,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -437,14 +437,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -458,14 +458,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>4</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -479,14 +479,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -500,14 +500,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -521,14 +521,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -542,14 +542,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -563,14 +563,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -584,7 +584,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D11">
@@ -605,7 +605,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D12">
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D13">
@@ -647,7 +647,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D14">
@@ -668,7 +668,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D15">
@@ -689,7 +689,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D16">
@@ -710,7 +710,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D17">
@@ -731,7 +731,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D18">
@@ -752,14 +752,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -773,14 +773,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -794,7 +794,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D21">
@@ -815,7 +815,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D22">
@@ -836,14 +836,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -857,7 +857,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D24">
@@ -878,7 +878,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D25">
@@ -899,7 +899,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D26">
@@ -920,7 +920,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D27">
@@ -941,7 +941,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D28">
@@ -962,7 +962,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D29">
@@ -983,14 +983,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D31">
@@ -1025,14 +1025,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1046,14 +1046,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1067,14 +1067,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D35">
@@ -1109,14 +1109,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1130,14 +1130,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1151,14 +1151,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1193,14 +1193,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1214,14 +1214,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1235,14 +1235,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1277,14 +1277,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1298,14 +1298,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1319,14 +1319,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D49">
@@ -1403,14 +1403,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -1424,14 +1424,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1487,14 +1487,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D55">
@@ -1529,14 +1529,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D57">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D58">
@@ -1592,14 +1592,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1613,14 +1613,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D61">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D62">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D63">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D64">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D65">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D66">
@@ -1760,14 +1760,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D68">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D69">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D70">
@@ -1844,14 +1844,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1865,14 +1865,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -1886,14 +1886,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D74">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D75">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D76">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D77">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D78">
@@ -2012,14 +2012,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2033,14 +2033,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D81">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D82">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D83">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D84">
@@ -2138,14 +2138,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2159,14 +2159,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2180,14 +2180,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D88">
@@ -2222,14 +2222,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2243,14 +2243,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D91">
@@ -2285,14 +2285,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2327,14 +2327,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -2348,14 +2348,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D96">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D97">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D98">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D99">
@@ -2445,36 +2445,36 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Cordeiro</t>
         </is>
       </c>
       <c r="B100">
-        <v>330120</v>
+        <v>330150</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Cordeiro</t>
         </is>
       </c>
       <c r="B101">
-        <v>330120</v>
+        <v>330150</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D101">
@@ -2487,15 +2487,15 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Cordeiro</t>
         </is>
       </c>
       <c r="B102">
-        <v>330120</v>
+        <v>330150</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D102">
@@ -2508,15 +2508,15 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Cordeiro</t>
         </is>
       </c>
       <c r="B103">
-        <v>330120</v>
+        <v>330150</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D103">
@@ -2529,15 +2529,15 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Cordeiro</t>
         </is>
       </c>
       <c r="B104">
-        <v>330120</v>
+        <v>330150</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D104">
@@ -2550,15 +2550,15 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Cordeiro</t>
         </is>
       </c>
       <c r="B105">
-        <v>330120</v>
+        <v>330150</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D105">
@@ -2571,36 +2571,36 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Carmo</t>
+          <t>Cordeiro</t>
         </is>
       </c>
       <c r="B106">
-        <v>330120</v>
+        <v>330150</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Conceição de Macabu</t>
+          <t>Duas Barras</t>
         </is>
       </c>
       <c r="B107">
-        <v>330140</v>
+        <v>330160</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D107">
@@ -2613,15 +2613,15 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Conceição de Macabu</t>
+          <t>Duas Barras</t>
         </is>
       </c>
       <c r="B108">
-        <v>330140</v>
+        <v>330160</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D108">
@@ -2634,15 +2634,15 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Conceição de Macabu</t>
+          <t>Duas Barras</t>
         </is>
       </c>
       <c r="B109">
-        <v>330140</v>
+        <v>330160</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D109">
@@ -2655,15 +2655,15 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Conceição de Macabu</t>
+          <t>Duas Barras</t>
         </is>
       </c>
       <c r="B110">
-        <v>330140</v>
+        <v>330160</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D110">
@@ -2676,15 +2676,15 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Conceição de Macabu</t>
+          <t>Duas Barras</t>
         </is>
       </c>
       <c r="B111">
-        <v>330140</v>
+        <v>330160</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D111">
@@ -2697,15 +2697,15 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Conceição de Macabu</t>
+          <t>Duas Barras</t>
         </is>
       </c>
       <c r="B112">
-        <v>330140</v>
+        <v>330160</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D112">
@@ -2718,15 +2718,15 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Conceição de Macabu</t>
+          <t>Duas Barras</t>
         </is>
       </c>
       <c r="B113">
-        <v>330140</v>
+        <v>330160</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D113">
@@ -2739,99 +2739,99 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Duas Barras</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="B114">
-        <v>330160</v>
+        <v>330170</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Duas Barras</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="B115">
-        <v>330160</v>
+        <v>330170</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Duas Barras</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="B116">
-        <v>330160</v>
+        <v>330170</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Duas Barras</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="B117">
-        <v>330160</v>
+        <v>330170</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Duas Barras</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="B118">
-        <v>330160</v>
+        <v>330170</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D118">
@@ -2844,15 +2844,15 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Duas Barras</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="B119">
-        <v>330160</v>
+        <v>330170</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D119">
@@ -2865,162 +2865,162 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Duas Barras</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="B120">
-        <v>330160</v>
+        <v>330170</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Duque de Caxias</t>
+          <t>Guapimirim</t>
         </is>
       </c>
       <c r="B121">
-        <v>330170</v>
+        <v>330185</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Duque de Caxias</t>
+          <t>Guapimirim</t>
         </is>
       </c>
       <c r="B122">
-        <v>330170</v>
+        <v>330185</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Duque de Caxias</t>
+          <t>Guapimirim</t>
         </is>
       </c>
       <c r="B123">
-        <v>330170</v>
+        <v>330185</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Duque de Caxias</t>
+          <t>Guapimirim</t>
         </is>
       </c>
       <c r="B124">
-        <v>330170</v>
+        <v>330185</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Duque de Caxias</t>
+          <t>Guapimirim</t>
         </is>
       </c>
       <c r="B125">
-        <v>330170</v>
+        <v>330185</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Duque de Caxias</t>
+          <t>Guapimirim</t>
         </is>
       </c>
       <c r="B126">
-        <v>330170</v>
+        <v>330185</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Duque de Caxias</t>
+          <t>Guapimirim</t>
         </is>
       </c>
       <c r="B127">
-        <v>330170</v>
+        <v>330185</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D127">
@@ -3033,162 +3033,162 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Guapimirim</t>
+          <t>Iguaba Grande</t>
         </is>
       </c>
       <c r="B128">
-        <v>330185</v>
+        <v>330187</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Guapimirim</t>
+          <t>Iguaba Grande</t>
         </is>
       </c>
       <c r="B129">
-        <v>330185</v>
+        <v>330187</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Guapimirim</t>
+          <t>Iguaba Grande</t>
         </is>
       </c>
       <c r="B130">
-        <v>330185</v>
+        <v>330187</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Guapimirim</t>
+          <t>Iguaba Grande</t>
         </is>
       </c>
       <c r="B131">
-        <v>330185</v>
+        <v>330187</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Guapimirim</t>
+          <t>Iguaba Grande</t>
         </is>
       </c>
       <c r="B132">
-        <v>330185</v>
+        <v>330187</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Guapimirim</t>
+          <t>Iguaba Grande</t>
         </is>
       </c>
       <c r="B133">
-        <v>330185</v>
+        <v>330187</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Guapimirim</t>
+          <t>Iguaba Grande</t>
         </is>
       </c>
       <c r="B134">
-        <v>330185</v>
+        <v>330187</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Iguaba Grande</t>
+          <t>Itaboraí</t>
         </is>
       </c>
       <c r="B135">
-        <v>330187</v>
+        <v>330190</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D135">
@@ -3201,99 +3201,99 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Iguaba Grande</t>
+          <t>Itaboraí</t>
         </is>
       </c>
       <c r="B136">
-        <v>330187</v>
+        <v>330190</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Iguaba Grande</t>
+          <t>Itaboraí</t>
         </is>
       </c>
       <c r="B137">
-        <v>330187</v>
+        <v>330190</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Iguaba Grande</t>
+          <t>Itaboraí</t>
         </is>
       </c>
       <c r="B138">
-        <v>330187</v>
+        <v>330190</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Iguaba Grande</t>
+          <t>Itaboraí</t>
         </is>
       </c>
       <c r="B139">
-        <v>330187</v>
+        <v>330190</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Iguaba Grande</t>
+          <t>Itaboraí</t>
         </is>
       </c>
       <c r="B140">
-        <v>330187</v>
+        <v>330190</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D140">
@@ -3306,57 +3306,57 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Iguaba Grande</t>
+          <t>Itaboraí</t>
         </is>
       </c>
       <c r="B141">
-        <v>330187</v>
+        <v>330190</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Itaboraí</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="B142">
-        <v>330190</v>
+        <v>330200</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Itaboraí</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="B143">
-        <v>330190</v>
+        <v>330200</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D143">
@@ -3369,99 +3369,99 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Itaboraí</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="B144">
-        <v>330190</v>
+        <v>330200</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Itaboraí</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="B145">
-        <v>330190</v>
+        <v>330200</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Itaboraí</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="B146">
-        <v>330190</v>
+        <v>330200</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Itaboraí</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="B147">
-        <v>330190</v>
+        <v>330200</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Itaboraí</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="B148">
-        <v>330190</v>
+        <v>330200</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D148">
@@ -3474,78 +3474,78 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Italva</t>
         </is>
       </c>
       <c r="B149">
-        <v>330200</v>
+        <v>330205</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Italva</t>
         </is>
       </c>
       <c r="B150">
-        <v>330200</v>
+        <v>330205</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Italva</t>
         </is>
       </c>
       <c r="B151">
-        <v>330200</v>
+        <v>330205</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Italva</t>
         </is>
       </c>
       <c r="B152">
-        <v>330200</v>
+        <v>330205</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D152">
@@ -3558,15 +3558,15 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Italva</t>
         </is>
       </c>
       <c r="B153">
-        <v>330200</v>
+        <v>330205</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D153">
@@ -3579,15 +3579,15 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Italva</t>
         </is>
       </c>
       <c r="B154">
-        <v>330200</v>
+        <v>330205</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D154">
@@ -3600,15 +3600,15 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Italva</t>
         </is>
       </c>
       <c r="B155">
-        <v>330200</v>
+        <v>330205</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D155">
@@ -3621,15 +3621,15 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Italva</t>
+          <t>Itaocara</t>
         </is>
       </c>
       <c r="B156">
-        <v>330205</v>
+        <v>330210</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D156">
@@ -3642,57 +3642,57 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Italva</t>
+          <t>Itaocara</t>
         </is>
       </c>
       <c r="B157">
-        <v>330205</v>
+        <v>330210</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Italva</t>
+          <t>Itaocara</t>
         </is>
       </c>
       <c r="B158">
-        <v>330205</v>
+        <v>330210</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Italva</t>
+          <t>Itaocara</t>
         </is>
       </c>
       <c r="B159">
-        <v>330205</v>
+        <v>330210</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D159">
@@ -3705,15 +3705,15 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Italva</t>
+          <t>Itaocara</t>
         </is>
       </c>
       <c r="B160">
-        <v>330205</v>
+        <v>330210</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D160">
@@ -3726,15 +3726,15 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Italva</t>
+          <t>Itaocara</t>
         </is>
       </c>
       <c r="B161">
-        <v>330205</v>
+        <v>330210</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D161">
@@ -3747,15 +3747,15 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Italva</t>
+          <t>Itaocara</t>
         </is>
       </c>
       <c r="B162">
-        <v>330205</v>
+        <v>330210</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D162">
@@ -3768,15 +3768,15 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Itaocara</t>
+          <t>Itaperuna</t>
         </is>
       </c>
       <c r="B163">
-        <v>330210</v>
+        <v>330220</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D163">
@@ -3789,78 +3789,78 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Itaocara</t>
+          <t>Itaperuna</t>
         </is>
       </c>
       <c r="B164">
-        <v>330210</v>
+        <v>330220</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Itaocara</t>
+          <t>Itaperuna</t>
         </is>
       </c>
       <c r="B165">
-        <v>330210</v>
+        <v>330220</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Itaocara</t>
+          <t>Itaperuna</t>
         </is>
       </c>
       <c r="B166">
-        <v>330210</v>
+        <v>330220</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D166">
         <v>1</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Itaocara</t>
+          <t>Itaperuna</t>
         </is>
       </c>
       <c r="B167">
-        <v>330210</v>
+        <v>330220</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D167">
@@ -3873,15 +3873,15 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Itaocara</t>
+          <t>Itaperuna</t>
         </is>
       </c>
       <c r="B168">
-        <v>330210</v>
+        <v>330220</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D168">
@@ -3894,141 +3894,141 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Itaocara</t>
+          <t>Itaperuna</t>
         </is>
       </c>
       <c r="B169">
-        <v>330210</v>
+        <v>330220</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Itaperuna</t>
+          <t>Itatiaia</t>
         </is>
       </c>
       <c r="B170">
-        <v>330220</v>
+        <v>330225</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Itaperuna</t>
+          <t>Itatiaia</t>
         </is>
       </c>
       <c r="B171">
-        <v>330220</v>
+        <v>330225</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Itaperuna</t>
+          <t>Itatiaia</t>
         </is>
       </c>
       <c r="B172">
-        <v>330220</v>
+        <v>330225</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Itaperuna</t>
+          <t>Itatiaia</t>
         </is>
       </c>
       <c r="B173">
-        <v>330220</v>
+        <v>330225</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Itaperuna</t>
+          <t>Itatiaia</t>
         </is>
       </c>
       <c r="B174">
-        <v>330220</v>
+        <v>330225</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Itaperuna</t>
+          <t>Itatiaia</t>
         </is>
       </c>
       <c r="B175">
-        <v>330220</v>
+        <v>330225</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D175">
@@ -4041,15 +4041,15 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Itaperuna</t>
+          <t>Itatiaia</t>
         </is>
       </c>
       <c r="B176">
-        <v>330220</v>
+        <v>330225</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D176">
@@ -4062,36 +4062,36 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Itatiaia</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="B177">
-        <v>330225</v>
+        <v>330227</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Itatiaia</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="B178">
-        <v>330225</v>
+        <v>330227</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D178">
@@ -4104,57 +4104,57 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Itatiaia</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="B179">
-        <v>330225</v>
+        <v>330227</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Itatiaia</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="B180">
-        <v>330225</v>
+        <v>330227</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Itatiaia</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="B181">
-        <v>330225</v>
+        <v>330227</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D181">
@@ -4167,15 +4167,15 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Itatiaia</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="B182">
-        <v>330225</v>
+        <v>330227</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D182">
@@ -4188,15 +4188,15 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Itatiaia</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="B183">
-        <v>330225</v>
+        <v>330227</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D183">
@@ -4209,78 +4209,78 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Laje do Muriaé</t>
         </is>
       </c>
       <c r="B184">
-        <v>330227</v>
+        <v>330230</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Laje do Muriaé</t>
         </is>
       </c>
       <c r="B185">
-        <v>330227</v>
+        <v>330230</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Laje do Muriaé</t>
         </is>
       </c>
       <c r="B186">
-        <v>330227</v>
+        <v>330230</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Laje do Muriaé</t>
         </is>
       </c>
       <c r="B187">
-        <v>330227</v>
+        <v>330230</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D187">
@@ -4293,36 +4293,36 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Laje do Muriaé</t>
         </is>
       </c>
       <c r="B188">
-        <v>330227</v>
+        <v>330230</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Laje do Muriaé</t>
         </is>
       </c>
       <c r="B189">
-        <v>330227</v>
+        <v>330230</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D189">
@@ -4335,15 +4335,15 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Laje do Muriaé</t>
         </is>
       </c>
       <c r="B190">
-        <v>330227</v>
+        <v>330230</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D190">
@@ -4356,57 +4356,57 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Laje do Muriaé</t>
+          <t>Macaé</t>
         </is>
       </c>
       <c r="B191">
-        <v>330230</v>
+        <v>330240</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Laje do Muriaé</t>
+          <t>Macaé</t>
         </is>
       </c>
       <c r="B192">
-        <v>330230</v>
+        <v>330240</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Laje do Muriaé</t>
+          <t>Macaé</t>
         </is>
       </c>
       <c r="B193">
-        <v>330230</v>
+        <v>330240</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D193">
@@ -4419,19 +4419,19 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Laje do Muriaé</t>
+          <t>Macaé</t>
         </is>
       </c>
       <c r="B194">
-        <v>330230</v>
+        <v>330240</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -4440,15 +4440,15 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Laje do Muriaé</t>
+          <t>Macaé</t>
         </is>
       </c>
       <c r="B195">
-        <v>330230</v>
+        <v>330240</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D195">
@@ -4461,15 +4461,15 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Laje do Muriaé</t>
+          <t>Macaé</t>
         </is>
       </c>
       <c r="B196">
-        <v>330230</v>
+        <v>330240</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D196">
@@ -4482,15 +4482,15 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Laje do Muriaé</t>
+          <t>Macaé</t>
         </is>
       </c>
       <c r="B197">
-        <v>330230</v>
+        <v>330240</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D197">
@@ -4503,78 +4503,78 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Macaé</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="B198">
-        <v>330240</v>
+        <v>330250</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Macaé</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="B199">
-        <v>330240</v>
+        <v>330250</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Macaé</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="B200">
-        <v>330240</v>
+        <v>330250</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Macaé</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="B201">
-        <v>330240</v>
+        <v>330250</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D201">
@@ -4587,19 +4587,19 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Macaé</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="B202">
-        <v>330240</v>
+        <v>330250</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -4608,15 +4608,15 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Macaé</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="B203">
-        <v>330240</v>
+        <v>330250</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D203">
@@ -4629,120 +4629,120 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Macaé</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="B204">
-        <v>330240</v>
+        <v>330250</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Mangaratiba</t>
         </is>
       </c>
       <c r="B205">
-        <v>330250</v>
+        <v>330260</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Mangaratiba</t>
         </is>
       </c>
       <c r="B206">
-        <v>330250</v>
+        <v>330260</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Mangaratiba</t>
         </is>
       </c>
       <c r="B207">
-        <v>330250</v>
+        <v>330260</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Mangaratiba</t>
         </is>
       </c>
       <c r="B208">
-        <v>330250</v>
+        <v>330260</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Mangaratiba</t>
         </is>
       </c>
       <c r="B209">
-        <v>330250</v>
+        <v>330260</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D209">
@@ -4755,36 +4755,36 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Mangaratiba</t>
         </is>
       </c>
       <c r="B210">
-        <v>330250</v>
+        <v>330260</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Mangaratiba</t>
         </is>
       </c>
       <c r="B211">
-        <v>330250</v>
+        <v>330260</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D211">
@@ -4797,351 +4797,351 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Mangaratiba</t>
+          <t>Maricá</t>
         </is>
       </c>
       <c r="B212">
-        <v>330260</v>
+        <v>330270</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Mangaratiba</t>
+          <t>Maricá</t>
         </is>
       </c>
       <c r="B213">
-        <v>330260</v>
+        <v>330270</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Mangaratiba</t>
+          <t>Maricá</t>
         </is>
       </c>
       <c r="B214">
-        <v>330260</v>
+        <v>330270</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Mangaratiba</t>
+          <t>Maricá</t>
         </is>
       </c>
       <c r="B215">
-        <v>330260</v>
+        <v>330270</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Mangaratiba</t>
+          <t>Maricá</t>
         </is>
       </c>
       <c r="B216">
-        <v>330260</v>
+        <v>330270</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Mangaratiba</t>
+          <t>Maricá</t>
         </is>
       </c>
       <c r="B217">
-        <v>330260</v>
+        <v>330270</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Mangaratiba</t>
+          <t>Maricá</t>
         </is>
       </c>
       <c r="B218">
-        <v>330260</v>
+        <v>330270</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Maricá</t>
+          <t>Mendes</t>
         </is>
       </c>
       <c r="B219">
-        <v>330270</v>
+        <v>330280</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Maricá</t>
+          <t>Mendes</t>
         </is>
       </c>
       <c r="B220">
-        <v>330270</v>
+        <v>330280</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Maricá</t>
+          <t>Mendes</t>
         </is>
       </c>
       <c r="B221">
-        <v>330270</v>
+        <v>330280</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E221">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Maricá</t>
+          <t>Mendes</t>
         </is>
       </c>
       <c r="B222">
-        <v>330270</v>
+        <v>330280</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Maricá</t>
+          <t>Mendes</t>
         </is>
       </c>
       <c r="B223">
-        <v>330270</v>
+        <v>330280</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D223">
         <v>0</v>
       </c>
       <c r="E223">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Maricá</t>
+          <t>Mendes</t>
         </is>
       </c>
       <c r="B224">
-        <v>330270</v>
+        <v>330280</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Maricá</t>
+          <t>Mendes</t>
         </is>
       </c>
       <c r="B225">
-        <v>330270</v>
+        <v>330280</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D225">
         <v>0</v>
       </c>
       <c r="E225">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="B226">
-        <v>330280</v>
+        <v>330285</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="B227">
-        <v>330280</v>
+        <v>330285</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="B228">
-        <v>330280</v>
+        <v>330285</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D228">
@@ -5154,15 +5154,15 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="B229">
-        <v>330280</v>
+        <v>330285</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D229">
@@ -5175,15 +5175,15 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="B230">
-        <v>330280</v>
+        <v>330285</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D230">
@@ -5196,15 +5196,15 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="B231">
-        <v>330280</v>
+        <v>330285</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D231">
@@ -5217,15 +5217,15 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="B232">
-        <v>330280</v>
+        <v>330285</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D232">
@@ -5238,57 +5238,57 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Miguel Pereira</t>
         </is>
       </c>
       <c r="B233">
-        <v>330285</v>
+        <v>330290</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
       <c r="E233">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Miguel Pereira</t>
         </is>
       </c>
       <c r="B234">
-        <v>330285</v>
+        <v>330290</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D234">
         <v>0</v>
       </c>
       <c r="E234">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Miguel Pereira</t>
         </is>
       </c>
       <c r="B235">
-        <v>330285</v>
+        <v>330290</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D235">
@@ -5301,15 +5301,15 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Miguel Pereira</t>
         </is>
       </c>
       <c r="B236">
-        <v>330285</v>
+        <v>330290</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D236">
@@ -5322,15 +5322,15 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Miguel Pereira</t>
         </is>
       </c>
       <c r="B237">
-        <v>330285</v>
+        <v>330290</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D237">
@@ -5343,15 +5343,15 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Miguel Pereira</t>
         </is>
       </c>
       <c r="B238">
-        <v>330285</v>
+        <v>330290</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D238">
@@ -5364,36 +5364,36 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Miguel Pereira</t>
         </is>
       </c>
       <c r="B239">
-        <v>330285</v>
+        <v>330290</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Miguel Pereira</t>
+          <t>Natividade</t>
         </is>
       </c>
       <c r="B240">
-        <v>330290</v>
+        <v>330310</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D240">
@@ -5406,15 +5406,15 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Miguel Pereira</t>
+          <t>Natividade</t>
         </is>
       </c>
       <c r="B241">
-        <v>330290</v>
+        <v>330310</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D241">
@@ -5427,15 +5427,15 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Miguel Pereira</t>
+          <t>Natividade</t>
         </is>
       </c>
       <c r="B242">
-        <v>330290</v>
+        <v>330310</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D242">
@@ -5448,15 +5448,15 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Miguel Pereira</t>
+          <t>Natividade</t>
         </is>
       </c>
       <c r="B243">
-        <v>330290</v>
+        <v>330310</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D243">
@@ -5469,15 +5469,15 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Miguel Pereira</t>
+          <t>Natividade</t>
         </is>
       </c>
       <c r="B244">
-        <v>330290</v>
+        <v>330310</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D244">
@@ -5490,15 +5490,15 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Miguel Pereira</t>
+          <t>Natividade</t>
         </is>
       </c>
       <c r="B245">
-        <v>330290</v>
+        <v>330310</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D245">
@@ -5511,22 +5511,22 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Miguel Pereira</t>
+          <t>Natividade</t>
         </is>
       </c>
       <c r="B246">
-        <v>330290</v>
+        <v>330310</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -5540,14 +5540,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D247">
         <v>0</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -5561,14 +5561,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D248">
         <v>0</v>
       </c>
       <c r="E248">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -5582,14 +5582,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D249">
         <v>0</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D250">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D251">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D252">
@@ -5666,14 +5666,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -5687,14 +5687,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D254">
         <v>6</v>
       </c>
       <c r="E254">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="255">
@@ -5708,14 +5708,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D255">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E255">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="256">
@@ -5729,14 +5729,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E256">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257">
@@ -5750,14 +5750,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D257">
         <v>1</v>
       </c>
       <c r="E257">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258">
@@ -5771,14 +5771,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E258">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D259">
         <v>0</v>
       </c>
       <c r="E259">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260">
@@ -5813,14 +5813,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261">
@@ -5834,14 +5834,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E261">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="262">
@@ -5855,14 +5855,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E262">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="263">
@@ -5876,14 +5876,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="264">
@@ -5897,14 +5897,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D264">
         <v>0</v>
       </c>
       <c r="E264">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D265">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D266">
@@ -5960,14 +5960,14 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D267">
         <v>0</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -5981,14 +5981,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E268">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="269">
@@ -6002,14 +6002,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D269">
         <v>0</v>
       </c>
       <c r="E269">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270">
@@ -6023,14 +6023,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D270">
         <v>0</v>
       </c>
       <c r="E270">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271">
@@ -6044,14 +6044,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D271">
         <v>0</v>
       </c>
       <c r="E271">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272">
@@ -6065,14 +6065,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273">
@@ -6086,14 +6086,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D273">
         <v>0</v>
       </c>
       <c r="E273">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -6107,14 +6107,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275">
@@ -6128,14 +6128,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D275">
         <v>0</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -6149,14 +6149,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D276">
         <v>0</v>
       </c>
       <c r="E276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -6170,14 +6170,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D277">
         <v>0</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -6191,14 +6191,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D278">
         <v>0</v>
       </c>
       <c r="E278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D279">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D280">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D281">
@@ -6275,14 +6275,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -6296,14 +6296,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E283">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -6317,14 +6317,14 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D284">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D285">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D286">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D287">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D288">
@@ -6422,14 +6422,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D289">
         <v>0</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -6443,14 +6443,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D290">
         <v>0</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D291">
@@ -6485,11 +6485,11 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -6506,14 +6506,14 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D294">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D295">
@@ -6569,14 +6569,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D296">
         <v>3</v>
       </c>
       <c r="E296">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="297">
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E297">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="298">
@@ -6611,14 +6611,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D298">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E298">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="299">
@@ -6632,14 +6632,14 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D299">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E299">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="300">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D300">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E300">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="301">
@@ -6674,14 +6674,14 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E301">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302">
@@ -6695,14 +6695,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E302">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="303">
@@ -6716,14 +6716,14 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D303">
         <v>1</v>
       </c>
       <c r="E303">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304">
@@ -6737,14 +6737,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E304">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305">
@@ -6758,14 +6758,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D305">
         <v>0</v>
       </c>
       <c r="E305">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -6779,14 +6779,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D306">
         <v>0</v>
       </c>
       <c r="E306">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -6800,14 +6800,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D307">
         <v>0</v>
       </c>
       <c r="E307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -6821,7 +6821,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D308">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D309">
@@ -6863,14 +6863,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D310">
         <v>0</v>
       </c>
       <c r="E310">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -6884,14 +6884,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D311">
         <v>0</v>
       </c>
       <c r="E311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -6905,14 +6905,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D312">
         <v>0</v>
       </c>
       <c r="E312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -6926,14 +6926,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D313">
         <v>0</v>
       </c>
       <c r="E313">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -6947,14 +6947,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D314">
         <v>0</v>
       </c>
       <c r="E314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D315">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D316">
@@ -7010,14 +7010,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D317">
         <v>0</v>
       </c>
       <c r="E317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D318">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D319">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D320">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D321">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D322">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D323">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D324">
@@ -7178,14 +7178,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D325">
         <v>0</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D326">
@@ -7220,14 +7220,14 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D327">
         <v>0</v>
       </c>
       <c r="E327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D328">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D329">
@@ -7283,14 +7283,14 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D330">
         <v>0</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -7304,14 +7304,14 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E331">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332">
@@ -7325,14 +7325,14 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E332">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D333">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D334">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D335">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D336">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D337">
@@ -7451,14 +7451,14 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D338">
         <v>0</v>
       </c>
       <c r="E338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -7472,14 +7472,14 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -7493,14 +7493,14 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D341">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D342">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D343">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D344">
@@ -7598,7 +7598,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D345">
@@ -7619,14 +7619,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E346">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -7640,14 +7640,14 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E347">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -7661,14 +7661,14 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E349">
         <v>1</v>
@@ -7703,14 +7703,14 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D350">
         <v>0</v>
       </c>
       <c r="E350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D351">
@@ -7745,14 +7745,14 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D352">
         <v>0</v>
       </c>
       <c r="E352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -7766,14 +7766,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D353">
         <v>0</v>
       </c>
       <c r="E353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D354">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D355">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D356">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D357">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D358">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D359">
@@ -7913,14 +7913,14 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D360">
         <v>0</v>
       </c>
       <c r="E360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -7934,14 +7934,14 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -7955,14 +7955,14 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -7976,14 +7976,14 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D363">
         <v>0</v>
       </c>
       <c r="E363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D364">
@@ -8018,14 +8018,14 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D365">
         <v>0</v>
       </c>
       <c r="E365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -8039,14 +8039,14 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D366">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E366">
-        <v>1238</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="367">
@@ -8060,14 +8060,14 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D367">
         <v>66</v>
       </c>
       <c r="E367">
-        <v>1103</v>
+        <v>943</v>
       </c>
     </row>
     <row r="368">
@@ -8081,14 +8081,14 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D368">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E368">
-        <v>937</v>
+        <v>799</v>
       </c>
     </row>
     <row r="369">
@@ -8102,14 +8102,14 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D369">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E369">
-        <v>783</v>
+        <v>853</v>
       </c>
     </row>
     <row r="370">
@@ -8123,14 +8123,14 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D370">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E370">
-        <v>743</v>
+        <v>194</v>
       </c>
     </row>
     <row r="371">
@@ -8144,14 +8144,14 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D371">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E371">
-        <v>160</v>
+        <v>37</v>
       </c>
     </row>
     <row r="372">
@@ -8165,14 +8165,14 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D372">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="E372">
-        <v>21</v>
+        <v>992</v>
       </c>
     </row>
     <row r="373">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D373">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D374">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D375">
@@ -8249,7 +8249,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D376">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D377">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D378">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D379">
@@ -8333,11 +8333,11 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E380">
         <v>1</v>
@@ -8354,14 +8354,14 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D382">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D383">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D384">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D385">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D386">
@@ -8480,14 +8480,14 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D387">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E387">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="388">
@@ -8501,14 +8501,14 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D388">
         <v>1</v>
       </c>
       <c r="E388">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389">
@@ -8522,14 +8522,14 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E389">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390">
@@ -8543,14 +8543,14 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D390">
         <v>0</v>
       </c>
       <c r="E390">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="391">
@@ -8564,14 +8564,14 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D391">
         <v>0</v>
       </c>
       <c r="E391">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E392">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393">
@@ -8606,14 +8606,14 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E393">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394">
@@ -8627,14 +8627,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D394">
         <v>0</v>
       </c>
       <c r="E394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395">
@@ -8648,14 +8648,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D395">
         <v>0</v>
       </c>
       <c r="E395">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -8669,14 +8669,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D396">
         <v>0</v>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D397">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D398">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D399">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D400">
@@ -8774,14 +8774,14 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D401">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E401">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -8795,14 +8795,14 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D402">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E402">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="403">
@@ -8816,14 +8816,14 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D403">
         <v>0</v>
       </c>
       <c r="E403">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D404">
@@ -8858,14 +8858,14 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E405">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -8879,14 +8879,14 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E406">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -8900,14 +8900,14 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D407">
         <v>0</v>
       </c>
       <c r="E407">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -8921,14 +8921,14 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D408">
         <v>0</v>
       </c>
       <c r="E408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -8942,14 +8942,14 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D409">
         <v>0</v>
       </c>
       <c r="E409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -8963,14 +8963,14 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D411">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D412">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D413">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D414">
@@ -9068,7 +9068,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D415">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D416">
@@ -9110,7 +9110,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D417">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D418">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D419">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D420">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D421">
@@ -9207,57 +9207,57 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B422">
-        <v>330540</v>
+        <v>330550</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D422">
         <v>0</v>
       </c>
       <c r="E422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B423">
-        <v>330540</v>
+        <v>330550</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D423">
         <v>0</v>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B424">
-        <v>330540</v>
+        <v>330550</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D424">
@@ -9270,36 +9270,36 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B425">
-        <v>330540</v>
+        <v>330550</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D425">
         <v>0</v>
       </c>
       <c r="E425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B426">
-        <v>330540</v>
+        <v>330550</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D426">
@@ -9312,15 +9312,15 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B427">
-        <v>330540</v>
+        <v>330550</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D427">
@@ -9333,15 +9333,15 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Sapucaia</t>
+          <t>Saquarema</t>
         </is>
       </c>
       <c r="B428">
-        <v>330540</v>
+        <v>330550</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D428">
@@ -9354,78 +9354,78 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B429">
-        <v>330550</v>
+        <v>330555</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D429">
         <v>0</v>
       </c>
       <c r="E429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B430">
-        <v>330550</v>
+        <v>330555</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D430">
         <v>0</v>
       </c>
       <c r="E430">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B431">
-        <v>330550</v>
+        <v>330555</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D431">
         <v>0</v>
       </c>
       <c r="E431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B432">
-        <v>330550</v>
+        <v>330555</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D432">
@@ -9438,36 +9438,36 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B433">
-        <v>330550</v>
+        <v>330555</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D433">
         <v>0</v>
       </c>
       <c r="E433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B434">
-        <v>330550</v>
+        <v>330555</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D434">
@@ -9480,15 +9480,15 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Saquarema</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="B435">
-        <v>330550</v>
+        <v>330555</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D435">
@@ -9501,15 +9501,15 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B436">
-        <v>330555</v>
+        <v>330575</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D436">
@@ -9522,57 +9522,57 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B437">
-        <v>330555</v>
+        <v>330575</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D437">
         <v>0</v>
       </c>
       <c r="E437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B438">
-        <v>330555</v>
+        <v>330575</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D438">
         <v>0</v>
       </c>
       <c r="E438">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B439">
-        <v>330555</v>
+        <v>330575</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D439">
@@ -9585,15 +9585,15 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B440">
-        <v>330555</v>
+        <v>330575</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D440">
@@ -9606,15 +9606,15 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B441">
-        <v>330555</v>
+        <v>330575</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D441">
@@ -9627,15 +9627,15 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>Tanguá</t>
         </is>
       </c>
       <c r="B442">
-        <v>330555</v>
+        <v>330575</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D442">
@@ -9648,57 +9648,57 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B443">
-        <v>330570</v>
+        <v>330580</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D443">
         <v>0</v>
       </c>
       <c r="E443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B444">
-        <v>330570</v>
+        <v>330580</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D444">
         <v>0</v>
       </c>
       <c r="E444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B445">
-        <v>330570</v>
+        <v>330580</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D445">
@@ -9711,15 +9711,15 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B446">
-        <v>330570</v>
+        <v>330580</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D446">
@@ -9732,15 +9732,15 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B447">
-        <v>330570</v>
+        <v>330580</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D447">
@@ -9753,15 +9753,15 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B448">
-        <v>330570</v>
+        <v>330580</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D448">
@@ -9774,15 +9774,15 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Sumidouro</t>
+          <t>Teresópolis</t>
         </is>
       </c>
       <c r="B449">
-        <v>330570</v>
+        <v>330580</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D449">
@@ -9795,99 +9795,99 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B450">
-        <v>330575</v>
+        <v>330610</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D450">
         <v>0</v>
       </c>
       <c r="E450">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B451">
-        <v>330575</v>
+        <v>330610</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B452">
-        <v>330575</v>
+        <v>330610</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D452">
         <v>0</v>
       </c>
       <c r="E452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B453">
-        <v>330575</v>
+        <v>330610</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D453">
         <v>0</v>
       </c>
       <c r="E453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B454">
-        <v>330575</v>
+        <v>330610</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D454">
@@ -9900,15 +9900,15 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B455">
-        <v>330575</v>
+        <v>330610</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D455">
@@ -9921,99 +9921,99 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Tanguá</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B456">
-        <v>330575</v>
+        <v>330610</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D456">
         <v>0</v>
       </c>
       <c r="E456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B457">
-        <v>330580</v>
+        <v>330620</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E457">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B458">
-        <v>330580</v>
+        <v>330620</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D458">
         <v>0</v>
       </c>
       <c r="E458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B459">
-        <v>330580</v>
+        <v>330620</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D459">
         <v>0</v>
       </c>
       <c r="E459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B460">
-        <v>330580</v>
+        <v>330620</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D460">
@@ -10026,36 +10026,36 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B461">
-        <v>330580</v>
+        <v>330620</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D461">
         <v>0</v>
       </c>
       <c r="E461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B462">
-        <v>330580</v>
+        <v>330620</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D462">
@@ -10068,15 +10068,15 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Teresópolis</t>
+          <t>Vassouras</t>
         </is>
       </c>
       <c r="B463">
-        <v>330580</v>
+        <v>330620</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D463">
@@ -10089,442 +10089,148 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B464">
-        <v>330610</v>
+        <v>330630</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="D464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E464">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B465">
-        <v>330610</v>
+        <v>330630</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="D465">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E465">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B466">
-        <v>330610</v>
+        <v>330630</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="D466">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E466">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B467">
-        <v>330610</v>
+        <v>330630</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="D467">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E467">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B468">
-        <v>330610</v>
+        <v>330630</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/12/2023</t>
         </is>
       </c>
       <c r="D468">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E468">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B469">
-        <v>330610</v>
+        <v>330630</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>09/12/2023</t>
+          <t>10/12/2023</t>
         </is>
       </c>
       <c r="D469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E469">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="B470">
-        <v>330610</v>
+        <v>330630</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D470">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E470">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>Vassouras</t>
-        </is>
-      </c>
-      <c r="B471">
-        <v>330620</v>
-      </c>
-      <c r="C471" t="inlineStr">
-        <is>
-          <t>04/12/2023</t>
-        </is>
-      </c>
-      <c r="D471">
-        <v>1</v>
-      </c>
-      <c r="E471">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>Vassouras</t>
-        </is>
-      </c>
-      <c r="B472">
-        <v>330620</v>
-      </c>
-      <c r="C472" t="inlineStr">
-        <is>
-          <t>05/12/2023</t>
-        </is>
-      </c>
-      <c r="D472">
-        <v>0</v>
-      </c>
-      <c r="E472">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>Vassouras</t>
-        </is>
-      </c>
-      <c r="B473">
-        <v>330620</v>
-      </c>
-      <c r="C473" t="inlineStr">
-        <is>
-          <t>06/12/2023</t>
-        </is>
-      </c>
-      <c r="D473">
-        <v>0</v>
-      </c>
-      <c r="E473">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>Vassouras</t>
-        </is>
-      </c>
-      <c r="B474">
-        <v>330620</v>
-      </c>
-      <c r="C474" t="inlineStr">
-        <is>
-          <t>07/12/2023</t>
-        </is>
-      </c>
-      <c r="D474">
-        <v>0</v>
-      </c>
-      <c r="E474">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>Vassouras</t>
-        </is>
-      </c>
-      <c r="B475">
-        <v>330620</v>
-      </c>
-      <c r="C475" t="inlineStr">
-        <is>
-          <t>08/12/2023</t>
-        </is>
-      </c>
-      <c r="D475">
-        <v>0</v>
-      </c>
-      <c r="E475">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Vassouras</t>
-        </is>
-      </c>
-      <c r="B476">
-        <v>330620</v>
-      </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>09/12/2023</t>
-        </is>
-      </c>
-      <c r="D476">
-        <v>0</v>
-      </c>
-      <c r="E476">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Vassouras</t>
-        </is>
-      </c>
-      <c r="B477">
-        <v>330620</v>
-      </c>
-      <c r="C477" t="inlineStr">
-        <is>
-          <t>10/12/2023</t>
-        </is>
-      </c>
-      <c r="D477">
-        <v>0</v>
-      </c>
-      <c r="E477">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B478">
-        <v>330630</v>
-      </c>
-      <c r="C478" t="inlineStr">
-        <is>
-          <t>04/12/2023</t>
-        </is>
-      </c>
-      <c r="D478">
-        <v>4</v>
-      </c>
-      <c r="E478">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B479">
-        <v>330630</v>
-      </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>05/12/2023</t>
-        </is>
-      </c>
-      <c r="D479">
-        <v>1</v>
-      </c>
-      <c r="E479">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B480">
-        <v>330630</v>
-      </c>
-      <c r="C480" t="inlineStr">
-        <is>
-          <t>06/12/2023</t>
-        </is>
-      </c>
-      <c r="D480">
-        <v>8</v>
-      </c>
-      <c r="E480">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B481">
-        <v>330630</v>
-      </c>
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>07/12/2023</t>
-        </is>
-      </c>
-      <c r="D481">
-        <v>4</v>
-      </c>
-      <c r="E481">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B482">
-        <v>330630</v>
-      </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>08/12/2023</t>
-        </is>
-      </c>
-      <c r="D482">
-        <v>3</v>
-      </c>
-      <c r="E482">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B483">
-        <v>330630</v>
-      </c>
-      <c r="C483" t="inlineStr">
-        <is>
-          <t>09/12/2023</t>
-        </is>
-      </c>
-      <c r="D483">
-        <v>1</v>
-      </c>
-      <c r="E483">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="B484">
-        <v>330630</v>
-      </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>10/12/2023</t>
-        </is>
-      </c>
-      <c r="D484">
-        <v>0</v>
-      </c>
-      <c r="E484">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/inst/planilha_esus.xlsx
+++ b/inst/planilha_esus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E491"/>
+  <dimension ref="A1:E498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,7 +395,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D2">
@@ -416,14 +416,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -437,14 +437,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -458,14 +458,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -479,14 +479,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -500,14 +500,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -521,14 +521,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -542,14 +542,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -563,14 +563,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -584,7 +584,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D11">
@@ -605,14 +605,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -626,14 +626,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -647,14 +647,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -668,7 +668,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D15">
@@ -689,7 +689,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D16">
@@ -710,7 +710,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D17">
@@ -731,7 +731,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D18">
@@ -752,14 +752,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -773,7 +773,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D20">
@@ -794,14 +794,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -815,7 +815,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D22">
@@ -836,7 +836,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D23">
@@ -857,14 +857,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D25">
@@ -899,14 +899,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D27">
@@ -941,7 +941,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D28">
@@ -962,7 +962,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D29">
@@ -983,7 +983,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D30">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D31">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D32">
@@ -1046,14 +1046,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1067,14 +1067,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D35">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D36">
@@ -1130,14 +1130,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1151,14 +1151,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1193,14 +1193,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D41">
@@ -1235,14 +1235,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D43">
@@ -1277,14 +1277,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -1298,14 +1298,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D46">
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -1403,14 +1403,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -1424,14 +1424,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -1487,14 +1487,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -1508,14 +1508,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D56">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1571,14 +1571,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1592,14 +1592,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1613,14 +1613,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D61">
@@ -1655,14 +1655,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -1676,14 +1676,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D64">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D65">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D66">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D67">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D68">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D69">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D70">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D71">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D72">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D73">
@@ -1907,14 +1907,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1949,14 +1949,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D77">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D78">
@@ -2012,14 +2012,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -2033,14 +2033,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81">
@@ -2054,14 +2054,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -2075,14 +2075,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2096,14 +2096,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D85">
@@ -2159,14 +2159,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2180,14 +2180,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -2201,14 +2201,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2222,14 +2222,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2243,14 +2243,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2264,14 +2264,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D92">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -2327,14 +2327,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -2369,14 +2369,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D97">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D98">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D99">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D100">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D101">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -2516,14 +2516,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D104">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D105">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D106">
@@ -2600,14 +2600,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -2621,14 +2621,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D109">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D110">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D111">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D112">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D113">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D114">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D115">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D116">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D117">
@@ -2831,14 +2831,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2852,14 +2852,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D120">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D121">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D122">
@@ -2936,14 +2936,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -2957,14 +2957,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D125">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D126">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D127">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D128">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D129">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D130">
@@ -3104,14 +3104,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3125,14 +3125,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D133">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D134">
@@ -3188,14 +3188,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3209,14 +3209,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D137">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D138">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D139">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D140">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D141">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D142">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D143">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D144">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D145">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D146">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D147">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D148">
@@ -3482,14 +3482,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150">
@@ -3503,14 +3503,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151">
@@ -3524,14 +3524,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D151">
         <v>1</v>
       </c>
       <c r="E151">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152">
@@ -3545,14 +3545,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -3566,14 +3566,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
@@ -3587,14 +3587,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3608,14 +3608,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D156">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D157">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D158">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D159">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D160">
@@ -3734,14 +3734,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -3755,14 +3755,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D163">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D164">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D165">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D166">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D167">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D168">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D169">
@@ -3923,14 +3923,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171">
@@ -3944,14 +3944,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172">
@@ -3965,14 +3965,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173">
@@ -3986,14 +3986,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -4007,14 +4007,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4028,14 +4028,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D176">
@@ -4070,14 +4070,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -4091,14 +4091,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
@@ -4112,14 +4112,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -4133,14 +4133,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -4154,14 +4154,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -4175,14 +4175,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -4196,14 +4196,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D184">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D185">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D186">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D187">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D188">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D189">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D190">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D191">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D192">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D193">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D194">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D195">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D196">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D197">
@@ -4511,14 +4511,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199">
@@ -4532,14 +4532,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
         <v>3</v>
-      </c>
-      <c r="E199">
-        <v>11</v>
       </c>
     </row>
     <row r="200">
@@ -4553,14 +4553,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201">
@@ -4574,14 +4574,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E201">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
@@ -4595,14 +4595,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -4616,14 +4616,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D204">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D205">
@@ -4679,14 +4679,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -4700,14 +4700,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D208">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D209">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D210">
@@ -4784,14 +4784,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -4805,14 +4805,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D213">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D214">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D215">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D216">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D217">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D218">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D219">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D220">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D221">
@@ -5015,14 +5015,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -5036,14 +5036,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D223">
         <v>0</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D224">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D225">
@@ -5099,14 +5099,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -5120,14 +5120,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -5141,14 +5141,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D228">
         <v>0</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D229">
@@ -5183,14 +5183,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D231">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D232">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D233">
@@ -5267,14 +5267,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D234">
         <v>0</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -5288,14 +5288,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -5309,14 +5309,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -5330,14 +5330,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D238">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D239">
@@ -5393,14 +5393,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="241">
@@ -5414,14 +5414,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="242">
@@ -5435,14 +5435,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="243">
@@ -5456,14 +5456,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D243">
         <v>0</v>
       </c>
       <c r="E243">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="244">
@@ -5477,14 +5477,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D244">
         <v>0</v>
       </c>
       <c r="E244">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245">
@@ -5498,14 +5498,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="246">
@@ -5519,14 +5519,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D246">
         <v>0</v>
       </c>
       <c r="E246">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247">
@@ -5540,14 +5540,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D247">
         <v>0</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -5561,14 +5561,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D248">
         <v>0</v>
       </c>
       <c r="E248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -5582,14 +5582,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D249">
         <v>0</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -5603,14 +5603,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D251">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D252">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D253">
@@ -5687,14 +5687,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D254">
         <v>0</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -5708,14 +5708,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D256">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D257">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D258">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D259">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D260">
@@ -5834,14 +5834,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262">
@@ -5855,14 +5855,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E262">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -5876,14 +5876,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -5897,14 +5897,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -5918,14 +5918,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D266">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D267">
@@ -5981,14 +5981,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D268">
         <v>0</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -6002,14 +6002,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -6023,14 +6023,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E270">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -6044,14 +6044,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -6065,14 +6065,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D273">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D274">
@@ -6128,14 +6128,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E275">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="276">
@@ -6149,14 +6149,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D276">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E276">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="277">
@@ -6170,14 +6170,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D277">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E277">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278">
@@ -6191,14 +6191,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E278">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="279">
@@ -6212,14 +6212,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D279">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E279">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280">
@@ -6233,14 +6233,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D280">
         <v>0</v>
       </c>
       <c r="E280">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281">
@@ -6254,14 +6254,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D281">
         <v>0</v>
       </c>
       <c r="E281">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -6275,14 +6275,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E282">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="283">
@@ -6296,14 +6296,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E283">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284">
@@ -6317,14 +6317,14 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E284">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="285">
@@ -6338,14 +6338,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E285">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286">
@@ -6359,14 +6359,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D286">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E286">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -6380,14 +6380,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D287">
         <v>0</v>
       </c>
       <c r="E287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D288">
@@ -6422,14 +6422,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D289">
         <v>0</v>
       </c>
       <c r="E289">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="290">
@@ -6443,14 +6443,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D290">
         <v>0</v>
       </c>
       <c r="E290">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291">
@@ -6464,14 +6464,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D291">
         <v>0</v>
       </c>
       <c r="E291">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -6485,14 +6485,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D292">
         <v>0</v>
       </c>
       <c r="E292">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293">
@@ -6506,14 +6506,14 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D293">
         <v>0</v>
       </c>
       <c r="E293">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294">
@@ -6527,14 +6527,14 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D294">
         <v>0</v>
       </c>
       <c r="E294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -6548,14 +6548,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -6569,14 +6569,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E297">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -6611,14 +6611,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D298">
         <v>0</v>
       </c>
       <c r="E298">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299">
@@ -6632,14 +6632,14 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D299">
         <v>0</v>
       </c>
       <c r="E299">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -6653,11 +6653,11 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E300">
         <v>2</v>
@@ -6674,14 +6674,14 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D302">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D303">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D304">
@@ -6758,14 +6758,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D306">
@@ -6800,14 +6800,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -6821,7 +6821,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D308">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D309">
@@ -6863,14 +6863,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D310">
         <v>0</v>
       </c>
       <c r="E310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -6884,14 +6884,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D311">
         <v>0</v>
       </c>
       <c r="E311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -6905,7 +6905,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D312">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D313">
@@ -6947,7 +6947,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D314">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D315">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D316">
@@ -7010,14 +7010,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D317">
         <v>2</v>
       </c>
       <c r="E317">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="318">
@@ -7031,11 +7031,11 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D318">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E318">
         <v>47</v>
@@ -7052,14 +7052,14 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D319">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E319">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="320">
@@ -7073,14 +7073,14 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D320">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E320">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="321">
@@ -7094,14 +7094,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D321">
         <v>1</v>
       </c>
       <c r="E321">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="322">
@@ -7115,14 +7115,14 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D322">
         <v>1</v>
       </c>
       <c r="E322">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="323">
@@ -7136,14 +7136,14 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E323">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="324">
@@ -7157,14 +7157,14 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D324">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E324">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325">
@@ -7178,14 +7178,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D325">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E325">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326">
@@ -7199,14 +7199,14 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E326">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -7220,14 +7220,14 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D327">
         <v>0</v>
       </c>
       <c r="E327">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -7241,14 +7241,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D328">
         <v>0</v>
       </c>
       <c r="E328">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D329">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D330">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D331">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D332">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D333">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D334">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D335">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D336">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D337">
@@ -7451,14 +7451,14 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D338">
         <v>0</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -7472,14 +7472,14 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D339">
         <v>0</v>
       </c>
       <c r="E339">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D340">
@@ -7514,14 +7514,14 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D341">
         <v>0</v>
       </c>
       <c r="E341">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -7535,14 +7535,14 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D342">
         <v>0</v>
       </c>
       <c r="E342">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D343">
@@ -7577,14 +7577,14 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D344">
         <v>0</v>
       </c>
       <c r="E344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -7598,14 +7598,14 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D345">
         <v>0</v>
       </c>
       <c r="E345">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -7619,14 +7619,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -7640,14 +7640,14 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -7661,14 +7661,14 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E348">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349">
@@ -7682,14 +7682,14 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E349">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D350">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>17/12/2023</t>
         </is>
       </c>
       <c r="D351">
@@ -7745,14 +7745,14 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>10/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="D352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -7766,14 +7766,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="D353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -7787,14 +7787,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="D354">
         <v>0</v>
       </c>
       <c r="E354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -7808,14 +7808,14 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="D355">
         <v>0</v>
       </c>
       <c r="E355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="D356">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/12/2023</t>
         </is>
       </c>
       <c r="D357">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>16/12/202